--- a/CrossValidationICSE2023.xlsx
+++ b/CrossValidationICSE2023.xlsx
@@ -1,19 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malinda/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B925DC74-C1D8-C24B-8348-CEC55DB48F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet3" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="608">
   <si>
     <t>#</t>
   </si>
@@ -56,13 +74,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/tensorflow/models/commit/2de7692ddeffef0f0e965e1f8cca7463df19033a#diff-37f7617cdded5ebd5767a1b11009a070109397bc58d1efc6309a88566cc76dd7L358</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>8</t>
     </r>
   </si>
@@ -513,13 +538,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/scipy/scipy/commit/0488281d06e02aec9117614295a865ac3cb533b0#diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807R314</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>4</t>
     </r>
   </si>
@@ -538,13 +570,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/scipy/scipy/commit/0488281d06e02aec9117614295a865ac3cb533b0#diff-c46eb915f5cb2a2de3a3254969ee3e47e8062fed5851792a777a8a60bc014c90R66</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>6</t>
     </r>
   </si>
@@ -578,13 +617,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/scipy/scipy/commit/0488281d06e02aec9117614295a865ac3cb533b0#diff-764f0cedd33e98726d12c935495b80333a11e877a5a270d8ce53c9db152dd976R1237</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>7</t>
     </r>
   </si>
@@ -609,13 +655,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/scipy/scipy/commit/0488281d06e02aec9117614295a865ac3cb533b0#diff-de12b4c2d5ab8e6bfbca5f50bed12fa774e9e46fbc959ecb0495f37dea405318R89</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>9</t>
     </r>
   </si>
@@ -640,39 +693,60 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/scikit-optimize/scikit-optimize/commit/092ca44b4694f17983b095bf2fca9eb82a1c418a#diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R332</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/scikit-optimize/scikit-optimize/commit/092ca44b4694f17983b095bf2fca9eb82a1c418a#diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R337</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>7</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/scikit-optimize/scikit-optimize/commit/092ca44b4694f17983b095bf2fca9eb82a1c418a#diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R342</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
   </si>
@@ -685,13 +759,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/scikit-optimize/scikit-optimize/commit/092ca44b4694f17983b095bf2fca9eb82a1c418a#diff-157f0c94d83b58806e298a82b763a427a61f5ebd583373109ac7a49596ec9225R23</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3</t>
     </r>
   </si>
@@ -1865,13 +1946,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/AlexsLemonade/refinebio/commit/819ba546d438e52baaac15979241235f45786780#diff-234f84a9592c7ea2ce65dcdb80f019c3b804c4d6ad16053c9ddfc6e0a64d5013L292</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
   </si>
@@ -1881,13 +1969,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/AlexsLemonade/refinebio/commit/aced7b6a7b877660e0cfbf2617f72779e210efaa#diff-234f84a9592c7ea2ce65dcdb80f019c3b804c4d6ad16053c9ddfc6e0a64d5013L292</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
   </si>
@@ -1903,13 +1998,20 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/reframe-hpc/reframe/commit/56251bdf8281420a3209bf7ce749c0bf8413963d#diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL68</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>8</t>
     </r>
   </si>
@@ -1919,65 +2021,100 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/reframe-hpc/reframe/commit/56251bdf8281420a3209bf7ce749c0bf8413963d#diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL80</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>0</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/reframe-hpc/reframe/commit/56251bdf8281420a3209bf7ce749c0bf8413963d#diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL85</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>5</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/reframe-hpc/reframe/commit/56251bdf8281420a3209bf7ce749c0bf8413963d#diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL90</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>0</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/reframe-hpc/reframe/commit/56251bdf8281420a3209bf7ce749c0bf8413963d#diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL95</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>5</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/reframe-hpc/reframe/commit/56251bdf8281420a3209bf7ce749c0bf8413963d#diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL100</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>0</t>
     </r>
   </si>
@@ -1987,65 +2124,100 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/reframe-hpc/reframe/commit/56251bdf8281420a3209bf7ce749c0bf8413963d#diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL117</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>7</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/reframe-hpc/reframe/commit/56251bdf8281420a3209bf7ce749c0bf8413963d#diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL128</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>8</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/reframe-hpc/reframe/commit/56251bdf8281420a3209bf7ce749c0bf8413963d#diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL137</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>7</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/reframe-hpc/reframe/commit/56251bdf8281420a3209bf7ce749c0bf8413963d#diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL140</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>0</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://github.com/reframe-hpc/reframe/commit/56251bdf8281420a3209bf7ce749c0bf8413963d#diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL144</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>4</t>
     </r>
   </si>
@@ -2057,298 +2229,72 @@
   </si>
   <si>
     <t>https://github.com/horovod/horovod/commit/4371007e154b7882062cab8696b26d520252971b#diff-d5ab323609cf726d69185107809d3284f909f17e69de35faaf99d26d761cf0beL85</t>
-  </si>
-  <si>
-    <t>https://github.com/dipy/dipy/commit/c585a9779e5d8ae0b0b148792f8a7f8cecf73532#diff-5ca2bc1ef15e8167538eb3cc3d7be16b9bd21cecabb97494b4c1f227921fab03R71</t>
-  </si>
-  <si>
-    <t>open -&gt; io.open</t>
-  </si>
-  <si>
-    <t>https://github.com/tensorflow/datasets/commit/02ccf29b446caebc140943d7fbb9f7b274861470#diff-6e1be7c918d629a19e7f99c2ee61aa5c8a0270a502bc4cd4c9860286f396d490L56</t>
-  </si>
-  <si>
-    <t>tf.gfile.GFile</t>
-  </si>
-  <si>
-    <t>https://github.com/victoresque/pytorch-template/commit/d01c29228db3bffb451be36e2d556262597971c9#diff-b65070fe5615e6c711e5732e8d41ee0fe95d456876c19f58e739b7f357fa7d93L48</t>
-  </si>
-  <si>
-    <t>https://github.com/adobe/NLP-Cube/commit/3e80a81f04091891e065fae96ad33075a41a19ba#diff-61b3aa6ccc7999af210e37ddb4a3fc43641ff718a2699532723c317e55c35888R341</t>
-  </si>
-  <si>
-    <t>fopen</t>
-  </si>
-  <si>
-    <t>https://github.com/adobe/NLP-Cube/commit/3e80a81f04091891e065fae96ad33075a41a19ba#diff-61b3aa6ccc7999af210e37ddb4a3fc43641ff718a2699532723c317e55c35888R73</t>
-  </si>
-  <si>
-    <t>json.dump</t>
-  </si>
-  <si>
-    <t>https://github.com/pandas-dev/pandas/commit/fc9fdba6592bdb5d0d1147ce4d65639acd897565#diff-e2e65bf1f13a8ba1a6656d20334159456b7c07830527c336cf2d7733ba282e05L253</t>
-  </si>
-  <si>
-    <t>BytesIO(s3_object["Body"].read()</t>
-  </si>
-  <si>
-    <t>https://github.com/Bihaqo/t3f/commit/b78c8ff34ec25786831184b32c236aef9f08cd9e#diff-5d85baa3228ecc0711f04f433662de3e40a7e810d3a953930ec890e9eaeae26cL46</t>
-  </si>
-  <si>
-    <t>np.prod</t>
-  </si>
-  <si>
-    <t>https://github.com/GoogleCloudPlatform/PerfKitBenchmarker/commit/37bb2945cc38af48dfa5ad09392736c427008a80#diff-5282d3d7040e8e04f12d163a71382631a33fb9b4260d82c31030f52185b38d5cR168</t>
-  </si>
-  <si>
-    <t>for to sum</t>
-  </si>
-  <si>
-    <t>https://github.com/OpenNMT/OpenNMT-py/commit/ba164c0dbb3d8171004380956a88431f4e8248ba#diff-fa3c76576694291de650c11f3e3a4d00a68e887bfedddaf1079b5a7ac6903d6cR69</t>
-  </si>
-  <si>
-    <t>https://github.com/cornellius-gp/gpytorch/commit/e95aef6716ee8b2e0b647468ffe7f5bf37d4ce47#diff-dfd5f3f8ad667b12c5ac5b8a60e9a8bd76aebf187591c8f83b79656f2905b76bR45</t>
-  </si>
-  <si>
-    <t>https://github.com/data61/python-paillier/commit/103e31b4a2518797606d3b93440740df0532770d#diff-8b503b12be61cff27acb20969788ce097f27e90ebab53ec2ebbda3f5b484ceeeL149</t>
-  </si>
-  <si>
-    <t>np.dot</t>
-  </si>
-  <si>
-    <t>https://github.com/commonsense/conceptnet5/commit/79d149dd39dc7e7d22c623c0a4a4d3ab99e61c76#diff-e418f92de2a3362604bbb2e9bd2334b663f4cd538943864be1681b5112de7b6fR170</t>
-  </si>
-  <si>
-    <t>https://github.com/erikbern/ann-benchmarks/commit/97c34feee4f172bcf6907cfb63f99a52274c34e0#diff-a5fa297e66b71ac1a8685caa5c37577774be2c36024ecda7abeb70bb50214d0fR56</t>
-  </si>
-  <si>
-    <t>https://github.com/TheAlgorithms/Python/commit/2d70e9f7475d1a23b89fd1bd7b0af01f3173b0b5#diff-81bfb58376b7a3f48aef45f4cc4384fa6faea1ad661ce226b904bf0b345c5714L77</t>
-  </si>
-  <si>
-    <t>https://github.com/pyinstaller/pyinstaller/commit/5dc9f3ee3cfd496bb11d457dbfe1d91d9f0566a2#diff-dc739dbc0f24c474ce1fec737e43e83ebc0ed9f8768518a7ee7edb3da9f1dc94L186</t>
-  </si>
-  <si>
-    <t>https://github.com/keras-team/keras/commit/d03a41b4262e6aab8ad56cd8395808cacf5921e3#diff-b36b9e0ef3d3d534810dc5cc50ad9f7ed1c5f17b9b3419157cd5ad8a14be9f2eL101</t>
-  </si>
-  <si>
-    <t>https://github.com/IntelLabs/nlp-architect/commit/4d8cca40654deb641809bf8fb376afd9b1633d52#diff-c969059369ef193e5a3d63477b420d77e3e76fccf4976aa6f56ae6ebf02bc17eL42</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://github.com/keras-team/keras/commit/4cde148de0c37981c50f3a8e4a59fa4e5f653e17#diff-43c08b9b4fabc7bdc51eb7959300798edd3e53b79efb12ba0b8f740c189ccacfL23</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>https://github.com/oracle/Skater/commit/e533bc1eb253262785d3f889bf5deac1f77d3b1a#diff-f33e52acaa412c90c3780898bb0ec52d96e9c37a4896ee788c2234c5f5a3a0beL123</t>
-  </si>
-  <si>
-    <t>https://github.com/geekcomputers/Python/commit/161acf130a732150ff6f90c883476fa44d843efb#diff-9342bc960e754c82530ad115d9f6ab81e054b735ea399bb777ea74be0c184515L169</t>
-  </si>
-  <si>
-    <t>https://github.com/pyinstaller/pyinstaller/commit/5dc9f3ee3cfd496bb11d457dbfe1d91d9f0566a2#diff-630874e817e558b5870661301c7f5bd3ae00eff13389522e254c7cd2255fc395L580</t>
-  </si>
-  <si>
-    <t>https://github.com/RaRe-Technologies/gensim/commit/ec60b6d78f0fc423a8158d9f42210b878a8bcf0e#diff-1d651c0f7062f063843b3ca8e460e35f7a1fbdb3a3b6acca0c6453846646556cL83</t>
-  </si>
-  <si>
-    <t>https://github.com/TheAlgorithms/Python/commit/2d70e9f7475d1a23b89fd1bd7b0af01f3173b0b5#diff-d005bf329c0b484ccf5acccb7ae4179e935ccfc465688d9a89e350d6cc5cbf1eL23</t>
-  </si>
-  <si>
-    <t>https://github.com/dipy/dipy/commit/c585a9779e5d8ae0b0b148792f8a7f8cecf73532#diff-5ca2bc1ef15e8167538eb3cc3d7be16b9bd21cecabb97494b4c1f227921fab03L142</t>
-  </si>
-  <si>
-    <t>https://github.com/keras-team/keras/commit/4cde148de0c37981c50f3a8e4a59fa4e5f653e17#diff-b0872a331b6099a327165e2a174047f2d9d42f9fb6f97cf6b5fd62325bf3c84dL117</t>
-  </si>
-  <si>
-    <t>https://github.com/TheAlgorithms/Python/commit/2d70e9f7475d1a23b89fd1bd7b0af01f3173b0b5#diff-563c9f24ef2eb518bdbc6f3aca0af0f0bc5ef1872e3dbd4f5efc16a39f0e201bL8</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://github.com/pyinstaller/pyinstaller/commit/5dc9f3ee3cfd496bb11d457dbfe1d91d9f0566a2#diff-9f489daba0bb4d1112107276320e56a59120d40ba67c23b2ecd5994ab1995c43L57</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://github.com/pysb/pysb/commit/b9d8388cdd242a8c660d7a6de37d2374d048b649#diff-1d29b29ad3019cd8bccc127c384493dea24738b613b279a09eff266fca875412L116</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>6</t>
-    </r>
-  </si>
-  <si>
-    <t>https://github.com/pyinstaller/pyinstaller/commit/5dc9f3ee3cfd496bb11d457dbfe1d91d9f0566a2#diff-9f489daba0bb4d1112107276320e56a59120d40ba67c23b2ecd5994ab1995c43L45</t>
-  </si>
-  <si>
-    <t>https://github.com/TheAlgorithms/Python/commit/2d70e9f7475d1a23b89fd1bd7b0af01f3173b0b5#diff-90bad197b802d088992f4ff6e0cee1889c2b32e15fb55e5c93bab66f12da970dL28</t>
-  </si>
-  <si>
-    <t>https://github.com/keras-team/keras/commit/4cde148de0c37981c50f3a8e4a59fa4e5f653e17#diff-c7b96e0e6485d10adc1a6b29b739377dc78072fff8eb02724385b7d6809fa4d2L26</t>
-  </si>
-  <si>
-    <t>https://github.com/undertheseanlp/underthesea/commit/80ee39154b951c2c50ae2067f560aad81510a13f#diff-7759957a3a243b5714613f45bd9d002cd4f78e0804d97bd12ff426e418cf4329L11</t>
-  </si>
-  <si>
-    <t>https://github.com/pyinstaller/pyinstaller/commit/5dc9f3ee3cfd496bb11d457dbfe1d91d9f0566a2#diff-f053408d09422e4bb8087a60571462616a2d60bdf4354f35f0a50b577646d083L215</t>
-  </si>
-  <si>
-    <t>https://github.com/pyinstaller/pyinstaller/commit/5dc9f3ee3cfd496bb11d457dbfe1d91d9f0566a2#diff-54d2674e7b1d1fe436f74ced335a1d4e241b958a9e1eb49685209ad4bed1b5e1L274</t>
-  </si>
-  <si>
-    <t>https://github.com/keras-team/keras/commit/4cde148de0c37981c50f3a8e4a59fa4e5f653e17#diff-f4c7ccd4c776ce6db4bca7c4c59a7f45f733278c29ef22ddf69a56c67b2bc1faR41</t>
-  </si>
-  <si>
-    <t>https://github.com/brian-team/brian2/commit/137a37292e327cf304777b3fd9721dd772ad775e#diff-c9ef9dd5e0320d16d66f9c7eed5737375b633615b63740bf65d233e2b104fa06L23</t>
-  </si>
-  <si>
-    <t>https://github.com/pyinstaller/pyinstaller/commit/5dc9f3ee3cfd496bb11d457dbfe1d91d9f0566a2#diff-9253386dccb0c1f9219c858826229bac6572a8bbbab1d0b8f00de83a9098fdcbL200</t>
-  </si>
-  <si>
-    <t>https://github.com/keras-team/keras/commit/4cde148de0c37981c50f3a8e4a59fa4e5f653e17#diff-b08f8eb68f1020decc0addd2758a1b71e202215b4d9756bda4e422e8a35e243cL2606</t>
-  </si>
-  <si>
-    <t>https://github.com/zake7749/PTT-Chat-Generator/commit/d3fd9a8a9681d74d0db8b8e8ac793502b7079d78#diff-ffffd9f6c1a5a6b69ddecc6f7471e3740181fb3e2ca8b20c548c854ea19460c1L43</t>
-  </si>
-  <si>
-    <t>https://github.com/TheAlgorithms/Python/commit/2d70e9f7475d1a23b89fd1bd7b0af01f3173b0b5#diff-2ba9472389d12aaf1b685f68b027b46be8d26094c36f681c92bf4b534ec3b7b1L18</t>
-  </si>
-  <si>
-    <t>https://github.com/pyinstaller/pyinstaller/commit/5dc9f3ee3cfd496bb11d457dbfe1d91d9f0566a2#diff-9f489daba0bb4d1112107276320e56a59120d40ba67c23b2ecd5994ab1995c43L51</t>
-  </si>
-  <si>
-    <t>https://github.com/yzhao062/pyod/commit/71f60ac1afd5942e0981fc98cd3e534c3dc24a78#diff-60f61ab7a8d1910d86d9fda2261620314edcae5894d5aaa236b821c7256badd7L7</t>
-  </si>
-  <si>
-    <t>https://github.com/pyinstaller/pyinstaller/commit/5dc9f3ee3cfd496bb11d457dbfe1d91d9f0566a2#diff-e4aadb728d9b76cccd5ae2a38b57ff17aa78d192aaac19dd990d47a6c27d4368L34</t>
-  </si>
-  <si>
-    <t>https://github.com/geekcomputers/Python/commit/161acf130a732150ff6f90c883476fa44d843efb#diff-9342bc960e754c82530ad115d9f6ab81e054b735ea399bb777ea74be0c184515R145</t>
-  </si>
-  <si>
-    <t>https://github.com/PyMVPA/PyMVPA/commit/8af9bd7ff42efa77d70690e7c374b321967209af#diff-153e25b84be59af6181c019d94c955908c35b4436f51fe9be39adc74a0411f82L34</t>
-  </si>
-  <si>
-    <t>https://github.com/scikit-learn-contrib/category_encoders/commit/073e1b2326fd17b6b64db9bd06dc789c44373482#diff-72679ce8c5571d1aa23ab9e1d69ec76dae8ee6af94744aa721bc9a17412c0df0L15</t>
-  </si>
-  <si>
-    <t>https://github.com/nilearn/nilearn/commit/b282567cada395b44099011f4403fe200aceedbf#diff-cbc783e04fab01575685fc805e7da07243849dfe7aee261c710dcf3692d03bbdL276</t>
-  </si>
-  <si>
-    <t>https://github.com/IntelLabs/nlp-architect/commit/4d8cca40654deb641809bf8fb376afd9b1633d52#diff-c969059369ef193e5a3d63477b420d77e3e76fccf4976aa6f56ae6ebf02bc17eR42</t>
-  </si>
-  <si>
-    <t>https://github.com/pyinstaller/pyinstaller/commit/5dc9f3ee3cfd496bb11d457dbfe1d91d9f0566a2#diff-7db682582b2ebd3272256f3c35a0c91253f72290c94cff05d3a9a578fbcd0164R104</t>
-  </si>
-  <si>
-    <t>https://github.com/pyinstaller/pyinstaller/commit/5dc9f3ee3cfd496bb11d457dbfe1d91d9f0566a2#diff-9f489daba0bb4d1112107276320e56a59120d40ba67c23b2ecd5994ab1995c43L39</t>
-  </si>
-  <si>
-    <t>https://github.com/mne-tools/mne-python/commit/52d2c268171070643e6946497ab192dee9b68b69#diff-830dfecb0f096e4c94cb42aade24632c53155a692b3af342d60a71cb8c2b9ac7L1369</t>
-  </si>
-  <si>
-    <t>https://github.com/TheAlgorithms/Python/commit/2d70e9f7475d1a23b89fd1bd7b0af01f3173b0b5#diff-eab5316441440d2b3d5ef2142c1f79f63035c96660db08ef9e4c7b895ddcfd4aR100</t>
-  </si>
-  <si>
-    <t>https://github.com/RasaHQ/rasa/commit/a75820dd72bf9bcc24df894ec87c45a559f0138f#diff-60f61ab7a8d1910d86d9fda2261620314edcae5894d5aaa236b821c7256badd7L9</t>
-  </si>
-  <si>
-    <t>https://github.com/RaRe-Technologies/gensim/commit/1aa7e115fcf87b443373c14b7b2f3dd2e3383584#diff-e696bad8c806ca776215699a28deab32cdb2b7189d3b9641e565784c37a991c3L136</t>
-  </si>
-  <si>
-    <t>https://github.com/prody/ProDy/commit/7ce77f195f86744f06b9544c2b124c86d13df608#diff-608c75b25e53d0560334d6aaaff5eaeec750c9e77aa01486edb103e2cd0976cdL487</t>
-  </si>
-  <si>
-    <t>https://github.com/keras-team/keras/commit/4cde148de0c37981c50f3a8e4a59fa4e5f653e17#diff-b36b9e0ef3d3d534810dc5cc50ad9f7ed1c5f17b9b3419157cd5ad8a14be9f2eR754</t>
-  </si>
-  <si>
-    <t>https://github.com/geekcomputers/Python/commit/161acf130a732150ff6f90c883476fa44d843efb#diff-9342bc960e754c82530ad115d9f6ab81e054b735ea399bb777ea74be0c184515L198</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF24292F"/>
       <name val="Ui-monospace"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF24292F"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF8250DF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF24292F"/>
-      <name val="Ui-monospace"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2356,7 +2302,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2390,7 +2336,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -2404,95 +2356,51 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2682,26 +2590,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Q902"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.5"/>
-    <col customWidth="1" min="2" max="2" width="44.25"/>
-    <col customWidth="1" min="3" max="3" width="156.5"/>
-    <col customWidth="1" min="7" max="7" width="15.75"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" customWidth="1"/>
+    <col min="3" max="3" width="156.5" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2722,9 +2633,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -2745,7 +2656,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
@@ -2763,7 +2674,7 @@
         <v>73918</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
@@ -2774,7 +2685,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
@@ -2785,14 +2696,14 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
@@ -2809,7 +2720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
@@ -2820,7 +2731,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
@@ -2831,9 +2742,9 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
@@ -2850,7 +2761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
@@ -2863,9 +2774,9 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="12" t="s">
@@ -2882,7 +2793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12" t="s">
@@ -2893,9 +2804,9 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6" t="s">
@@ -2912,7 +2823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
@@ -2923,7 +2834,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="6" t="s">
@@ -2934,7 +2845,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
@@ -2945,7 +2856,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
@@ -2956,9 +2867,9 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="10">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="12" t="s">
@@ -2975,7 +2886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12" t="s">
@@ -2986,9 +2897,9 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6" t="s">
@@ -3005,7 +2916,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
@@ -3016,7 +2927,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6" t="s">
@@ -3027,7 +2938,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6" t="s">
@@ -3038,7 +2949,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6" t="s">
@@ -3049,7 +2960,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6" t="s">
@@ -3060,7 +2971,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="6" t="s">
@@ -3071,7 +2982,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
@@ -3082,7 +2993,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="6" t="s">
@@ -3093,9 +3004,9 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="12" t="s">
@@ -3112,7 +3023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="12" t="s">
@@ -3123,7 +3034,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12" t="s">
@@ -3134,7 +3045,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12" t="s">
@@ -3145,7 +3056,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="12" t="s">
@@ -3156,7 +3067,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="12" t="s">
@@ -3167,14 +3078,14 @@
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
       <c r="A43" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="6" t="s">
@@ -3191,7 +3102,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="6" t="s">
@@ -3202,7 +3113,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6" t="s">
@@ -3213,7 +3124,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="6" t="s">
@@ -3224,7 +3135,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6" t="s">
@@ -3235,7 +3146,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="6" t="s">
@@ -3246,7 +3157,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6" t="s">
@@ -3257,9 +3168,9 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
       <c r="A51" s="10">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="12" t="s">
@@ -3276,7 +3187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
       <c r="A52" s="10"/>
       <c r="B52" s="11"/>
       <c r="C52" s="12" t="s">
@@ -3287,7 +3198,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
       <c r="A53" s="10"/>
       <c r="B53" s="11"/>
       <c r="C53" s="12" t="s">
@@ -3298,9 +3209,9 @@
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
       <c r="A56" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6" t="s">
@@ -3317,7 +3228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6" t="s">
@@ -3328,9 +3239,9 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
       <c r="A59" s="10">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>53</v>
@@ -3349,7 +3260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" ht="13">
       <c r="A60" s="10"/>
       <c r="B60" s="11"/>
       <c r="C60" s="12" t="s">
@@ -3360,7 +3271,7 @@
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" ht="13">
       <c r="A61" s="10"/>
       <c r="B61" s="11"/>
       <c r="C61" s="12" t="s">
@@ -3371,9 +3282,9 @@
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" ht="13">
       <c r="A63" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="6" t="s">
@@ -3390,7 +3301,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" ht="13">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6" t="s">
@@ -3401,7 +3312,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:17" ht="13">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6" t="s">
@@ -3412,7 +3323,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:17" ht="13">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6" t="s">
@@ -3423,7 +3334,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:17" ht="13">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6" t="s">
@@ -3434,7 +3345,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:17" ht="13">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6" t="s">
@@ -3445,7 +3356,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:17" ht="13">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6" t="s">
@@ -3456,7 +3367,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:17" ht="13">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6" t="s">
@@ -3467,7 +3378,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:17" ht="13">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6" t="s">
@@ -3478,7 +3389,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:17" ht="13">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6" t="s">
@@ -3489,7 +3400,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:17" ht="13">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6" t="s">
@@ -3500,7 +3411,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:17" ht="13">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6" t="s">
@@ -3511,7 +3422,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:17" ht="13">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6" t="s">
@@ -3522,7 +3433,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:17" ht="13">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6" t="s">
@@ -3533,7 +3444,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:17" ht="13">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6" t="s">
@@ -3544,7 +3455,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:17" ht="13">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="6" t="s">
@@ -3555,7 +3466,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:17" ht="13">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6" t="s">
@@ -3567,7 +3478,7 @@
       <c r="G79" s="5"/>
       <c r="Q79" s="13"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:17" ht="13">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="6" t="s">
@@ -3579,7 +3490,7 @@
       <c r="G80" s="5"/>
       <c r="Q80" s="13"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:17" ht="13">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6" t="s">
@@ -3591,7 +3502,7 @@
       <c r="G81" s="5"/>
       <c r="Q81" s="14"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:17" ht="13">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6" t="s">
@@ -3603,7 +3514,7 @@
       <c r="G82" s="5"/>
       <c r="Q82" s="13"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:17" ht="13">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6" t="s">
@@ -3615,7 +3526,7 @@
       <c r="G83" s="5"/>
       <c r="Q83" s="13"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:17" ht="13">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="6" t="s">
@@ -3627,7 +3538,7 @@
       <c r="G84" s="5"/>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:17" ht="13">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6" t="s">
@@ -3639,7 +3550,7 @@
       <c r="G85" s="5"/>
       <c r="Q85" s="13"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:17" ht="13">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="6" t="s">
@@ -3651,7 +3562,7 @@
       <c r="G86" s="5"/>
       <c r="Q86" s="13"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:17" ht="13">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6" t="s">
@@ -3663,7 +3574,7 @@
       <c r="G87" s="5"/>
       <c r="Q87" s="13"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:17" ht="13">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="6" t="s">
@@ -3675,12 +3586,12 @@
       <c r="G88" s="5"/>
       <c r="Q88" s="13"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:17" ht="13">
       <c r="Q89" s="13"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:17" ht="13">
       <c r="A90" s="10">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="12" t="s">
@@ -3697,7 +3608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:17" ht="13">
       <c r="A91" s="10"/>
       <c r="B91" s="11"/>
       <c r="C91" s="12" t="s">
@@ -3708,7 +3619,7 @@
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:17" ht="13">
       <c r="A92" s="10"/>
       <c r="B92" s="11"/>
       <c r="C92" s="12" t="s">
@@ -3719,7 +3630,7 @@
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:17" ht="13">
       <c r="A93" s="10"/>
       <c r="B93" s="11"/>
       <c r="C93" s="12" t="s">
@@ -3730,7 +3641,7 @@
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:17" ht="13">
       <c r="A94" s="10"/>
       <c r="B94" s="11"/>
       <c r="C94" s="12" t="s">
@@ -3741,7 +3652,7 @@
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:17" ht="13">
       <c r="A95" s="10"/>
       <c r="B95" s="11"/>
       <c r="C95" s="12" t="s">
@@ -3752,7 +3663,7 @@
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:17" ht="13">
       <c r="A96" s="10"/>
       <c r="B96" s="11"/>
       <c r="C96" s="12" t="s">
@@ -3763,7 +3674,7 @@
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:16" ht="13">
       <c r="A97" s="10"/>
       <c r="B97" s="11"/>
       <c r="C97" s="12" t="s">
@@ -3774,14 +3685,14 @@
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:16" ht="13">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:16" ht="13">
       <c r="A100" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>80</v>
@@ -3800,7 +3711,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:16" ht="13">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="6" t="s">
@@ -3811,7 +3722,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:16" ht="13">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="6" t="s">
@@ -3822,7 +3733,7 @@
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:16" ht="13">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="6" t="s">
@@ -3833,7 +3744,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:16" ht="13">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="6" t="s">
@@ -3844,7 +3755,7 @@
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:16" ht="13">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="6" t="s">
@@ -3855,7 +3766,7 @@
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:16" ht="13">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="6" t="s">
@@ -3866,7 +3777,7 @@
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:16" ht="13">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="6" t="s">
@@ -3877,7 +3788,7 @@
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:16" ht="13">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="6" t="s">
@@ -3888,7 +3799,7 @@
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:16" ht="13">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="6" t="s">
@@ -3900,7 +3811,7 @@
       <c r="G109" s="5"/>
       <c r="P109" s="9"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:16" ht="13">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="6" t="s">
@@ -3911,7 +3822,7 @@
       <c r="F110" s="5"/>
       <c r="G110" s="5"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:16" ht="13">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="6" t="s">
@@ -3922,7 +3833,7 @@
       <c r="F111" s="5"/>
       <c r="G111" s="5"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:16" ht="13">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="6" t="s">
@@ -3933,7 +3844,7 @@
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:17" ht="13">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="6" t="s">
@@ -3945,7 +3856,7 @@
       <c r="G113" s="5"/>
       <c r="Q113" s="15"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:17" ht="13">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="6" t="s">
@@ -3956,7 +3867,7 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:17" ht="13">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="6" t="s">
@@ -3967,7 +3878,7 @@
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:17" ht="13">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="6" t="s">
@@ -3978,7 +3889,7 @@
       <c r="F116" s="5"/>
       <c r="G116" s="5"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:17" ht="13">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="6" t="s">
@@ -3989,7 +3900,7 @@
       <c r="F117" s="5"/>
       <c r="G117" s="5"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:17" ht="13">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="6" t="s">
@@ -4000,7 +3911,7 @@
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:17" ht="13">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="6" t="s">
@@ -4011,7 +3922,7 @@
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:17" ht="13">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="6" t="s">
@@ -4022,7 +3933,7 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:17" ht="13">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="6" t="s">
@@ -4033,7 +3944,7 @@
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:17" ht="13">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="6" t="s">
@@ -4044,7 +3955,7 @@
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:17" ht="13">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="6" t="s">
@@ -4055,7 +3966,7 @@
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:17" ht="13">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="6" t="s">
@@ -4066,7 +3977,7 @@
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:17" ht="13">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="6" t="s">
@@ -4077,7 +3988,7 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:17" ht="13">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="6" t="s">
@@ -4088,7 +3999,7 @@
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:17" ht="13">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="6" t="s">
@@ -4099,7 +4010,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:17" ht="13">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="6" t="s">
@@ -4110,7 +4021,7 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7" ht="13">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="6" t="s">
@@ -4121,9 +4032,9 @@
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:7" ht="13">
       <c r="A131" s="10">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B131" s="11"/>
       <c r="C131" s="12" t="s">
@@ -4142,7 +4053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:7" ht="13">
       <c r="A132" s="10"/>
       <c r="B132" s="11"/>
       <c r="C132" s="12" t="s">
@@ -4153,7 +4064,7 @@
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:7" ht="13">
       <c r="A133" s="10"/>
       <c r="B133" s="11"/>
       <c r="C133" s="12" t="s">
@@ -4164,7 +4075,7 @@
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:7" ht="13">
       <c r="A134" s="10"/>
       <c r="B134" s="11"/>
       <c r="C134" s="12" t="s">
@@ -4175,9 +4086,9 @@
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7" ht="13">
       <c r="A136" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="6" t="s">
@@ -4194,7 +4105,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:7" ht="13">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="6" t="s">
@@ -4205,7 +4116,7 @@
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:7" ht="13">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="6" t="s">
@@ -4216,7 +4127,7 @@
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:7" ht="13">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="6" t="s">
@@ -4227,7 +4138,7 @@
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:7" ht="13">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="6" t="s">
@@ -4238,7 +4149,7 @@
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7" ht="13">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="6" t="s">
@@ -4249,7 +4160,7 @@
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7" ht="13">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="6" t="s">
@@ -4260,7 +4171,7 @@
       <c r="F142" s="5"/>
       <c r="G142" s="5"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7" ht="13">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="6" t="s">
@@ -4271,7 +4182,7 @@
       <c r="F143" s="5"/>
       <c r="G143" s="5"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:7" ht="13">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="6" t="s">
@@ -4282,7 +4193,7 @@
       <c r="F144" s="5"/>
       <c r="G144" s="5"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:17" ht="13">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="6" t="s">
@@ -4293,7 +4204,7 @@
       <c r="F145" s="5"/>
       <c r="G145" s="5"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:17" ht="13">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="6" t="s">
@@ -4304,7 +4215,7 @@
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:17" ht="13">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="6" t="s">
@@ -4315,9 +4226,9 @@
       <c r="F147" s="5"/>
       <c r="G147" s="5"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:17" ht="13">
       <c r="A149" s="10">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B149" s="11" t="s">
         <v>119</v>
@@ -4337,7 +4248,7 @@
       </c>
       <c r="Q149" s="15"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:17" ht="13">
       <c r="A150" s="10"/>
       <c r="B150" s="11"/>
       <c r="C150" s="12" t="s">
@@ -4348,7 +4259,7 @@
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:17" ht="13">
       <c r="A151" s="10"/>
       <c r="B151" s="11"/>
       <c r="C151" s="12" t="s">
@@ -4359,7 +4270,7 @@
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:17" ht="13">
       <c r="A152" s="10"/>
       <c r="B152" s="11"/>
       <c r="C152" s="12" t="s">
@@ -4370,7 +4281,7 @@
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:17" ht="13">
       <c r="A153" s="10"/>
       <c r="B153" s="11"/>
       <c r="C153" s="12" t="s">
@@ -4381,7 +4292,7 @@
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:17" ht="13">
       <c r="A154" s="10"/>
       <c r="B154" s="11"/>
       <c r="C154" s="12" t="s">
@@ -4392,7 +4303,7 @@
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:17" ht="13">
       <c r="A155" s="10"/>
       <c r="B155" s="11"/>
       <c r="C155" s="12" t="s">
@@ -4403,7 +4314,7 @@
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:17" ht="13">
       <c r="A156" s="10"/>
       <c r="B156" s="11"/>
       <c r="C156" s="12" t="s">
@@ -4414,7 +4325,7 @@
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:17" ht="13">
       <c r="A157" s="10"/>
       <c r="B157" s="11"/>
       <c r="C157" s="12" t="s">
@@ -4425,7 +4336,7 @@
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:17" ht="13">
       <c r="A158" s="10"/>
       <c r="B158" s="11"/>
       <c r="C158" s="12" t="s">
@@ -4436,7 +4347,7 @@
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:17" ht="13">
       <c r="A159" s="10"/>
       <c r="B159" s="11"/>
       <c r="C159" s="12" t="s">
@@ -4447,9 +4358,9 @@
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:17" ht="13">
       <c r="A161" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="6" t="s">
@@ -4466,7 +4377,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:17" ht="13">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="6" t="s">
@@ -4478,7 +4389,7 @@
       <c r="G162" s="5"/>
       <c r="Q162" s="16"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:17" ht="13">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="6" t="s">
@@ -4489,7 +4400,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:17" ht="13">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="6" t="s">
@@ -4500,7 +4411,7 @@
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:17" ht="13">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="6" t="s">
@@ -4511,7 +4422,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:17" ht="13">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="6" t="s">
@@ -4522,7 +4433,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:17" ht="13">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="6" t="s">
@@ -4533,7 +4444,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:17" ht="13">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="6" t="s">
@@ -4544,9 +4455,9 @@
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:17" ht="13">
       <c r="A170" s="10">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B170" s="11"/>
       <c r="C170" s="12" t="s">
@@ -4563,7 +4474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:17" ht="13">
       <c r="A171" s="10"/>
       <c r="B171" s="11"/>
       <c r="C171" s="12" t="s">
@@ -4574,7 +4485,7 @@
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:17" ht="13">
       <c r="A172" s="10"/>
       <c r="B172" s="11"/>
       <c r="C172" s="12" t="s">
@@ -4585,7 +4496,7 @@
       <c r="F172" s="11"/>
       <c r="G172" s="11"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:17" ht="13">
       <c r="A173" s="10"/>
       <c r="B173" s="11"/>
       <c r="C173" s="12" t="s">
@@ -4596,7 +4507,7 @@
       <c r="F173" s="11"/>
       <c r="G173" s="11"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:17" ht="13">
       <c r="A174" s="10"/>
       <c r="B174" s="11"/>
       <c r="C174" s="12" t="s">
@@ -4607,7 +4518,7 @@
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:17" ht="13">
       <c r="A175" s="10"/>
       <c r="B175" s="11"/>
       <c r="C175" s="12" t="s">
@@ -4618,12 +4529,12 @@
       <c r="F175" s="11"/>
       <c r="G175" s="11"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:17" ht="13">
       <c r="Q176" s="15"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:17" ht="13">
       <c r="A177" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B177" s="5"/>
       <c r="C177" s="6" t="s">
@@ -4637,7 +4548,7 @@
       </c>
       <c r="G177" s="5"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:17" ht="13">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="6" t="s">
@@ -4648,7 +4559,7 @@
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:17" ht="13">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="6" t="s">
@@ -4659,7 +4570,7 @@
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:17" ht="13">
       <c r="A180" s="10"/>
       <c r="B180" s="11"/>
       <c r="C180" s="12" t="s">
@@ -4676,7 +4587,7 @@
       </c>
       <c r="Q180" s="13"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:17" ht="13">
       <c r="A181" s="10"/>
       <c r="B181" s="11"/>
       <c r="C181" s="12" t="s">
@@ -4687,7 +4598,7 @@
       <c r="F181" s="11"/>
       <c r="G181" s="11"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:17" ht="13">
       <c r="A182" s="10"/>
       <c r="B182" s="11"/>
       <c r="C182" s="12" t="s">
@@ -4698,12 +4609,12 @@
       <c r="F182" s="11"/>
       <c r="G182" s="11"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:17" ht="13">
       <c r="G183" s="17"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:17" ht="13">
       <c r="A184" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="6" t="s">
@@ -4723,7 +4634,7 @@
       </c>
       <c r="Q184" s="13"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:17" ht="13">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="6" t="s">
@@ -4734,7 +4645,7 @@
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:17" ht="13">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="6" t="s">
@@ -4745,7 +4656,7 @@
       <c r="F186" s="5"/>
       <c r="G186" s="5"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:17" ht="13">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="6" t="s">
@@ -4756,12 +4667,12 @@
       <c r="F187" s="5"/>
       <c r="G187" s="5"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:17" ht="13">
       <c r="G188" s="17"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:17" ht="13">
       <c r="A189" s="10">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B189" s="11"/>
       <c r="C189" s="12" t="s">
@@ -4781,7 +4692,7 @@
       </c>
       <c r="Q189" s="13"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:17" ht="13">
       <c r="A190" s="10"/>
       <c r="B190" s="11"/>
       <c r="C190" s="12" t="s">
@@ -4792,7 +4703,7 @@
       <c r="F190" s="11"/>
       <c r="G190" s="11"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:17" ht="13">
       <c r="A191" s="10"/>
       <c r="B191" s="11"/>
       <c r="C191" s="12" t="s">
@@ -4803,7 +4714,7 @@
       <c r="F191" s="11"/>
       <c r="G191" s="11"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:17" ht="13">
       <c r="A192" s="10"/>
       <c r="B192" s="11"/>
       <c r="C192" s="12" t="s">
@@ -4814,7 +4725,7 @@
       <c r="F192" s="11"/>
       <c r="G192" s="11"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:7" ht="13">
       <c r="A193" s="10"/>
       <c r="B193" s="11"/>
       <c r="C193" s="12" t="s">
@@ -4825,7 +4736,7 @@
       <c r="F193" s="11"/>
       <c r="G193" s="11"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:7" ht="13">
       <c r="A194" s="10"/>
       <c r="B194" s="11"/>
       <c r="C194" s="12" t="s">
@@ -4836,7 +4747,7 @@
       <c r="F194" s="11"/>
       <c r="G194" s="11"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:7" ht="13">
       <c r="A195" s="10"/>
       <c r="B195" s="11"/>
       <c r="C195" s="12" t="s">
@@ -4847,7 +4758,7 @@
       <c r="F195" s="11"/>
       <c r="G195" s="11"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:7" ht="13">
       <c r="A196" s="10"/>
       <c r="B196" s="11"/>
       <c r="C196" s="12" t="s">
@@ -4858,7 +4769,7 @@
       <c r="F196" s="11"/>
       <c r="G196" s="11"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:7" ht="13">
       <c r="A197" s="10"/>
       <c r="B197" s="11"/>
       <c r="C197" s="12" t="s">
@@ -4869,7 +4780,7 @@
       <c r="F197" s="11"/>
       <c r="G197" s="11"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:7" ht="13">
       <c r="A198" s="10"/>
       <c r="B198" s="11"/>
       <c r="C198" s="12" t="s">
@@ -4880,7 +4791,7 @@
       <c r="F198" s="11"/>
       <c r="G198" s="11"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:7" ht="13">
       <c r="A199" s="10"/>
       <c r="B199" s="11"/>
       <c r="C199" s="12" t="s">
@@ -4891,7 +4802,7 @@
       <c r="F199" s="11"/>
       <c r="G199" s="11"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:7" ht="13">
       <c r="A200" s="10"/>
       <c r="B200" s="11"/>
       <c r="C200" s="12" t="s">
@@ -4902,7 +4813,7 @@
       <c r="F200" s="11"/>
       <c r="G200" s="11"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:7" ht="13">
       <c r="A201" s="10"/>
       <c r="B201" s="11"/>
       <c r="C201" s="12" t="s">
@@ -4913,7 +4824,7 @@
       <c r="F201" s="11"/>
       <c r="G201" s="11"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:7" ht="13">
       <c r="A202" s="10"/>
       <c r="B202" s="11"/>
       <c r="C202" s="12" t="s">
@@ -4924,7 +4835,7 @@
       <c r="F202" s="11"/>
       <c r="G202" s="11"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:7" ht="13">
       <c r="A203" s="10"/>
       <c r="B203" s="11"/>
       <c r="C203" s="12" t="s">
@@ -4935,7 +4846,7 @@
       <c r="F203" s="11"/>
       <c r="G203" s="11"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:7" ht="13">
       <c r="A204" s="10"/>
       <c r="B204" s="11"/>
       <c r="C204" s="12" t="s">
@@ -4946,7 +4857,7 @@
       <c r="F204" s="11"/>
       <c r="G204" s="11"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:7" ht="13">
       <c r="A205" s="10"/>
       <c r="B205" s="11"/>
       <c r="C205" s="12" t="s">
@@ -4957,7 +4868,7 @@
       <c r="F205" s="11"/>
       <c r="G205" s="11"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:7" ht="13">
       <c r="A206" s="10"/>
       <c r="B206" s="11"/>
       <c r="C206" s="12" t="s">
@@ -4968,7 +4879,7 @@
       <c r="F206" s="11"/>
       <c r="G206" s="11"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:7" ht="13">
       <c r="A207" s="10"/>
       <c r="B207" s="11"/>
       <c r="C207" s="12" t="s">
@@ -4979,7 +4890,7 @@
       <c r="F207" s="11"/>
       <c r="G207" s="11"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:7" ht="13">
       <c r="A208" s="10"/>
       <c r="B208" s="11"/>
       <c r="C208" s="12" t="s">
@@ -4990,7 +4901,7 @@
       <c r="F208" s="11"/>
       <c r="G208" s="11"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:17" ht="13">
       <c r="A209" s="10"/>
       <c r="B209" s="11"/>
       <c r="C209" s="12" t="s">
@@ -5001,7 +4912,7 @@
       <c r="F209" s="11"/>
       <c r="G209" s="11"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:17" ht="13">
       <c r="A210" s="10"/>
       <c r="B210" s="11"/>
       <c r="C210" s="12" t="s">
@@ -5012,7 +4923,7 @@
       <c r="F210" s="11"/>
       <c r="G210" s="11"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:17" ht="13">
       <c r="A211" s="10"/>
       <c r="B211" s="11"/>
       <c r="C211" s="12" t="s">
@@ -5023,7 +4934,7 @@
       <c r="F211" s="11"/>
       <c r="G211" s="11"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:17" ht="13">
       <c r="A212" s="10"/>
       <c r="B212" s="11"/>
       <c r="C212" s="12" t="s">
@@ -5034,7 +4945,7 @@
       <c r="F212" s="11"/>
       <c r="G212" s="11"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:17" ht="13">
       <c r="A213" s="10"/>
       <c r="B213" s="11"/>
       <c r="C213" s="12" t="s">
@@ -5045,7 +4956,7 @@
       <c r="F213" s="11"/>
       <c r="G213" s="11"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:17" ht="13">
       <c r="A214" s="10"/>
       <c r="B214" s="11"/>
       <c r="C214" s="12" t="s">
@@ -5056,7 +4967,7 @@
       <c r="F214" s="11"/>
       <c r="G214" s="11"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:17" ht="13">
       <c r="A215" s="10"/>
       <c r="B215" s="11"/>
       <c r="C215" s="12" t="s">
@@ -5067,7 +4978,7 @@
       <c r="F215" s="11"/>
       <c r="G215" s="11"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:17" ht="13">
       <c r="A216" s="10"/>
       <c r="B216" s="11"/>
       <c r="C216" s="12" t="s">
@@ -5078,12 +4989,12 @@
       <c r="F216" s="11"/>
       <c r="G216" s="11"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:17" ht="13">
       <c r="G217" s="17"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:17" ht="13">
       <c r="A218" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B218" s="5"/>
       <c r="C218" s="6" t="s">
@@ -5103,7 +5014,7 @@
       </c>
       <c r="Q218" s="16"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:17" ht="13">
       <c r="A219" s="4"/>
       <c r="B219" s="5"/>
       <c r="C219" s="6" t="s">
@@ -5114,7 +5025,7 @@
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:17" ht="13">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
       <c r="C220" s="6" t="s">
@@ -5125,7 +5036,7 @@
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:17" ht="13">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="6" t="s">
@@ -5136,7 +5047,7 @@
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:17" ht="13">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
       <c r="C222" s="6" t="s">
@@ -5147,7 +5058,7 @@
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:17" ht="13">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
       <c r="C223" s="6" t="s">
@@ -5158,7 +5069,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:17" ht="13">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="6" t="s">
@@ -5169,7 +5080,7 @@
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:7" ht="13">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="6" t="s">
@@ -5180,7 +5091,7 @@
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:7" ht="13">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
       <c r="C226" s="6" t="s">
@@ -5191,7 +5102,7 @@
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:7" ht="13">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="6" t="s">
@@ -5202,7 +5113,7 @@
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:7" ht="13">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
       <c r="C228" s="6" t="s">
@@ -5213,12 +5124,12 @@
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:7" ht="13">
       <c r="G229" s="17"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:7" ht="13">
       <c r="A230" s="10">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B230" s="11"/>
       <c r="C230" s="12" t="s">
@@ -5235,7 +5146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:7" ht="13">
       <c r="A231" s="10"/>
       <c r="B231" s="11"/>
       <c r="C231" s="12" t="s">
@@ -5246,7 +5157,7 @@
       <c r="F231" s="11"/>
       <c r="G231" s="11"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:7" ht="13">
       <c r="A232" s="10"/>
       <c r="B232" s="11"/>
       <c r="C232" s="12" t="s">
@@ -5257,12 +5168,12 @@
       <c r="F232" s="11"/>
       <c r="G232" s="11"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:7" ht="13">
       <c r="G233" s="17"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:7" ht="13">
       <c r="A234" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B234" s="5"/>
       <c r="C234" s="6" t="s">
@@ -5279,7 +5190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:7" ht="13">
       <c r="A235" s="4"/>
       <c r="B235" s="5"/>
       <c r="C235" s="6" t="s">
@@ -5290,7 +5201,7 @@
       <c r="F235" s="5"/>
       <c r="G235" s="5"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:7" ht="13">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="6" t="s">
@@ -5301,12 +5212,12 @@
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:7" ht="13">
       <c r="G237" s="17"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:7" ht="13">
       <c r="A238" s="10">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B238" s="11"/>
       <c r="C238" s="12" t="s">
@@ -5323,7 +5234,7 @@
         <v>62250</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:7" ht="13">
       <c r="A239" s="10"/>
       <c r="B239" s="11"/>
       <c r="C239" s="12" t="s">
@@ -5334,7 +5245,7 @@
       <c r="F239" s="11"/>
       <c r="G239" s="11"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:7" ht="13">
       <c r="A240" s="10"/>
       <c r="B240" s="11"/>
       <c r="C240" s="12" t="s">
@@ -5345,7 +5256,7 @@
       <c r="F240" s="11"/>
       <c r="G240" s="11"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:7" ht="13">
       <c r="A241" s="10"/>
       <c r="B241" s="11"/>
       <c r="C241" s="12" t="s">
@@ -5356,7 +5267,7 @@
       <c r="F241" s="11"/>
       <c r="G241" s="11"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:7" ht="13">
       <c r="A242" s="10"/>
       <c r="B242" s="11"/>
       <c r="C242" s="12" t="s">
@@ -5367,7 +5278,7 @@
       <c r="F242" s="11"/>
       <c r="G242" s="11"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:7" ht="13">
       <c r="A243" s="10"/>
       <c r="B243" s="11"/>
       <c r="C243" s="12" t="s">
@@ -5378,7 +5289,7 @@
       <c r="F243" s="11"/>
       <c r="G243" s="11"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:7" ht="13">
       <c r="A244" s="10"/>
       <c r="B244" s="11"/>
       <c r="C244" s="12" t="s">
@@ -5389,7 +5300,7 @@
       <c r="F244" s="11"/>
       <c r="G244" s="11"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:7" ht="13">
       <c r="A245" s="10"/>
       <c r="B245" s="11"/>
       <c r="C245" s="12" t="s">
@@ -5400,7 +5311,7 @@
       <c r="F245" s="11"/>
       <c r="G245" s="11"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:7" ht="13">
       <c r="A246" s="10"/>
       <c r="B246" s="11"/>
       <c r="C246" s="12" t="s">
@@ -5411,7 +5322,7 @@
       <c r="F246" s="11"/>
       <c r="G246" s="11"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:7" ht="13">
       <c r="A247" s="10"/>
       <c r="B247" s="11"/>
       <c r="C247" s="12" t="s">
@@ -5422,7 +5333,7 @@
       <c r="F247" s="11"/>
       <c r="G247" s="11"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:7" ht="13">
       <c r="A248" s="10"/>
       <c r="B248" s="11"/>
       <c r="C248" s="12" t="s">
@@ -5433,7 +5344,7 @@
       <c r="F248" s="11"/>
       <c r="G248" s="11"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:7" ht="13">
       <c r="A249" s="10"/>
       <c r="B249" s="11"/>
       <c r="C249" s="12" t="s">
@@ -5444,7 +5355,7 @@
       <c r="F249" s="11"/>
       <c r="G249" s="11"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:7" ht="13">
       <c r="A250" s="10"/>
       <c r="B250" s="11"/>
       <c r="C250" s="12" t="s">
@@ -5455,7 +5366,7 @@
       <c r="F250" s="11"/>
       <c r="G250" s="11"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:7" ht="13">
       <c r="A251" s="10"/>
       <c r="B251" s="11"/>
       <c r="C251" s="12" t="s">
@@ -5466,7 +5377,7 @@
       <c r="F251" s="11"/>
       <c r="G251" s="11"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:7" ht="13">
       <c r="A252" s="10"/>
       <c r="B252" s="11"/>
       <c r="C252" s="12" t="s">
@@ -5477,7 +5388,7 @@
       <c r="F252" s="11"/>
       <c r="G252" s="11"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:7" ht="13">
       <c r="A253" s="10"/>
       <c r="B253" s="11"/>
       <c r="C253" s="12" t="s">
@@ -5488,7 +5399,7 @@
       <c r="F253" s="11"/>
       <c r="G253" s="11"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:7" ht="13">
       <c r="A254" s="10"/>
       <c r="B254" s="11"/>
       <c r="C254" s="12" t="s">
@@ -5499,7 +5410,7 @@
       <c r="F254" s="11"/>
       <c r="G254" s="11"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:7" ht="13">
       <c r="A255" s="10"/>
       <c r="B255" s="11"/>
       <c r="C255" s="12" t="s">
@@ -5510,7 +5421,7 @@
       <c r="F255" s="11"/>
       <c r="G255" s="11"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:7" ht="13">
       <c r="A256" s="10"/>
       <c r="B256" s="11"/>
       <c r="C256" s="12" t="s">
@@ -5521,7 +5432,7 @@
       <c r="F256" s="11"/>
       <c r="G256" s="11"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:7" ht="13">
       <c r="A257" s="10"/>
       <c r="B257" s="11"/>
       <c r="C257" s="12" t="s">
@@ -5532,7 +5443,7 @@
       <c r="F257" s="11"/>
       <c r="G257" s="11"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:7" ht="13">
       <c r="A258" s="10"/>
       <c r="B258" s="11"/>
       <c r="C258" s="12" t="s">
@@ -5543,7 +5454,7 @@
       <c r="F258" s="11"/>
       <c r="G258" s="11"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:7" ht="13">
       <c r="A259" s="10"/>
       <c r="B259" s="11"/>
       <c r="C259" s="12" t="s">
@@ -5554,7 +5465,7 @@
       <c r="F259" s="11"/>
       <c r="G259" s="11"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:7" ht="13">
       <c r="A260" s="10"/>
       <c r="B260" s="11"/>
       <c r="C260" s="12" t="s">
@@ -5565,7 +5476,7 @@
       <c r="F260" s="11"/>
       <c r="G260" s="11"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:7" ht="13">
       <c r="A261" s="10"/>
       <c r="B261" s="11"/>
       <c r="C261" s="12" t="s">
@@ -5576,7 +5487,7 @@
       <c r="F261" s="11"/>
       <c r="G261" s="11"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:7" ht="13">
       <c r="A262" s="10"/>
       <c r="B262" s="11"/>
       <c r="C262" s="12" t="s">
@@ -5587,7 +5498,7 @@
       <c r="F262" s="11"/>
       <c r="G262" s="11"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:7" ht="13">
       <c r="A263" s="10"/>
       <c r="B263" s="11"/>
       <c r="C263" s="12" t="s">
@@ -5598,7 +5509,7 @@
       <c r="F263" s="11"/>
       <c r="G263" s="11"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:7" ht="13">
       <c r="A264" s="10"/>
       <c r="B264" s="11"/>
       <c r="C264" s="12" t="s">
@@ -5609,7 +5520,7 @@
       <c r="F264" s="11"/>
       <c r="G264" s="11"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:7" ht="13">
       <c r="A265" s="10"/>
       <c r="B265" s="11"/>
       <c r="C265" s="12" t="s">
@@ -5620,7 +5531,7 @@
       <c r="F265" s="11"/>
       <c r="G265" s="11"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:7" ht="13">
       <c r="A266" s="10"/>
       <c r="B266" s="11"/>
       <c r="C266" s="12" t="s">
@@ -5631,7 +5542,7 @@
       <c r="F266" s="11"/>
       <c r="G266" s="11"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:7" ht="13">
       <c r="A267" s="10"/>
       <c r="B267" s="11"/>
       <c r="C267" s="12" t="s">
@@ -5642,7 +5553,7 @@
       <c r="F267" s="11"/>
       <c r="G267" s="11"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:7" ht="13">
       <c r="A268" s="10"/>
       <c r="B268" s="11"/>
       <c r="C268" s="12" t="s">
@@ -5653,7 +5564,7 @@
       <c r="F268" s="11"/>
       <c r="G268" s="11"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:7" ht="13">
       <c r="A269" s="10"/>
       <c r="B269" s="11"/>
       <c r="C269" s="12" t="s">
@@ -5664,7 +5575,7 @@
       <c r="F269" s="11"/>
       <c r="G269" s="11"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:7" ht="13">
       <c r="A270" s="10"/>
       <c r="B270" s="11"/>
       <c r="C270" s="12" t="s">
@@ -5675,7 +5586,7 @@
       <c r="F270" s="11"/>
       <c r="G270" s="11"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:7" ht="13">
       <c r="A271" s="10"/>
       <c r="B271" s="11"/>
       <c r="C271" s="12" t="s">
@@ -5686,7 +5597,7 @@
       <c r="F271" s="11"/>
       <c r="G271" s="11"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:7" ht="13">
       <c r="A272" s="10"/>
       <c r="B272" s="11"/>
       <c r="C272" s="12" t="s">
@@ -5697,7 +5608,7 @@
       <c r="F272" s="11"/>
       <c r="G272" s="11"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:7" ht="13">
       <c r="A273" s="10"/>
       <c r="B273" s="11"/>
       <c r="C273" s="12" t="s">
@@ -5708,7 +5619,7 @@
       <c r="F273" s="11"/>
       <c r="G273" s="11"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:7" ht="13">
       <c r="A274" s="10"/>
       <c r="B274" s="11"/>
       <c r="C274" s="12" t="s">
@@ -5719,7 +5630,7 @@
       <c r="F274" s="11"/>
       <c r="G274" s="11"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:7" ht="13">
       <c r="A275" s="10"/>
       <c r="B275" s="11"/>
       <c r="C275" s="12" t="s">
@@ -5730,7 +5641,7 @@
       <c r="F275" s="11"/>
       <c r="G275" s="11"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:7" ht="13">
       <c r="A276" s="10"/>
       <c r="B276" s="11"/>
       <c r="C276" s="12" t="s">
@@ -5741,7 +5652,7 @@
       <c r="F276" s="11"/>
       <c r="G276" s="11"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:7" ht="13">
       <c r="A277" s="10"/>
       <c r="B277" s="11"/>
       <c r="C277" s="12" t="s">
@@ -5752,7 +5663,7 @@
       <c r="F277" s="11"/>
       <c r="G277" s="11"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:7" ht="13">
       <c r="A278" s="10"/>
       <c r="B278" s="11"/>
       <c r="C278" s="12" t="s">
@@ -5763,7 +5674,7 @@
       <c r="F278" s="11"/>
       <c r="G278" s="11"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:7" ht="13">
       <c r="A279" s="10"/>
       <c r="B279" s="11"/>
       <c r="C279" s="12" t="s">
@@ -5774,7 +5685,7 @@
       <c r="F279" s="11"/>
       <c r="G279" s="11"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:7" ht="13">
       <c r="A280" s="10"/>
       <c r="B280" s="11"/>
       <c r="C280" s="12" t="s">
@@ -5785,7 +5696,7 @@
       <c r="F280" s="11"/>
       <c r="G280" s="11"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:7" ht="13">
       <c r="A281" s="10"/>
       <c r="B281" s="11"/>
       <c r="C281" s="12" t="s">
@@ -5796,7 +5707,7 @@
       <c r="F281" s="11"/>
       <c r="G281" s="11"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:7" ht="13">
       <c r="A282" s="10"/>
       <c r="B282" s="11"/>
       <c r="C282" s="12" t="s">
@@ -5807,7 +5718,7 @@
       <c r="F282" s="11"/>
       <c r="G282" s="11"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:7" ht="13">
       <c r="A283" s="10"/>
       <c r="B283" s="11"/>
       <c r="C283" s="12" t="s">
@@ -5818,7 +5729,7 @@
       <c r="F283" s="11"/>
       <c r="G283" s="11"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:7" ht="13">
       <c r="A284" s="10"/>
       <c r="B284" s="11"/>
       <c r="C284" s="12" t="s">
@@ -5829,7 +5740,7 @@
       <c r="F284" s="11"/>
       <c r="G284" s="11"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:7" ht="13">
       <c r="A285" s="10"/>
       <c r="B285" s="11"/>
       <c r="C285" s="12" t="s">
@@ -5840,7 +5751,7 @@
       <c r="F285" s="11"/>
       <c r="G285" s="11"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:7" ht="13">
       <c r="A286" s="10"/>
       <c r="B286" s="11"/>
       <c r="C286" s="12" t="s">
@@ -5851,7 +5762,7 @@
       <c r="F286" s="11"/>
       <c r="G286" s="11"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:7" ht="13">
       <c r="A287" s="10"/>
       <c r="B287" s="11"/>
       <c r="C287" s="12" t="s">
@@ -5862,7 +5773,7 @@
       <c r="F287" s="11"/>
       <c r="G287" s="11"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:7" ht="13">
       <c r="A288" s="10"/>
       <c r="B288" s="11"/>
       <c r="C288" s="12" t="s">
@@ -5873,7 +5784,7 @@
       <c r="F288" s="11"/>
       <c r="G288" s="11"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:7" ht="13">
       <c r="A289" s="10"/>
       <c r="B289" s="11"/>
       <c r="C289" s="12" t="s">
@@ -5884,7 +5795,7 @@
       <c r="F289" s="11"/>
       <c r="G289" s="11"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:7" ht="13">
       <c r="A290" s="10"/>
       <c r="B290" s="11"/>
       <c r="C290" s="12" t="s">
@@ -5895,7 +5806,7 @@
       <c r="F290" s="11"/>
       <c r="G290" s="11"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:7" ht="13">
       <c r="A291" s="10"/>
       <c r="B291" s="11"/>
       <c r="C291" s="12" t="s">
@@ -5906,7 +5817,7 @@
       <c r="F291" s="11"/>
       <c r="G291" s="11"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:7" ht="13">
       <c r="A292" s="10"/>
       <c r="B292" s="11"/>
       <c r="C292" s="12" t="s">
@@ -5917,7 +5828,7 @@
       <c r="F292" s="11"/>
       <c r="G292" s="11"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:7" ht="13">
       <c r="A293" s="10"/>
       <c r="B293" s="11"/>
       <c r="C293" s="12" t="s">
@@ -5928,7 +5839,7 @@
       <c r="F293" s="11"/>
       <c r="G293" s="11"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:7" ht="13">
       <c r="A294" s="10"/>
       <c r="B294" s="11"/>
       <c r="C294" s="12" t="s">
@@ -5939,7 +5850,7 @@
       <c r="F294" s="11"/>
       <c r="G294" s="11"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:7" ht="13">
       <c r="A295" s="10"/>
       <c r="B295" s="11"/>
       <c r="C295" s="12" t="s">
@@ -5950,7 +5861,7 @@
       <c r="F295" s="11"/>
       <c r="G295" s="11"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:7" ht="13">
       <c r="A296" s="10"/>
       <c r="B296" s="11"/>
       <c r="C296" s="12" t="s">
@@ -5961,7 +5872,7 @@
       <c r="F296" s="11"/>
       <c r="G296" s="11"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:7" ht="13">
       <c r="A297" s="10"/>
       <c r="B297" s="11"/>
       <c r="C297" s="12" t="s">
@@ -5972,7 +5883,7 @@
       <c r="F297" s="11"/>
       <c r="G297" s="11"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:7" ht="13">
       <c r="A298" s="10"/>
       <c r="B298" s="11"/>
       <c r="C298" s="12" t="s">
@@ -5983,7 +5894,7 @@
       <c r="F298" s="11"/>
       <c r="G298" s="11"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:7" ht="13">
       <c r="A299" s="10"/>
       <c r="B299" s="11"/>
       <c r="C299" s="12" t="s">
@@ -5994,7 +5905,7 @@
       <c r="F299" s="11"/>
       <c r="G299" s="11"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:7" ht="13">
       <c r="A300" s="10"/>
       <c r="B300" s="11"/>
       <c r="C300" s="12" t="s">
@@ -6005,7 +5916,7 @@
       <c r="F300" s="11"/>
       <c r="G300" s="11"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:7" ht="13">
       <c r="A301" s="10"/>
       <c r="B301" s="11"/>
       <c r="C301" s="12" t="s">
@@ -6016,7 +5927,7 @@
       <c r="F301" s="11"/>
       <c r="G301" s="11"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:7" ht="13">
       <c r="A302" s="10"/>
       <c r="B302" s="11"/>
       <c r="C302" s="12" t="s">
@@ -6027,7 +5938,7 @@
       <c r="F302" s="11"/>
       <c r="G302" s="11"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:7" ht="13">
       <c r="A303" s="10"/>
       <c r="B303" s="11"/>
       <c r="C303" s="12" t="s">
@@ -6038,7 +5949,7 @@
       <c r="F303" s="11"/>
       <c r="G303" s="11"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:7" ht="13">
       <c r="A304" s="10"/>
       <c r="B304" s="11"/>
       <c r="C304" s="12" t="s">
@@ -6049,7 +5960,7 @@
       <c r="F304" s="11"/>
       <c r="G304" s="11"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:7" ht="13">
       <c r="A305" s="10"/>
       <c r="B305" s="11"/>
       <c r="C305" s="12" t="s">
@@ -6060,7 +5971,7 @@
       <c r="F305" s="11"/>
       <c r="G305" s="11"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:7" ht="13">
       <c r="A306" s="10"/>
       <c r="B306" s="11"/>
       <c r="C306" s="12" t="s">
@@ -6071,7 +5982,7 @@
       <c r="F306" s="11"/>
       <c r="G306" s="11"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:7" ht="13">
       <c r="A307" s="10"/>
       <c r="B307" s="11"/>
       <c r="C307" s="12" t="s">
@@ -6082,7 +5993,7 @@
       <c r="F307" s="11"/>
       <c r="G307" s="11"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:7" ht="13">
       <c r="A308" s="10"/>
       <c r="B308" s="11"/>
       <c r="C308" s="12" t="s">
@@ -6093,7 +6004,7 @@
       <c r="F308" s="11"/>
       <c r="G308" s="11"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:7" ht="13">
       <c r="A309" s="10"/>
       <c r="B309" s="11"/>
       <c r="C309" s="12" t="s">
@@ -6104,7 +6015,7 @@
       <c r="F309" s="11"/>
       <c r="G309" s="11"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:7" ht="13">
       <c r="A310" s="10"/>
       <c r="B310" s="11"/>
       <c r="C310" s="12" t="s">
@@ -6115,7 +6026,7 @@
       <c r="F310" s="11"/>
       <c r="G310" s="11"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:7" ht="13">
       <c r="A311" s="10"/>
       <c r="B311" s="11"/>
       <c r="C311" s="12" t="s">
@@ -6126,7 +6037,7 @@
       <c r="F311" s="11"/>
       <c r="G311" s="11"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:7" ht="13">
       <c r="A312" s="10"/>
       <c r="B312" s="11"/>
       <c r="C312" s="12" t="s">
@@ -6137,7 +6048,7 @@
       <c r="F312" s="11"/>
       <c r="G312" s="11"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:7" ht="13">
       <c r="A313" s="10"/>
       <c r="B313" s="11"/>
       <c r="C313" s="12" t="s">
@@ -6148,7 +6059,7 @@
       <c r="F313" s="11"/>
       <c r="G313" s="11"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:7" ht="13">
       <c r="A314" s="10"/>
       <c r="B314" s="11"/>
       <c r="C314" s="12" t="s">
@@ -6159,7 +6070,7 @@
       <c r="F314" s="11"/>
       <c r="G314" s="11"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:7" ht="13">
       <c r="A315" s="10"/>
       <c r="B315" s="11"/>
       <c r="C315" s="12" t="s">
@@ -6170,7 +6081,7 @@
       <c r="F315" s="11"/>
       <c r="G315" s="11"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:7" ht="13">
       <c r="A316" s="10"/>
       <c r="B316" s="11"/>
       <c r="C316" s="12" t="s">
@@ -6181,7 +6092,7 @@
       <c r="F316" s="11"/>
       <c r="G316" s="11"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:7" ht="13">
       <c r="A317" s="10"/>
       <c r="B317" s="11"/>
       <c r="C317" s="12" t="s">
@@ -6192,7 +6103,7 @@
       <c r="F317" s="11"/>
       <c r="G317" s="11"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:7" ht="13">
       <c r="A318" s="10"/>
       <c r="B318" s="11"/>
       <c r="C318" s="12" t="s">
@@ -6203,7 +6114,7 @@
       <c r="F318" s="11"/>
       <c r="G318" s="11"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:7" ht="13">
       <c r="A319" s="10"/>
       <c r="B319" s="11"/>
       <c r="C319" s="12" t="s">
@@ -6214,7 +6125,7 @@
       <c r="F319" s="11"/>
       <c r="G319" s="11"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:7" ht="13">
       <c r="A320" s="10"/>
       <c r="B320" s="11"/>
       <c r="C320" s="12" t="s">
@@ -6225,7 +6136,7 @@
       <c r="F320" s="11"/>
       <c r="G320" s="11"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:7" ht="13">
       <c r="A321" s="10"/>
       <c r="B321" s="11"/>
       <c r="C321" s="12" t="s">
@@ -6236,7 +6147,7 @@
       <c r="F321" s="11"/>
       <c r="G321" s="11"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:7" ht="13">
       <c r="A322" s="10"/>
       <c r="B322" s="11"/>
       <c r="C322" s="12" t="s">
@@ -6247,7 +6158,7 @@
       <c r="F322" s="11"/>
       <c r="G322" s="11"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:7" ht="13">
       <c r="A323" s="10"/>
       <c r="B323" s="11"/>
       <c r="C323" s="12" t="s">
@@ -6258,7 +6169,7 @@
       <c r="F323" s="11"/>
       <c r="G323" s="11"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:7" ht="13">
       <c r="A324" s="10"/>
       <c r="B324" s="11"/>
       <c r="C324" s="12" t="s">
@@ -6269,7 +6180,7 @@
       <c r="F324" s="11"/>
       <c r="G324" s="11"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:7" ht="13">
       <c r="A325" s="10"/>
       <c r="B325" s="11"/>
       <c r="C325" s="12" t="s">
@@ -6280,7 +6191,7 @@
       <c r="F325" s="11"/>
       <c r="G325" s="11"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:7" ht="13">
       <c r="A326" s="10"/>
       <c r="B326" s="11"/>
       <c r="C326" s="12" t="s">
@@ -6291,7 +6202,7 @@
       <c r="F326" s="11"/>
       <c r="G326" s="11"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:7" ht="13">
       <c r="A327" s="10"/>
       <c r="B327" s="11"/>
       <c r="C327" s="12" t="s">
@@ -6302,7 +6213,7 @@
       <c r="F327" s="11"/>
       <c r="G327" s="11"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:7" ht="13">
       <c r="A328" s="10"/>
       <c r="B328" s="11"/>
       <c r="C328" s="12" t="s">
@@ -6313,7 +6224,7 @@
       <c r="F328" s="11"/>
       <c r="G328" s="11"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:7" ht="13">
       <c r="A329" s="10"/>
       <c r="B329" s="11"/>
       <c r="C329" s="12" t="s">
@@ -6324,7 +6235,7 @@
       <c r="F329" s="11"/>
       <c r="G329" s="11"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:7" ht="13">
       <c r="A330" s="10"/>
       <c r="B330" s="11"/>
       <c r="C330" s="12" t="s">
@@ -6335,7 +6246,7 @@
       <c r="F330" s="11"/>
       <c r="G330" s="11"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:7" ht="13">
       <c r="A331" s="10"/>
       <c r="B331" s="11"/>
       <c r="C331" s="12" t="s">
@@ -6346,7 +6257,7 @@
       <c r="F331" s="11"/>
       <c r="G331" s="11"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:7" ht="13">
       <c r="A332" s="10"/>
       <c r="B332" s="11"/>
       <c r="C332" s="12" t="s">
@@ -6357,7 +6268,7 @@
       <c r="F332" s="11"/>
       <c r="G332" s="11"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:7" ht="13">
       <c r="A333" s="10"/>
       <c r="B333" s="11"/>
       <c r="C333" s="12" t="s">
@@ -6368,7 +6279,7 @@
       <c r="F333" s="11"/>
       <c r="G333" s="11"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:7" ht="13">
       <c r="A334" s="10"/>
       <c r="B334" s="11"/>
       <c r="C334" s="12" t="s">
@@ -6379,7 +6290,7 @@
       <c r="F334" s="11"/>
       <c r="G334" s="11"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:7" ht="13">
       <c r="A335" s="10"/>
       <c r="B335" s="11"/>
       <c r="C335" s="12" t="s">
@@ -6390,7 +6301,7 @@
       <c r="F335" s="11"/>
       <c r="G335" s="11"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:7" ht="13">
       <c r="A336" s="10"/>
       <c r="B336" s="11"/>
       <c r="C336" s="12" t="s">
@@ -6401,7 +6312,7 @@
       <c r="F336" s="11"/>
       <c r="G336" s="11"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:7" ht="13">
       <c r="A337" s="10"/>
       <c r="B337" s="11"/>
       <c r="C337" s="12" t="s">
@@ -6412,7 +6323,7 @@
       <c r="F337" s="11"/>
       <c r="G337" s="11"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:7" ht="13">
       <c r="A338" s="10"/>
       <c r="B338" s="11"/>
       <c r="C338" s="12" t="s">
@@ -6423,7 +6334,7 @@
       <c r="F338" s="11"/>
       <c r="G338" s="11"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:7" ht="13">
       <c r="A339" s="10"/>
       <c r="B339" s="11"/>
       <c r="C339" s="12" t="s">
@@ -6434,7 +6345,7 @@
       <c r="F339" s="11"/>
       <c r="G339" s="11"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:7" ht="13">
       <c r="A340" s="10"/>
       <c r="B340" s="11"/>
       <c r="C340" s="12" t="s">
@@ -6445,7 +6356,7 @@
       <c r="F340" s="11"/>
       <c r="G340" s="11"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:7" ht="13">
       <c r="A341" s="10"/>
       <c r="B341" s="11"/>
       <c r="C341" s="12" t="s">
@@ -6456,7 +6367,7 @@
       <c r="F341" s="11"/>
       <c r="G341" s="11"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:7" ht="13">
       <c r="A342" s="10"/>
       <c r="B342" s="11"/>
       <c r="C342" s="12" t="s">
@@ -6467,7 +6378,7 @@
       <c r="F342" s="11"/>
       <c r="G342" s="11"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:7" ht="13">
       <c r="A343" s="10"/>
       <c r="B343" s="11"/>
       <c r="C343" s="12" t="s">
@@ -6478,7 +6389,7 @@
       <c r="F343" s="11"/>
       <c r="G343" s="11"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:7" ht="13">
       <c r="A344" s="10"/>
       <c r="B344" s="11"/>
       <c r="C344" s="12" t="s">
@@ -6489,7 +6400,7 @@
       <c r="F344" s="11"/>
       <c r="G344" s="11"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:7" ht="13">
       <c r="A345" s="10"/>
       <c r="B345" s="11"/>
       <c r="C345" s="12" t="s">
@@ -6500,7 +6411,7 @@
       <c r="F345" s="11"/>
       <c r="G345" s="11"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:7" ht="13">
       <c r="A346" s="10"/>
       <c r="B346" s="11"/>
       <c r="C346" s="12" t="s">
@@ -6511,7 +6422,7 @@
       <c r="F346" s="11"/>
       <c r="G346" s="11"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:7" ht="13">
       <c r="A347" s="10"/>
       <c r="B347" s="11"/>
       <c r="C347" s="12" t="s">
@@ -6522,7 +6433,7 @@
       <c r="F347" s="11"/>
       <c r="G347" s="11"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:7" ht="13">
       <c r="A348" s="10"/>
       <c r="B348" s="11"/>
       <c r="C348" s="12" t="s">
@@ -6533,7 +6444,7 @@
       <c r="F348" s="11"/>
       <c r="G348" s="11"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:7" ht="13">
       <c r="A349" s="10"/>
       <c r="B349" s="11"/>
       <c r="C349" s="12" t="s">
@@ -6544,7 +6455,7 @@
       <c r="F349" s="11"/>
       <c r="G349" s="11"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:7" ht="13">
       <c r="A350" s="10"/>
       <c r="B350" s="11"/>
       <c r="C350" s="12" t="s">
@@ -6555,7 +6466,7 @@
       <c r="F350" s="11"/>
       <c r="G350" s="11"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:7" ht="13">
       <c r="A351" s="10"/>
       <c r="B351" s="11"/>
       <c r="C351" s="12" t="s">
@@ -6566,7 +6477,7 @@
       <c r="F351" s="11"/>
       <c r="G351" s="11"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:7" ht="13">
       <c r="A352" s="10"/>
       <c r="B352" s="11"/>
       <c r="C352" s="12" t="s">
@@ -6577,7 +6488,7 @@
       <c r="F352" s="11"/>
       <c r="G352" s="11"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:7" ht="13">
       <c r="A353" s="10"/>
       <c r="B353" s="11"/>
       <c r="C353" s="12" t="s">
@@ -6588,7 +6499,7 @@
       <c r="F353" s="11"/>
       <c r="G353" s="11"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:7" ht="13">
       <c r="A354" s="10"/>
       <c r="B354" s="11"/>
       <c r="C354" s="12" t="s">
@@ -6599,7 +6510,7 @@
       <c r="F354" s="11"/>
       <c r="G354" s="11"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:7" ht="13">
       <c r="A355" s="10"/>
       <c r="B355" s="11"/>
       <c r="C355" s="12" t="s">
@@ -6610,7 +6521,7 @@
       <c r="F355" s="11"/>
       <c r="G355" s="11"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:7" ht="13">
       <c r="A356" s="10"/>
       <c r="B356" s="11"/>
       <c r="C356" s="12" t="s">
@@ -6621,7 +6532,7 @@
       <c r="F356" s="11"/>
       <c r="G356" s="11"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:7" ht="13">
       <c r="A357" s="10"/>
       <c r="B357" s="11"/>
       <c r="C357" s="12" t="s">
@@ -6632,7 +6543,7 @@
       <c r="F357" s="11"/>
       <c r="G357" s="11"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:7" ht="13">
       <c r="A358" s="10"/>
       <c r="B358" s="11"/>
       <c r="C358" s="12" t="s">
@@ -6643,7 +6554,7 @@
       <c r="F358" s="11"/>
       <c r="G358" s="11"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:7" ht="13">
       <c r="A359" s="10"/>
       <c r="B359" s="11"/>
       <c r="C359" s="12" t="s">
@@ -6654,7 +6565,7 @@
       <c r="F359" s="11"/>
       <c r="G359" s="11"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:7" ht="13">
       <c r="A360" s="10"/>
       <c r="B360" s="11"/>
       <c r="C360" s="12" t="s">
@@ -6665,7 +6576,7 @@
       <c r="F360" s="11"/>
       <c r="G360" s="11"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:7" ht="13">
       <c r="A361" s="10"/>
       <c r="B361" s="11"/>
       <c r="C361" s="12" t="s">
@@ -6676,7 +6587,7 @@
       <c r="F361" s="11"/>
       <c r="G361" s="11"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:7" ht="13">
       <c r="A362" s="10"/>
       <c r="B362" s="11"/>
       <c r="C362" s="12" t="s">
@@ -6687,7 +6598,7 @@
       <c r="F362" s="11"/>
       <c r="G362" s="11"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:7" ht="13">
       <c r="A363" s="10"/>
       <c r="B363" s="11"/>
       <c r="C363" s="12" t="s">
@@ -6698,7 +6609,7 @@
       <c r="F363" s="11"/>
       <c r="G363" s="11"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:7" ht="13">
       <c r="A364" s="10"/>
       <c r="B364" s="11"/>
       <c r="C364" s="12" t="s">
@@ -6709,7 +6620,7 @@
       <c r="F364" s="11"/>
       <c r="G364" s="11"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:7" ht="13">
       <c r="A365" s="10"/>
       <c r="B365" s="11"/>
       <c r="C365" s="12" t="s">
@@ -6720,7 +6631,7 @@
       <c r="F365" s="11"/>
       <c r="G365" s="11"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:7" ht="13">
       <c r="A366" s="10"/>
       <c r="B366" s="11"/>
       <c r="C366" s="12" t="s">
@@ -6731,7 +6642,7 @@
       <c r="F366" s="11"/>
       <c r="G366" s="11"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:7" ht="13">
       <c r="A367" s="10"/>
       <c r="B367" s="11"/>
       <c r="C367" s="12" t="s">
@@ -6742,7 +6653,7 @@
       <c r="F367" s="11"/>
       <c r="G367" s="11"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:7" ht="13">
       <c r="A368" s="10"/>
       <c r="B368" s="11"/>
       <c r="C368" s="12" t="s">
@@ -6753,7 +6664,7 @@
       <c r="F368" s="11"/>
       <c r="G368" s="11"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:7" ht="13">
       <c r="A369" s="10"/>
       <c r="B369" s="11"/>
       <c r="C369" s="12" t="s">
@@ -6764,7 +6675,7 @@
       <c r="F369" s="11"/>
       <c r="G369" s="11"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:7" ht="13">
       <c r="A370" s="10"/>
       <c r="B370" s="11"/>
       <c r="C370" s="12" t="s">
@@ -6775,7 +6686,7 @@
       <c r="F370" s="11"/>
       <c r="G370" s="11"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:7" ht="13">
       <c r="A371" s="10"/>
       <c r="B371" s="11"/>
       <c r="C371" s="12" t="s">
@@ -6786,7 +6697,7 @@
       <c r="F371" s="11"/>
       <c r="G371" s="11"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:7" ht="13">
       <c r="A372" s="10"/>
       <c r="B372" s="11"/>
       <c r="C372" s="12" t="s">
@@ -6797,7 +6708,7 @@
       <c r="F372" s="11"/>
       <c r="G372" s="11"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:7" ht="13">
       <c r="A373" s="10"/>
       <c r="B373" s="11"/>
       <c r="C373" s="12" t="s">
@@ -6808,7 +6719,7 @@
       <c r="F373" s="11"/>
       <c r="G373" s="11"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:7" ht="13">
       <c r="A374" s="10"/>
       <c r="B374" s="11"/>
       <c r="C374" s="12" t="s">
@@ -6819,7 +6730,7 @@
       <c r="F374" s="11"/>
       <c r="G374" s="11"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:7" ht="13">
       <c r="A375" s="10"/>
       <c r="B375" s="11"/>
       <c r="C375" s="12" t="s">
@@ -6830,7 +6741,7 @@
       <c r="F375" s="11"/>
       <c r="G375" s="11"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:7" ht="13">
       <c r="A376" s="10"/>
       <c r="B376" s="11"/>
       <c r="C376" s="12" t="s">
@@ -6841,7 +6752,7 @@
       <c r="F376" s="11"/>
       <c r="G376" s="11"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:7" ht="13">
       <c r="A377" s="10"/>
       <c r="B377" s="11"/>
       <c r="C377" s="12" t="s">
@@ -6852,7 +6763,7 @@
       <c r="F377" s="11"/>
       <c r="G377" s="11"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:7" ht="13">
       <c r="A378" s="10"/>
       <c r="B378" s="11"/>
       <c r="C378" s="12" t="s">
@@ -6863,7 +6774,7 @@
       <c r="F378" s="11"/>
       <c r="G378" s="11"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:7" ht="13">
       <c r="A379" s="10"/>
       <c r="B379" s="11"/>
       <c r="C379" s="12" t="s">
@@ -6874,7 +6785,7 @@
       <c r="F379" s="11"/>
       <c r="G379" s="11"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:7" ht="13">
       <c r="A380" s="10"/>
       <c r="B380" s="11"/>
       <c r="C380" s="12" t="s">
@@ -6885,7 +6796,7 @@
       <c r="F380" s="11"/>
       <c r="G380" s="11"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:7" ht="13">
       <c r="A381" s="10"/>
       <c r="B381" s="11"/>
       <c r="C381" s="12" t="s">
@@ -6896,7 +6807,7 @@
       <c r="F381" s="11"/>
       <c r="G381" s="11"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:7" ht="13">
       <c r="A382" s="10"/>
       <c r="B382" s="11"/>
       <c r="C382" s="12" t="s">
@@ -6907,7 +6818,7 @@
       <c r="F382" s="11"/>
       <c r="G382" s="11"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:7" ht="13">
       <c r="A383" s="10"/>
       <c r="B383" s="11"/>
       <c r="C383" s="12" t="s">
@@ -6918,7 +6829,7 @@
       <c r="F383" s="11"/>
       <c r="G383" s="11"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:7" ht="13">
       <c r="A384" s="10"/>
       <c r="B384" s="11"/>
       <c r="C384" s="12" t="s">
@@ -6929,7 +6840,7 @@
       <c r="F384" s="11"/>
       <c r="G384" s="11"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:7" ht="13">
       <c r="A385" s="10"/>
       <c r="B385" s="11"/>
       <c r="C385" s="12" t="s">
@@ -6940,7 +6851,7 @@
       <c r="F385" s="11"/>
       <c r="G385" s="11"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:7" ht="13">
       <c r="A386" s="10"/>
       <c r="B386" s="11"/>
       <c r="C386" s="12" t="s">
@@ -6951,7 +6862,7 @@
       <c r="F386" s="11"/>
       <c r="G386" s="11"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:7" ht="13">
       <c r="A387" s="10"/>
       <c r="B387" s="11"/>
       <c r="C387" s="12" t="s">
@@ -6962,7 +6873,7 @@
       <c r="F387" s="11"/>
       <c r="G387" s="11"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:7" ht="13">
       <c r="A388" s="10"/>
       <c r="B388" s="11"/>
       <c r="C388" s="12" t="s">
@@ -6973,7 +6884,7 @@
       <c r="F388" s="11"/>
       <c r="G388" s="11"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:7" ht="13">
       <c r="A389" s="10"/>
       <c r="B389" s="11"/>
       <c r="C389" s="12" t="s">
@@ -6984,7 +6895,7 @@
       <c r="F389" s="11"/>
       <c r="G389" s="11"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:7" ht="13">
       <c r="A390" s="10"/>
       <c r="B390" s="11"/>
       <c r="C390" s="12" t="s">
@@ -6995,7 +6906,7 @@
       <c r="F390" s="11"/>
       <c r="G390" s="11"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:7" ht="13">
       <c r="A391" s="10"/>
       <c r="B391" s="11"/>
       <c r="C391" s="12" t="s">
@@ -7006,7 +6917,7 @@
       <c r="F391" s="11"/>
       <c r="G391" s="11"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:7" ht="13">
       <c r="A392" s="10"/>
       <c r="B392" s="11"/>
       <c r="C392" s="12" t="s">
@@ -7017,7 +6928,7 @@
       <c r="F392" s="11"/>
       <c r="G392" s="11"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:7" ht="13">
       <c r="A393" s="10"/>
       <c r="B393" s="11"/>
       <c r="C393" s="12" t="s">
@@ -7028,7 +6939,7 @@
       <c r="F393" s="11"/>
       <c r="G393" s="11"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:7" ht="13">
       <c r="A394" s="10"/>
       <c r="B394" s="11"/>
       <c r="C394" s="12" t="s">
@@ -7039,7 +6950,7 @@
       <c r="F394" s="11"/>
       <c r="G394" s="11"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:7" ht="13">
       <c r="A395" s="10"/>
       <c r="B395" s="11"/>
       <c r="C395" s="12" t="s">
@@ -7050,7 +6961,7 @@
       <c r="F395" s="11"/>
       <c r="G395" s="11"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:7" ht="13">
       <c r="A396" s="10"/>
       <c r="B396" s="11"/>
       <c r="C396" s="12" t="s">
@@ -7061,7 +6972,7 @@
       <c r="F396" s="11"/>
       <c r="G396" s="11"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:7" ht="13">
       <c r="A397" s="10"/>
       <c r="B397" s="11"/>
       <c r="C397" s="12" t="s">
@@ -7072,7 +6983,7 @@
       <c r="F397" s="11"/>
       <c r="G397" s="11"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:7" ht="13">
       <c r="A398" s="10"/>
       <c r="B398" s="11"/>
       <c r="C398" s="12" t="s">
@@ -7083,7 +6994,7 @@
       <c r="F398" s="11"/>
       <c r="G398" s="11"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:7" ht="13">
       <c r="A399" s="10"/>
       <c r="B399" s="11"/>
       <c r="C399" s="12" t="s">
@@ -7094,7 +7005,7 @@
       <c r="F399" s="11"/>
       <c r="G399" s="11"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:7" ht="13">
       <c r="A400" s="10"/>
       <c r="B400" s="11"/>
       <c r="C400" s="12" t="s">
@@ -7105,7 +7016,7 @@
       <c r="F400" s="11"/>
       <c r="G400" s="11"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:7" ht="13">
       <c r="A401" s="10"/>
       <c r="B401" s="11"/>
       <c r="C401" s="12" t="s">
@@ -7116,7 +7027,7 @@
       <c r="F401" s="11"/>
       <c r="G401" s="11"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:7" ht="13">
       <c r="A402" s="10"/>
       <c r="B402" s="11"/>
       <c r="C402" s="12" t="s">
@@ -7127,7 +7038,7 @@
       <c r="F402" s="11"/>
       <c r="G402" s="11"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:7" ht="13">
       <c r="A403" s="10"/>
       <c r="B403" s="11"/>
       <c r="C403" s="12" t="s">
@@ -7138,7 +7049,7 @@
       <c r="F403" s="11"/>
       <c r="G403" s="11"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:7" ht="13">
       <c r="A404" s="10"/>
       <c r="B404" s="11"/>
       <c r="C404" s="12" t="s">
@@ -7149,7 +7060,7 @@
       <c r="F404" s="11"/>
       <c r="G404" s="11"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:7" ht="13">
       <c r="A405" s="10"/>
       <c r="B405" s="11"/>
       <c r="C405" s="12" t="s">
@@ -7160,7 +7071,7 @@
       <c r="F405" s="11"/>
       <c r="G405" s="11"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:7" ht="13">
       <c r="A406" s="10"/>
       <c r="B406" s="11"/>
       <c r="C406" s="12" t="s">
@@ -7171,7 +7082,7 @@
       <c r="F406" s="11"/>
       <c r="G406" s="11"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:7" ht="13">
       <c r="A407" s="10"/>
       <c r="B407" s="11"/>
       <c r="C407" s="12" t="s">
@@ -7182,7 +7093,7 @@
       <c r="F407" s="11"/>
       <c r="G407" s="11"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:7" ht="13">
       <c r="A408" s="10"/>
       <c r="B408" s="11"/>
       <c r="C408" s="12" t="s">
@@ -7193,7 +7104,7 @@
       <c r="F408" s="11"/>
       <c r="G408" s="11"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:7" ht="13">
       <c r="A409" s="10"/>
       <c r="B409" s="11"/>
       <c r="C409" s="12" t="s">
@@ -7204,7 +7115,7 @@
       <c r="F409" s="11"/>
       <c r="G409" s="11"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:7" ht="13">
       <c r="A410" s="10"/>
       <c r="B410" s="11"/>
       <c r="C410" s="12" t="s">
@@ -7215,7 +7126,7 @@
       <c r="F410" s="11"/>
       <c r="G410" s="11"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:7" ht="13">
       <c r="A411" s="10"/>
       <c r="B411" s="11"/>
       <c r="C411" s="12" t="s">
@@ -7226,7 +7137,7 @@
       <c r="F411" s="11"/>
       <c r="G411" s="11"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:7" ht="13">
       <c r="A412" s="10"/>
       <c r="B412" s="11"/>
       <c r="C412" s="12" t="s">
@@ -7237,7 +7148,7 @@
       <c r="F412" s="11"/>
       <c r="G412" s="11"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:7" ht="13">
       <c r="A413" s="10"/>
       <c r="B413" s="11"/>
       <c r="C413" s="12" t="s">
@@ -7248,7 +7159,7 @@
       <c r="F413" s="11"/>
       <c r="G413" s="11"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:7" ht="13">
       <c r="A414" s="10"/>
       <c r="B414" s="11"/>
       <c r="C414" s="12" t="s">
@@ -7259,7 +7170,7 @@
       <c r="F414" s="11"/>
       <c r="G414" s="11"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:7" ht="13">
       <c r="A415" s="10"/>
       <c r="B415" s="11"/>
       <c r="C415" s="12" t="s">
@@ -7270,7 +7181,7 @@
       <c r="F415" s="11"/>
       <c r="G415" s="11"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:7" ht="13">
       <c r="A416" s="10"/>
       <c r="B416" s="11"/>
       <c r="C416" s="12" t="s">
@@ -7281,7 +7192,7 @@
       <c r="F416" s="11"/>
       <c r="G416" s="11"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:7" ht="13">
       <c r="A417" s="10"/>
       <c r="B417" s="11"/>
       <c r="C417" s="12" t="s">
@@ -7292,7 +7203,7 @@
       <c r="F417" s="11"/>
       <c r="G417" s="11"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:7" ht="13">
       <c r="A418" s="10"/>
       <c r="B418" s="11"/>
       <c r="C418" s="12" t="s">
@@ -7303,7 +7214,7 @@
       <c r="F418" s="11"/>
       <c r="G418" s="11"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:7" ht="13">
       <c r="A419" s="10"/>
       <c r="B419" s="11"/>
       <c r="C419" s="12" t="s">
@@ -7314,7 +7225,7 @@
       <c r="F419" s="11"/>
       <c r="G419" s="11"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:7" ht="13">
       <c r="A420" s="10"/>
       <c r="B420" s="11"/>
       <c r="C420" s="12" t="s">
@@ -7325,7 +7236,7 @@
       <c r="F420" s="11"/>
       <c r="G420" s="11"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:7" ht="13">
       <c r="A421" s="10"/>
       <c r="B421" s="11"/>
       <c r="C421" s="12" t="s">
@@ -7336,7 +7247,7 @@
       <c r="F421" s="11"/>
       <c r="G421" s="11"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:7" ht="13">
       <c r="A422" s="10"/>
       <c r="B422" s="11"/>
       <c r="C422" s="12" t="s">
@@ -7347,7 +7258,7 @@
       <c r="F422" s="11"/>
       <c r="G422" s="11"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:7" ht="13">
       <c r="A423" s="10"/>
       <c r="B423" s="11"/>
       <c r="C423" s="12" t="s">
@@ -7358,7 +7269,7 @@
       <c r="F423" s="11"/>
       <c r="G423" s="11"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:7" ht="13">
       <c r="A424" s="10"/>
       <c r="B424" s="11"/>
       <c r="C424" s="12" t="s">
@@ -7369,7 +7280,7 @@
       <c r="F424" s="11"/>
       <c r="G424" s="11"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:7" ht="13">
       <c r="A425" s="10"/>
       <c r="B425" s="11"/>
       <c r="C425" s="12" t="s">
@@ -7380,7 +7291,7 @@
       <c r="F425" s="11"/>
       <c r="G425" s="11"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:7" ht="13">
       <c r="A426" s="10"/>
       <c r="B426" s="11"/>
       <c r="C426" s="12" t="s">
@@ -7391,7 +7302,7 @@
       <c r="F426" s="11"/>
       <c r="G426" s="11"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:7" ht="13">
       <c r="A427" s="10"/>
       <c r="B427" s="11"/>
       <c r="C427" s="12" t="s">
@@ -7402,7 +7313,7 @@
       <c r="F427" s="11"/>
       <c r="G427" s="11"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:7" ht="13">
       <c r="A428" s="10"/>
       <c r="B428" s="11"/>
       <c r="C428" s="12" t="s">
@@ -7413,7 +7324,7 @@
       <c r="F428" s="11"/>
       <c r="G428" s="11"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:7" ht="13">
       <c r="A429" s="10"/>
       <c r="B429" s="11"/>
       <c r="C429" s="12" t="s">
@@ -7424,7 +7335,7 @@
       <c r="F429" s="11"/>
       <c r="G429" s="11"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:7" ht="13">
       <c r="A430" s="10"/>
       <c r="B430" s="11"/>
       <c r="C430" s="12" t="s">
@@ -7435,7 +7346,7 @@
       <c r="F430" s="11"/>
       <c r="G430" s="11"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:7" ht="13">
       <c r="A431" s="10"/>
       <c r="B431" s="11"/>
       <c r="C431" s="12" t="s">
@@ -7446,7 +7357,7 @@
       <c r="F431" s="11"/>
       <c r="G431" s="11"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:7" ht="13">
       <c r="A432" s="10"/>
       <c r="B432" s="11"/>
       <c r="C432" s="12" t="s">
@@ -7457,7 +7368,7 @@
       <c r="F432" s="11"/>
       <c r="G432" s="11"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:7" ht="13">
       <c r="A433" s="10"/>
       <c r="B433" s="11"/>
       <c r="C433" s="12" t="s">
@@ -7468,7 +7379,7 @@
       <c r="F433" s="11"/>
       <c r="G433" s="11"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:7" ht="13">
       <c r="A434" s="10"/>
       <c r="B434" s="11"/>
       <c r="C434" s="12" t="s">
@@ -7479,7 +7390,7 @@
       <c r="F434" s="11"/>
       <c r="G434" s="11"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:7" ht="13">
       <c r="A435" s="10"/>
       <c r="B435" s="11"/>
       <c r="C435" s="12" t="s">
@@ -7490,7 +7401,7 @@
       <c r="F435" s="11"/>
       <c r="G435" s="11"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:7" ht="13">
       <c r="A436" s="10"/>
       <c r="B436" s="11"/>
       <c r="C436" s="12" t="s">
@@ -7501,7 +7412,7 @@
       <c r="F436" s="11"/>
       <c r="G436" s="11"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:7" ht="13">
       <c r="A437" s="10"/>
       <c r="B437" s="11"/>
       <c r="C437" s="12" t="s">
@@ -7512,7 +7423,7 @@
       <c r="F437" s="11"/>
       <c r="G437" s="11"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:7" ht="13">
       <c r="A438" s="10"/>
       <c r="B438" s="11"/>
       <c r="C438" s="12" t="s">
@@ -7523,7 +7434,7 @@
       <c r="F438" s="11"/>
       <c r="G438" s="11"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:7" ht="13">
       <c r="A439" s="10"/>
       <c r="B439" s="11"/>
       <c r="C439" s="12" t="s">
@@ -7534,7 +7445,7 @@
       <c r="F439" s="11"/>
       <c r="G439" s="11"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:7" ht="13">
       <c r="A440" s="10"/>
       <c r="B440" s="11"/>
       <c r="C440" s="12" t="s">
@@ -7545,7 +7456,7 @@
       <c r="F440" s="11"/>
       <c r="G440" s="11"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:7" ht="13">
       <c r="A441" s="10"/>
       <c r="B441" s="11"/>
       <c r="C441" s="12" t="s">
@@ -7556,7 +7467,7 @@
       <c r="F441" s="11"/>
       <c r="G441" s="11"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:7" ht="13">
       <c r="A442" s="10"/>
       <c r="B442" s="11"/>
       <c r="C442" s="12" t="s">
@@ -7567,7 +7478,7 @@
       <c r="F442" s="11"/>
       <c r="G442" s="11"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:7" ht="13">
       <c r="A443" s="10"/>
       <c r="B443" s="11"/>
       <c r="C443" s="12" t="s">
@@ -7578,7 +7489,7 @@
       <c r="F443" s="11"/>
       <c r="G443" s="11"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:7" ht="13">
       <c r="A444" s="10"/>
       <c r="B444" s="11"/>
       <c r="C444" s="12" t="s">
@@ -7589,7 +7500,7 @@
       <c r="F444" s="11"/>
       <c r="G444" s="11"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:7" ht="13">
       <c r="A445" s="10"/>
       <c r="B445" s="11"/>
       <c r="C445" s="12" t="s">
@@ -7600,7 +7511,7 @@
       <c r="F445" s="11"/>
       <c r="G445" s="11"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:7" ht="13">
       <c r="A446" s="10"/>
       <c r="B446" s="11"/>
       <c r="C446" s="12" t="s">
@@ -7611,7 +7522,7 @@
       <c r="F446" s="11"/>
       <c r="G446" s="11"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:7" ht="13">
       <c r="A447" s="10"/>
       <c r="B447" s="11"/>
       <c r="C447" s="12" t="s">
@@ -7622,7 +7533,7 @@
       <c r="F447" s="11"/>
       <c r="G447" s="11"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:7" ht="13">
       <c r="A448" s="10"/>
       <c r="B448" s="11"/>
       <c r="C448" s="12" t="s">
@@ -7633,7 +7544,7 @@
       <c r="F448" s="11"/>
       <c r="G448" s="11"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:7" ht="13">
       <c r="A449" s="10"/>
       <c r="B449" s="11"/>
       <c r="C449" s="12" t="s">
@@ -7644,7 +7555,7 @@
       <c r="F449" s="11"/>
       <c r="G449" s="11"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:7" ht="13">
       <c r="A450" s="10"/>
       <c r="B450" s="11"/>
       <c r="C450" s="12" t="s">
@@ -7655,7 +7566,7 @@
       <c r="F450" s="11"/>
       <c r="G450" s="11"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:7" ht="13">
       <c r="A451" s="10"/>
       <c r="B451" s="11"/>
       <c r="C451" s="12" t="s">
@@ -7666,7 +7577,7 @@
       <c r="F451" s="11"/>
       <c r="G451" s="11"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:7" ht="13">
       <c r="A452" s="10"/>
       <c r="B452" s="11"/>
       <c r="C452" s="12" t="s">
@@ -7677,7 +7588,7 @@
       <c r="F452" s="11"/>
       <c r="G452" s="11"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:7" ht="13">
       <c r="A453" s="10"/>
       <c r="B453" s="11"/>
       <c r="C453" s="12" t="s">
@@ -7688,7 +7599,7 @@
       <c r="F453" s="11"/>
       <c r="G453" s="11"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:7" ht="13">
       <c r="A454" s="10"/>
       <c r="B454" s="11"/>
       <c r="C454" s="12" t="s">
@@ -7699,7 +7610,7 @@
       <c r="F454" s="11"/>
       <c r="G454" s="11"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:7" ht="13">
       <c r="A455" s="10"/>
       <c r="B455" s="11"/>
       <c r="C455" s="12" t="s">
@@ -7710,7 +7621,7 @@
       <c r="F455" s="11"/>
       <c r="G455" s="11"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:7" ht="13">
       <c r="A456" s="10"/>
       <c r="B456" s="11"/>
       <c r="C456" s="12" t="s">
@@ -7721,7 +7632,7 @@
       <c r="F456" s="11"/>
       <c r="G456" s="11"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:7" ht="13">
       <c r="A457" s="10"/>
       <c r="B457" s="11"/>
       <c r="C457" s="12" t="s">
@@ -7732,7 +7643,7 @@
       <c r="F457" s="11"/>
       <c r="G457" s="11"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:7" ht="13">
       <c r="A458" s="10"/>
       <c r="B458" s="11"/>
       <c r="C458" s="12" t="s">
@@ -7743,7 +7654,7 @@
       <c r="F458" s="11"/>
       <c r="G458" s="11"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:7" ht="13">
       <c r="A459" s="10"/>
       <c r="B459" s="11"/>
       <c r="C459" s="12" t="s">
@@ -7754,7 +7665,7 @@
       <c r="F459" s="11"/>
       <c r="G459" s="11"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:7" ht="13">
       <c r="A460" s="10"/>
       <c r="B460" s="11"/>
       <c r="C460" s="12" t="s">
@@ -7765,7 +7676,7 @@
       <c r="F460" s="11"/>
       <c r="G460" s="11"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:7" ht="13">
       <c r="A461" s="10"/>
       <c r="B461" s="11"/>
       <c r="C461" s="12" t="s">
@@ -7776,7 +7687,7 @@
       <c r="F461" s="11"/>
       <c r="G461" s="11"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:7" ht="13">
       <c r="A462" s="10"/>
       <c r="B462" s="11"/>
       <c r="C462" s="12" t="s">
@@ -7787,7 +7698,7 @@
       <c r="F462" s="11"/>
       <c r="G462" s="11"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:7" ht="13">
       <c r="A463" s="10"/>
       <c r="B463" s="11"/>
       <c r="C463" s="12" t="s">
@@ -7798,7 +7709,7 @@
       <c r="F463" s="11"/>
       <c r="G463" s="11"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:7" ht="13">
       <c r="A464" s="10"/>
       <c r="B464" s="11"/>
       <c r="C464" s="12" t="s">
@@ -7809,7 +7720,7 @@
       <c r="F464" s="11"/>
       <c r="G464" s="11"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:7" ht="13">
       <c r="A465" s="10"/>
       <c r="B465" s="11"/>
       <c r="C465" s="12" t="s">
@@ -7820,7 +7731,7 @@
       <c r="F465" s="11"/>
       <c r="G465" s="11"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:7" ht="13">
       <c r="A466" s="10"/>
       <c r="B466" s="11"/>
       <c r="C466" s="12" t="s">
@@ -7831,7 +7742,7 @@
       <c r="F466" s="11"/>
       <c r="G466" s="11"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:7" ht="13">
       <c r="A467" s="10"/>
       <c r="B467" s="11"/>
       <c r="C467" s="12" t="s">
@@ -7842,7 +7753,7 @@
       <c r="F467" s="11"/>
       <c r="G467" s="11"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:7" ht="13">
       <c r="A468" s="10"/>
       <c r="B468" s="11"/>
       <c r="C468" s="12" t="s">
@@ -7853,7 +7764,7 @@
       <c r="F468" s="11"/>
       <c r="G468" s="11"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:7" ht="13">
       <c r="A469" s="10"/>
       <c r="B469" s="11"/>
       <c r="C469" s="12" t="s">
@@ -7864,7 +7775,7 @@
       <c r="F469" s="11"/>
       <c r="G469" s="11"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:7" ht="13">
       <c r="A470" s="10"/>
       <c r="B470" s="11"/>
       <c r="C470" s="12" t="s">
@@ -7875,7 +7786,7 @@
       <c r="F470" s="11"/>
       <c r="G470" s="11"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:7" ht="13">
       <c r="A471" s="10"/>
       <c r="B471" s="11"/>
       <c r="C471" s="12" t="s">
@@ -7886,7 +7797,7 @@
       <c r="F471" s="11"/>
       <c r="G471" s="11"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:7" ht="13">
       <c r="A472" s="10"/>
       <c r="B472" s="11"/>
       <c r="C472" s="12" t="s">
@@ -7897,7 +7808,7 @@
       <c r="F472" s="11"/>
       <c r="G472" s="11"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:7" ht="13">
       <c r="A473" s="10"/>
       <c r="B473" s="11"/>
       <c r="C473" s="12" t="s">
@@ -7908,7 +7819,7 @@
       <c r="F473" s="11"/>
       <c r="G473" s="11"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:7" ht="13">
       <c r="A474" s="10"/>
       <c r="B474" s="11"/>
       <c r="C474" s="12" t="s">
@@ -7919,7 +7830,7 @@
       <c r="F474" s="11"/>
       <c r="G474" s="11"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:7" ht="13">
       <c r="A475" s="10"/>
       <c r="B475" s="11"/>
       <c r="C475" s="12" t="s">
@@ -7930,7 +7841,7 @@
       <c r="F475" s="11"/>
       <c r="G475" s="11"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:7" ht="13">
       <c r="A476" s="10"/>
       <c r="B476" s="11"/>
       <c r="C476" s="12" t="s">
@@ -7941,7 +7852,7 @@
       <c r="F476" s="11"/>
       <c r="G476" s="11"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:7" ht="13">
       <c r="A477" s="10"/>
       <c r="B477" s="11"/>
       <c r="C477" s="12" t="s">
@@ -7952,7 +7863,7 @@
       <c r="F477" s="11"/>
       <c r="G477" s="11"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:7" ht="13">
       <c r="A478" s="10"/>
       <c r="B478" s="11"/>
       <c r="C478" s="12" t="s">
@@ -7963,7 +7874,7 @@
       <c r="F478" s="11"/>
       <c r="G478" s="11"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:7" ht="13">
       <c r="A479" s="10"/>
       <c r="B479" s="11"/>
       <c r="C479" s="12" t="s">
@@ -7974,7 +7885,7 @@
       <c r="F479" s="11"/>
       <c r="G479" s="11"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:7" ht="13">
       <c r="A480" s="10"/>
       <c r="B480" s="11"/>
       <c r="C480" s="12" t="s">
@@ -7985,7 +7896,7 @@
       <c r="F480" s="11"/>
       <c r="G480" s="11"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:7" ht="13">
       <c r="A481" s="10"/>
       <c r="B481" s="11"/>
       <c r="C481" s="12" t="s">
@@ -7996,7 +7907,7 @@
       <c r="F481" s="11"/>
       <c r="G481" s="11"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:7" ht="13">
       <c r="A482" s="10"/>
       <c r="B482" s="11"/>
       <c r="C482" s="12" t="s">
@@ -8007,7 +7918,7 @@
       <c r="F482" s="11"/>
       <c r="G482" s="11"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:7" ht="13">
       <c r="A483" s="10"/>
       <c r="B483" s="11"/>
       <c r="C483" s="12" t="s">
@@ -8018,7 +7929,7 @@
       <c r="F483" s="11"/>
       <c r="G483" s="11"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:7" ht="13">
       <c r="A484" s="10"/>
       <c r="B484" s="11"/>
       <c r="C484" s="12" t="s">
@@ -8029,7 +7940,7 @@
       <c r="F484" s="11"/>
       <c r="G484" s="11"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:7" ht="13">
       <c r="A485" s="10"/>
       <c r="B485" s="11"/>
       <c r="C485" s="12" t="s">
@@ -8040,7 +7951,7 @@
       <c r="F485" s="11"/>
       <c r="G485" s="11"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:7" ht="13">
       <c r="A486" s="10"/>
       <c r="B486" s="11"/>
       <c r="C486" s="12" t="s">
@@ -8051,7 +7962,7 @@
       <c r="F486" s="11"/>
       <c r="G486" s="11"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:7" ht="13">
       <c r="A487" s="10"/>
       <c r="B487" s="11"/>
       <c r="C487" s="12" t="s">
@@ -8062,15 +7973,15 @@
       <c r="F487" s="11"/>
       <c r="G487" s="11"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:7" ht="13">
       <c r="A488" s="18"/>
       <c r="B488" s="18"/>
       <c r="C488" s="18"/>
       <c r="G488" s="17"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:7" ht="13">
       <c r="A489" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B489" s="5"/>
       <c r="C489" s="6" t="s">
@@ -8087,7 +7998,7 @@
         <v>7482</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" spans="1:7" ht="13">
       <c r="A490" s="4"/>
       <c r="B490" s="5"/>
       <c r="C490" s="6" t="s">
@@ -8098,7 +8009,7 @@
       <c r="F490" s="5"/>
       <c r="G490" s="5"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:7" ht="13">
       <c r="A491" s="4"/>
       <c r="B491" s="5"/>
       <c r="C491" s="6" t="s">
@@ -8109,7 +8020,7 @@
       <c r="F491" s="5"/>
       <c r="G491" s="5"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:7" ht="13">
       <c r="A492" s="4"/>
       <c r="B492" s="5"/>
       <c r="C492" s="6" t="s">
@@ -8120,7 +8031,7 @@
       <c r="F492" s="5"/>
       <c r="G492" s="5"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:7" ht="13">
       <c r="A493" s="4"/>
       <c r="B493" s="5"/>
       <c r="C493" s="6" t="s">
@@ -8131,7 +8042,7 @@
       <c r="F493" s="5"/>
       <c r="G493" s="5"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:7" ht="13">
       <c r="A494" s="4"/>
       <c r="B494" s="5"/>
       <c r="C494" s="6" t="s">
@@ -8142,7 +8053,7 @@
       <c r="F494" s="5"/>
       <c r="G494" s="5"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:7" ht="13">
       <c r="A495" s="4"/>
       <c r="B495" s="5"/>
       <c r="C495" s="6" t="s">
@@ -8153,7 +8064,7 @@
       <c r="F495" s="5"/>
       <c r="G495" s="5"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:7" ht="13">
       <c r="A496" s="4"/>
       <c r="B496" s="5"/>
       <c r="C496" s="6" t="s">
@@ -8164,7 +8075,7 @@
       <c r="F496" s="5"/>
       <c r="G496" s="5"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:7" ht="13">
       <c r="A497" s="4"/>
       <c r="B497" s="5"/>
       <c r="C497" s="6" t="s">
@@ -8175,7 +8086,7 @@
       <c r="F497" s="5"/>
       <c r="G497" s="5"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:7" ht="13">
       <c r="A498" s="4"/>
       <c r="B498" s="5"/>
       <c r="C498" s="6" t="s">
@@ -8186,7 +8097,7 @@
       <c r="F498" s="5"/>
       <c r="G498" s="5"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:7" ht="13">
       <c r="A499" s="4"/>
       <c r="B499" s="5"/>
       <c r="C499" s="6" t="s">
@@ -8197,7 +8108,7 @@
       <c r="F499" s="5"/>
       <c r="G499" s="5"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:7" ht="13">
       <c r="A500" s="4"/>
       <c r="B500" s="5"/>
       <c r="C500" s="6" t="s">
@@ -8208,7 +8119,7 @@
       <c r="F500" s="5"/>
       <c r="G500" s="5"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:7" ht="13">
       <c r="A501" s="4"/>
       <c r="B501" s="5"/>
       <c r="C501" s="6" t="s">
@@ -8219,7 +8130,7 @@
       <c r="F501" s="5"/>
       <c r="G501" s="5"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:7" ht="13">
       <c r="A502" s="4"/>
       <c r="B502" s="5"/>
       <c r="C502" s="6" t="s">
@@ -8230,7 +8141,7 @@
       <c r="F502" s="5"/>
       <c r="G502" s="5"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:7" ht="13">
       <c r="A503" s="4"/>
       <c r="B503" s="5"/>
       <c r="C503" s="6" t="s">
@@ -8241,7 +8152,7 @@
       <c r="F503" s="5"/>
       <c r="G503" s="5"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:7" ht="13">
       <c r="A504" s="4"/>
       <c r="B504" s="5"/>
       <c r="C504" s="6" t="s">
@@ -8252,7 +8163,7 @@
       <c r="F504" s="5"/>
       <c r="G504" s="5"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:7" ht="13">
       <c r="A505" s="4"/>
       <c r="B505" s="5"/>
       <c r="C505" s="6" t="s">
@@ -8263,7 +8174,7 @@
       <c r="F505" s="5"/>
       <c r="G505" s="5"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:7" ht="13">
       <c r="A506" s="4"/>
       <c r="B506" s="5"/>
       <c r="C506" s="6" t="s">
@@ -8274,7 +8185,7 @@
       <c r="F506" s="5"/>
       <c r="G506" s="5"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:7" ht="13">
       <c r="A507" s="4"/>
       <c r="B507" s="5"/>
       <c r="C507" s="6" t="s">
@@ -8285,7 +8196,7 @@
       <c r="F507" s="5"/>
       <c r="G507" s="5"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:7" ht="13">
       <c r="A508" s="4"/>
       <c r="B508" s="5"/>
       <c r="C508" s="6" t="s">
@@ -8296,7 +8207,7 @@
       <c r="F508" s="5"/>
       <c r="G508" s="5"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:7" ht="13">
       <c r="A509" s="4"/>
       <c r="B509" s="5"/>
       <c r="C509" s="6" t="s">
@@ -8307,7 +8218,7 @@
       <c r="F509" s="5"/>
       <c r="G509" s="5"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:7" ht="13">
       <c r="A510" s="4"/>
       <c r="B510" s="5"/>
       <c r="C510" s="6" t="s">
@@ -8318,7 +8229,7 @@
       <c r="F510" s="5"/>
       <c r="G510" s="5"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:7" ht="13">
       <c r="A511" s="4"/>
       <c r="B511" s="5"/>
       <c r="C511" s="6" t="s">
@@ -8329,7 +8240,7 @@
       <c r="F511" s="5"/>
       <c r="G511" s="5"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:7" ht="13">
       <c r="A512" s="4"/>
       <c r="B512" s="5"/>
       <c r="C512" s="6" t="s">
@@ -8340,7 +8251,7 @@
       <c r="F512" s="5"/>
       <c r="G512" s="5"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:7" ht="13">
       <c r="A513" s="4"/>
       <c r="B513" s="5"/>
       <c r="C513" s="6" t="s">
@@ -8351,7 +8262,7 @@
       <c r="F513" s="5"/>
       <c r="G513" s="5"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:7" ht="13">
       <c r="A514" s="4"/>
       <c r="B514" s="5"/>
       <c r="C514" s="6" t="s">
@@ -8362,7 +8273,7 @@
       <c r="F514" s="5"/>
       <c r="G514" s="5"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:7" ht="13">
       <c r="A515" s="4"/>
       <c r="B515" s="5"/>
       <c r="C515" s="6" t="s">
@@ -8373,7 +8284,7 @@
       <c r="F515" s="5"/>
       <c r="G515" s="5"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:7" ht="13">
       <c r="A516" s="4"/>
       <c r="B516" s="5"/>
       <c r="C516" s="6" t="s">
@@ -8384,7 +8295,7 @@
       <c r="F516" s="5"/>
       <c r="G516" s="5"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:7" ht="13">
       <c r="A517" s="4"/>
       <c r="B517" s="5"/>
       <c r="C517" s="6" t="s">
@@ -8395,7 +8306,7 @@
       <c r="F517" s="5"/>
       <c r="G517" s="5"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:7" ht="13">
       <c r="A518" s="4"/>
       <c r="B518" s="5"/>
       <c r="C518" s="6" t="s">
@@ -8406,7 +8317,7 @@
       <c r="F518" s="5"/>
       <c r="G518" s="5"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:7" ht="13">
       <c r="A519" s="4"/>
       <c r="B519" s="5"/>
       <c r="C519" s="6" t="s">
@@ -8417,7 +8328,7 @@
       <c r="F519" s="5"/>
       <c r="G519" s="5"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:7" ht="13">
       <c r="A520" s="4"/>
       <c r="B520" s="5"/>
       <c r="C520" s="6" t="s">
@@ -8428,7 +8339,7 @@
       <c r="F520" s="5"/>
       <c r="G520" s="5"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:7" ht="13">
       <c r="A521" s="4"/>
       <c r="B521" s="5"/>
       <c r="C521" s="6" t="s">
@@ -8439,7 +8350,7 @@
       <c r="F521" s="5"/>
       <c r="G521" s="5"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:7" ht="13">
       <c r="A522" s="4"/>
       <c r="B522" s="5"/>
       <c r="C522" s="6" t="s">
@@ -8450,7 +8361,7 @@
       <c r="F522" s="5"/>
       <c r="G522" s="5"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:7" ht="13">
       <c r="A523" s="4"/>
       <c r="B523" s="5"/>
       <c r="C523" s="6" t="s">
@@ -8461,7 +8372,7 @@
       <c r="F523" s="5"/>
       <c r="G523" s="5"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:7" ht="13">
       <c r="A524" s="4"/>
       <c r="B524" s="5"/>
       <c r="C524" s="6" t="s">
@@ -8472,7 +8383,7 @@
       <c r="F524" s="5"/>
       <c r="G524" s="5"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:7" ht="13">
       <c r="A525" s="4"/>
       <c r="B525" s="5"/>
       <c r="C525" s="6" t="s">
@@ -8483,7 +8394,7 @@
       <c r="F525" s="5"/>
       <c r="G525" s="5"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:7" ht="13">
       <c r="A526" s="4"/>
       <c r="B526" s="5"/>
       <c r="C526" s="6" t="s">
@@ -8494,7 +8405,7 @@
       <c r="F526" s="5"/>
       <c r="G526" s="5"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:7" ht="13">
       <c r="A527" s="4"/>
       <c r="B527" s="5"/>
       <c r="C527" s="6" t="s">
@@ -8505,7 +8416,7 @@
       <c r="F527" s="5"/>
       <c r="G527" s="5"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:7" ht="13">
       <c r="A528" s="4"/>
       <c r="B528" s="5"/>
       <c r="C528" s="6" t="s">
@@ -8516,7 +8427,7 @@
       <c r="F528" s="5"/>
       <c r="G528" s="5"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:7" ht="13">
       <c r="A529" s="4"/>
       <c r="B529" s="5"/>
       <c r="C529" s="6" t="s">
@@ -8527,7 +8438,7 @@
       <c r="F529" s="5"/>
       <c r="G529" s="5"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:7" ht="13">
       <c r="A530" s="4"/>
       <c r="B530" s="5"/>
       <c r="C530" s="6" t="s">
@@ -8538,7 +8449,7 @@
       <c r="F530" s="5"/>
       <c r="G530" s="5"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:7" ht="13">
       <c r="A531" s="4"/>
       <c r="B531" s="5"/>
       <c r="C531" s="6" t="s">
@@ -8549,7 +8460,7 @@
       <c r="F531" s="5"/>
       <c r="G531" s="5"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:7" ht="13">
       <c r="A532" s="4"/>
       <c r="B532" s="5"/>
       <c r="C532" s="6" t="s">
@@ -8560,7 +8471,7 @@
       <c r="F532" s="5"/>
       <c r="G532" s="5"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:7" ht="13">
       <c r="A533" s="4"/>
       <c r="B533" s="5"/>
       <c r="C533" s="6" t="s">
@@ -8571,7 +8482,7 @@
       <c r="F533" s="5"/>
       <c r="G533" s="5"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:7" ht="13">
       <c r="A534" s="4"/>
       <c r="B534" s="5"/>
       <c r="C534" s="6" t="s">
@@ -8582,7 +8493,7 @@
       <c r="F534" s="5"/>
       <c r="G534" s="5"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:7" ht="13">
       <c r="A535" s="4"/>
       <c r="B535" s="5"/>
       <c r="C535" s="6" t="s">
@@ -8593,7 +8504,7 @@
       <c r="F535" s="5"/>
       <c r="G535" s="5"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:7" ht="13">
       <c r="A536" s="4"/>
       <c r="B536" s="5"/>
       <c r="C536" s="6" t="s">
@@ -8604,7 +8515,7 @@
       <c r="F536" s="5"/>
       <c r="G536" s="5"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:7" ht="13">
       <c r="A537" s="4"/>
       <c r="B537" s="5"/>
       <c r="C537" s="6" t="s">
@@ -8615,7 +8526,7 @@
       <c r="F537" s="5"/>
       <c r="G537" s="5"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:7" ht="13">
       <c r="A538" s="4"/>
       <c r="B538" s="5"/>
       <c r="C538" s="6" t="s">
@@ -8626,7 +8537,7 @@
       <c r="F538" s="5"/>
       <c r="G538" s="5"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:7" ht="13">
       <c r="A539" s="4"/>
       <c r="B539" s="5"/>
       <c r="C539" s="6" t="s">
@@ -8637,7 +8548,7 @@
       <c r="F539" s="5"/>
       <c r="G539" s="5"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:7" ht="13">
       <c r="A540" s="4"/>
       <c r="B540" s="5"/>
       <c r="C540" s="6" t="s">
@@ -8648,7 +8559,7 @@
       <c r="F540" s="5"/>
       <c r="G540" s="5"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:7" ht="13">
       <c r="A541" s="4"/>
       <c r="B541" s="5"/>
       <c r="C541" s="6" t="s">
@@ -8659,7 +8570,7 @@
       <c r="F541" s="5"/>
       <c r="G541" s="5"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:7" ht="13">
       <c r="A542" s="4"/>
       <c r="B542" s="5"/>
       <c r="C542" s="6" t="s">
@@ -8670,7 +8581,7 @@
       <c r="F542" s="5"/>
       <c r="G542" s="5"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:7" ht="13">
       <c r="A543" s="4"/>
       <c r="B543" s="5"/>
       <c r="C543" s="6" t="s">
@@ -8681,7 +8592,7 @@
       <c r="F543" s="5"/>
       <c r="G543" s="5"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:7" ht="13">
       <c r="A544" s="4"/>
       <c r="B544" s="5"/>
       <c r="C544" s="6" t="s">
@@ -8692,7 +8603,7 @@
       <c r="F544" s="5"/>
       <c r="G544" s="5"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:7" ht="13">
       <c r="A545" s="4"/>
       <c r="B545" s="5"/>
       <c r="C545" s="6" t="s">
@@ -8703,7 +8614,7 @@
       <c r="F545" s="5"/>
       <c r="G545" s="5"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:7" ht="13">
       <c r="A546" s="4"/>
       <c r="B546" s="5"/>
       <c r="C546" s="6" t="s">
@@ -8714,7 +8625,7 @@
       <c r="F546" s="5"/>
       <c r="G546" s="5"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:7" ht="13">
       <c r="A547" s="4"/>
       <c r="B547" s="5"/>
       <c r="C547" s="6" t="s">
@@ -8725,7 +8636,7 @@
       <c r="F547" s="5"/>
       <c r="G547" s="5"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:7" ht="13">
       <c r="A548" s="4"/>
       <c r="B548" s="5"/>
       <c r="C548" s="6" t="s">
@@ -8736,7 +8647,7 @@
       <c r="F548" s="5"/>
       <c r="G548" s="5"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:7" ht="13">
       <c r="A549" s="4"/>
       <c r="B549" s="5"/>
       <c r="C549" s="6" t="s">
@@ -8747,7 +8658,7 @@
       <c r="F549" s="5"/>
       <c r="G549" s="5"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:7" ht="13">
       <c r="A550" s="4"/>
       <c r="B550" s="5"/>
       <c r="C550" s="6" t="s">
@@ -8758,7 +8669,7 @@
       <c r="F550" s="5"/>
       <c r="G550" s="5"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:7" ht="13">
       <c r="A551" s="4"/>
       <c r="B551" s="5"/>
       <c r="C551" s="6" t="s">
@@ -8769,7 +8680,7 @@
       <c r="F551" s="5"/>
       <c r="G551" s="5"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:7" ht="13">
       <c r="A552" s="4"/>
       <c r="B552" s="5"/>
       <c r="C552" s="6" t="s">
@@ -8780,7 +8691,7 @@
       <c r="F552" s="5"/>
       <c r="G552" s="5"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:7" ht="13">
       <c r="A553" s="4"/>
       <c r="B553" s="5"/>
       <c r="C553" s="6" t="s">
@@ -8791,7 +8702,7 @@
       <c r="F553" s="5"/>
       <c r="G553" s="5"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:7" ht="13">
       <c r="A554" s="4"/>
       <c r="B554" s="5"/>
       <c r="C554" s="6" t="s">
@@ -8802,7 +8713,7 @@
       <c r="F554" s="5"/>
       <c r="G554" s="5"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:7" ht="13">
       <c r="A555" s="4"/>
       <c r="B555" s="5"/>
       <c r="C555" s="6" t="s">
@@ -8813,7 +8724,7 @@
       <c r="F555" s="5"/>
       <c r="G555" s="5"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:7" ht="13">
       <c r="A556" s="4"/>
       <c r="B556" s="5"/>
       <c r="C556" s="6" t="s">
@@ -8824,7 +8735,7 @@
       <c r="F556" s="5"/>
       <c r="G556" s="5"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:7" ht="13">
       <c r="A557" s="4"/>
       <c r="B557" s="5"/>
       <c r="C557" s="6" t="s">
@@ -8835,7 +8746,7 @@
       <c r="F557" s="5"/>
       <c r="G557" s="5"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:7" ht="13">
       <c r="A558" s="4"/>
       <c r="B558" s="5"/>
       <c r="C558" s="6" t="s">
@@ -8846,7 +8757,7 @@
       <c r="F558" s="5"/>
       <c r="G558" s="5"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:7" ht="13">
       <c r="A559" s="4"/>
       <c r="B559" s="5"/>
       <c r="C559" s="6" t="s">
@@ -8857,7 +8768,7 @@
       <c r="F559" s="5"/>
       <c r="G559" s="5"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:7" ht="13">
       <c r="A560" s="4"/>
       <c r="B560" s="5"/>
       <c r="C560" s="6" t="s">
@@ -8868,7 +8779,7 @@
       <c r="F560" s="5"/>
       <c r="G560" s="5"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:7" ht="13">
       <c r="A561" s="4"/>
       <c r="B561" s="5"/>
       <c r="C561" s="6" t="s">
@@ -8879,7 +8790,7 @@
       <c r="F561" s="5"/>
       <c r="G561" s="5"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:7" ht="13">
       <c r="A562" s="4"/>
       <c r="B562" s="5"/>
       <c r="C562" s="6" t="s">
@@ -8890,7 +8801,7 @@
       <c r="F562" s="5"/>
       <c r="G562" s="5"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:7" ht="13">
       <c r="A563" s="4"/>
       <c r="B563" s="5"/>
       <c r="C563" s="6" t="s">
@@ -8901,7 +8812,7 @@
       <c r="F563" s="5"/>
       <c r="G563" s="5"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:7" ht="13">
       <c r="A564" s="4"/>
       <c r="B564" s="5"/>
       <c r="C564" s="6" t="s">
@@ -8912,7 +8823,7 @@
       <c r="F564" s="5"/>
       <c r="G564" s="5"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:7" ht="13">
       <c r="A565" s="4"/>
       <c r="B565" s="5"/>
       <c r="C565" s="6" t="s">
@@ -8923,7 +8834,7 @@
       <c r="F565" s="5"/>
       <c r="G565" s="5"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:7" ht="13">
       <c r="A566" s="4"/>
       <c r="B566" s="5"/>
       <c r="C566" s="6" t="s">
@@ -8934,7 +8845,7 @@
       <c r="F566" s="5"/>
       <c r="G566" s="5"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:7" ht="13">
       <c r="A567" s="4"/>
       <c r="B567" s="5"/>
       <c r="C567" s="6" t="s">
@@ -8945,7 +8856,7 @@
       <c r="F567" s="5"/>
       <c r="G567" s="5"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:7" ht="13">
       <c r="A568" s="4"/>
       <c r="B568" s="5"/>
       <c r="C568" s="6" t="s">
@@ -8956,7 +8867,7 @@
       <c r="F568" s="5"/>
       <c r="G568" s="5"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:7" ht="13">
       <c r="A569" s="4"/>
       <c r="B569" s="5"/>
       <c r="C569" s="6" t="s">
@@ -8967,7 +8878,7 @@
       <c r="F569" s="5"/>
       <c r="G569" s="5"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:7" ht="13">
       <c r="A570" s="4"/>
       <c r="B570" s="5"/>
       <c r="C570" s="6" t="s">
@@ -8978,7 +8889,7 @@
       <c r="F570" s="5"/>
       <c r="G570" s="5"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:7" ht="13">
       <c r="A571" s="4"/>
       <c r="B571" s="5"/>
       <c r="C571" s="6" t="s">
@@ -8989,7 +8900,7 @@
       <c r="F571" s="5"/>
       <c r="G571" s="5"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:7" ht="13">
       <c r="A572" s="4"/>
       <c r="B572" s="5"/>
       <c r="C572" s="6" t="s">
@@ -9000,7 +8911,7 @@
       <c r="F572" s="5"/>
       <c r="G572" s="5"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:7" ht="13">
       <c r="A573" s="4"/>
       <c r="B573" s="5"/>
       <c r="C573" s="6" t="s">
@@ -9011,7 +8922,7 @@
       <c r="F573" s="5"/>
       <c r="G573" s="5"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:7" ht="13">
       <c r="A574" s="4"/>
       <c r="B574" s="5"/>
       <c r="C574" s="6" t="s">
@@ -9022,7 +8933,7 @@
       <c r="F574" s="5"/>
       <c r="G574" s="5"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:7" ht="13">
       <c r="A575" s="4"/>
       <c r="B575" s="5"/>
       <c r="C575" s="6" t="s">
@@ -9033,9 +8944,9 @@
       <c r="F575" s="5"/>
       <c r="G575" s="5"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:7" ht="13">
       <c r="A577" s="10">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B577" s="11"/>
       <c r="C577" s="12" t="s">
@@ -9052,7 +8963,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="578">
+    <row r="578" spans="1:7" ht="13">
       <c r="A578" s="10"/>
       <c r="B578" s="11"/>
       <c r="C578" s="12" t="s">
@@ -9063,7 +8974,7 @@
       <c r="F578" s="11"/>
       <c r="G578" s="11"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:7" ht="13">
       <c r="A579" s="10"/>
       <c r="B579" s="11"/>
       <c r="C579" s="12" t="s">
@@ -9074,7 +8985,7 @@
       <c r="F579" s="11"/>
       <c r="G579" s="11"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:7" ht="13">
       <c r="A580" s="10"/>
       <c r="B580" s="11"/>
       <c r="C580" s="12" t="s">
@@ -9085,7 +8996,7 @@
       <c r="F580" s="11"/>
       <c r="G580" s="11"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:7" ht="13">
       <c r="A581" s="10"/>
       <c r="B581" s="11"/>
       <c r="C581" s="12" t="s">
@@ -9096,7 +9007,7 @@
       <c r="F581" s="11"/>
       <c r="G581" s="11"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:7" ht="13">
       <c r="A582" s="10"/>
       <c r="B582" s="11"/>
       <c r="C582" s="12" t="s">
@@ -9107,7 +9018,7 @@
       <c r="F582" s="11"/>
       <c r="G582" s="11"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:7" ht="13">
       <c r="A583" s="10"/>
       <c r="B583" s="11"/>
       <c r="C583" s="12" t="s">
@@ -9118,7 +9029,7 @@
       <c r="F583" s="11"/>
       <c r="G583" s="11"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:7" ht="13">
       <c r="A584" s="10"/>
       <c r="B584" s="11"/>
       <c r="C584" s="12" t="s">
@@ -9129,7 +9040,7 @@
       <c r="F584" s="11"/>
       <c r="G584" s="11"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:7" ht="13">
       <c r="A585" s="10"/>
       <c r="B585" s="11"/>
       <c r="C585" s="12" t="s">
@@ -9140,7 +9051,7 @@
       <c r="F585" s="11"/>
       <c r="G585" s="11"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:7" ht="13">
       <c r="A586" s="10"/>
       <c r="B586" s="11"/>
       <c r="C586" s="12" t="s">
@@ -9151,7 +9062,7 @@
       <c r="F586" s="11"/>
       <c r="G586" s="11"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:7" ht="13">
       <c r="A587" s="10"/>
       <c r="B587" s="11"/>
       <c r="C587" s="12" t="s">
@@ -9162,7 +9073,7 @@
       <c r="F587" s="11"/>
       <c r="G587" s="11"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:7" ht="13">
       <c r="A588" s="10"/>
       <c r="B588" s="11"/>
       <c r="C588" s="12" t="s">
@@ -9173,7 +9084,7 @@
       <c r="F588" s="11"/>
       <c r="G588" s="11"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:7" ht="13">
       <c r="A589" s="10"/>
       <c r="B589" s="11"/>
       <c r="C589" s="12" t="s">
@@ -9184,7 +9095,7 @@
       <c r="F589" s="11"/>
       <c r="G589" s="11"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:7" ht="13">
       <c r="A590" s="10"/>
       <c r="B590" s="11"/>
       <c r="C590" s="12" t="s">
@@ -9195,7 +9106,7 @@
       <c r="F590" s="11"/>
       <c r="G590" s="11"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:7" ht="13">
       <c r="A591" s="10"/>
       <c r="B591" s="11"/>
       <c r="C591" s="12" t="s">
@@ -9206,7 +9117,7 @@
       <c r="F591" s="11"/>
       <c r="G591" s="11"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:7" ht="13">
       <c r="A592" s="10"/>
       <c r="B592" s="11"/>
       <c r="C592" s="12" t="s">
@@ -9217,7 +9128,7 @@
       <c r="F592" s="11"/>
       <c r="G592" s="11"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:7" ht="13">
       <c r="A593" s="10"/>
       <c r="B593" s="11"/>
       <c r="C593" s="12" t="s">
@@ -9228,7 +9139,7 @@
       <c r="F593" s="11"/>
       <c r="G593" s="11"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:7" ht="13">
       <c r="A594" s="10"/>
       <c r="B594" s="11"/>
       <c r="C594" s="12" t="s">
@@ -9239,7 +9150,7 @@
       <c r="F594" s="11"/>
       <c r="G594" s="11"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:7" ht="13">
       <c r="A595" s="10"/>
       <c r="B595" s="11"/>
       <c r="C595" s="12" t="s">
@@ -9250,7 +9161,7 @@
       <c r="F595" s="11"/>
       <c r="G595" s="11"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:7" ht="13">
       <c r="A596" s="10"/>
       <c r="B596" s="11"/>
       <c r="C596" s="12" t="s">
@@ -9261,7 +9172,7 @@
       <c r="F596" s="11"/>
       <c r="G596" s="11"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:7" ht="13">
       <c r="A597" s="10"/>
       <c r="B597" s="11"/>
       <c r="C597" s="12" t="s">
@@ -9272,7 +9183,7 @@
       <c r="F597" s="11"/>
       <c r="G597" s="11"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:7" ht="13">
       <c r="A598" s="10"/>
       <c r="B598" s="11"/>
       <c r="C598" s="12" t="s">
@@ -9283,7 +9194,7 @@
       <c r="F598" s="11"/>
       <c r="G598" s="11"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:7" ht="13">
       <c r="A599" s="10"/>
       <c r="B599" s="11"/>
       <c r="C599" s="12" t="s">
@@ -9294,7 +9205,7 @@
       <c r="F599" s="11"/>
       <c r="G599" s="11"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:7" ht="13">
       <c r="A600" s="10"/>
       <c r="B600" s="11"/>
       <c r="C600" s="12" t="s">
@@ -9305,7 +9216,7 @@
       <c r="F600" s="11"/>
       <c r="G600" s="11"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:7" ht="13">
       <c r="A601" s="10"/>
       <c r="B601" s="11"/>
       <c r="C601" s="12" t="s">
@@ -9316,7 +9227,7 @@
       <c r="F601" s="11"/>
       <c r="G601" s="11"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:7" ht="13">
       <c r="A602" s="10"/>
       <c r="B602" s="11"/>
       <c r="C602" s="12" t="s">
@@ -9327,7 +9238,7 @@
       <c r="F602" s="11"/>
       <c r="G602" s="11"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:7" ht="13">
       <c r="A603" s="10"/>
       <c r="B603" s="11"/>
       <c r="C603" s="12" t="s">
@@ -9338,7 +9249,7 @@
       <c r="F603" s="11"/>
       <c r="G603" s="11"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:7" ht="13">
       <c r="A604" s="10"/>
       <c r="B604" s="11"/>
       <c r="C604" s="12" t="s">
@@ -9349,7 +9260,7 @@
       <c r="F604" s="11"/>
       <c r="G604" s="11"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:7" ht="13">
       <c r="A605" s="10"/>
       <c r="B605" s="11"/>
       <c r="C605" s="12" t="s">
@@ -9360,7 +9271,7 @@
       <c r="F605" s="11"/>
       <c r="G605" s="11"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:7" ht="13">
       <c r="A606" s="10"/>
       <c r="B606" s="11"/>
       <c r="C606" s="12" t="s">
@@ -9371,7 +9282,7 @@
       <c r="F606" s="11"/>
       <c r="G606" s="11"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:7" ht="13">
       <c r="A607" s="10"/>
       <c r="B607" s="11"/>
       <c r="C607" s="12" t="s">
@@ -9382,7 +9293,7 @@
       <c r="F607" s="11"/>
       <c r="G607" s="11"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:7" ht="13">
       <c r="A608" s="10"/>
       <c r="B608" s="11"/>
       <c r="C608" s="12" t="s">
@@ -9393,7 +9304,7 @@
       <c r="F608" s="11"/>
       <c r="G608" s="11"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:7" ht="13">
       <c r="A609" s="10"/>
       <c r="B609" s="11"/>
       <c r="C609" s="12" t="s">
@@ -9404,7 +9315,7 @@
       <c r="F609" s="11"/>
       <c r="G609" s="11"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:7" ht="13">
       <c r="A610" s="10"/>
       <c r="B610" s="11"/>
       <c r="C610" s="12" t="s">
@@ -9415,7 +9326,7 @@
       <c r="F610" s="11"/>
       <c r="G610" s="11"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:7" ht="13">
       <c r="A611" s="10"/>
       <c r="B611" s="11"/>
       <c r="C611" s="12" t="s">
@@ -9426,7 +9337,7 @@
       <c r="F611" s="11"/>
       <c r="G611" s="11"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:7" ht="13">
       <c r="A612" s="10"/>
       <c r="B612" s="11"/>
       <c r="C612" s="12" t="s">
@@ -9437,7 +9348,7 @@
       <c r="F612" s="11"/>
       <c r="G612" s="11"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:7" ht="13">
       <c r="A613" s="10"/>
       <c r="B613" s="11"/>
       <c r="C613" s="12" t="s">
@@ -9448,7 +9359,7 @@
       <c r="F613" s="11"/>
       <c r="G613" s="11"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:7" ht="13">
       <c r="A614" s="10"/>
       <c r="B614" s="11"/>
       <c r="C614" s="12" t="s">
@@ -9459,7 +9370,7 @@
       <c r="F614" s="11"/>
       <c r="G614" s="11"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:7" ht="13">
       <c r="A615" s="10"/>
       <c r="B615" s="11"/>
       <c r="C615" s="12" t="s">
@@ -9470,7 +9381,7 @@
       <c r="F615" s="11"/>
       <c r="G615" s="11"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:7" ht="13">
       <c r="A616" s="10"/>
       <c r="B616" s="11"/>
       <c r="C616" s="12" t="s">
@@ -9481,7 +9392,7 @@
       <c r="F616" s="11"/>
       <c r="G616" s="11"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:7" ht="13">
       <c r="A617" s="10"/>
       <c r="B617" s="11"/>
       <c r="C617" s="12" t="s">
@@ -9492,7 +9403,7 @@
       <c r="F617" s="11"/>
       <c r="G617" s="11"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:7" ht="13">
       <c r="A618" s="10"/>
       <c r="B618" s="11"/>
       <c r="C618" s="12" t="s">
@@ -9503,7 +9414,7 @@
       <c r="F618" s="11"/>
       <c r="G618" s="11"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:7" ht="13">
       <c r="A619" s="10"/>
       <c r="B619" s="11"/>
       <c r="C619" s="12" t="s">
@@ -9514,7 +9425,7 @@
       <c r="F619" s="11"/>
       <c r="G619" s="11"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:7" ht="13">
       <c r="A620" s="10"/>
       <c r="B620" s="11"/>
       <c r="C620" s="12" t="s">
@@ -9525,7 +9436,7 @@
       <c r="F620" s="11"/>
       <c r="G620" s="11"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:7" ht="13">
       <c r="A621" s="10"/>
       <c r="B621" s="11"/>
       <c r="C621" s="12" t="s">
@@ -9536,7 +9447,7 @@
       <c r="F621" s="11"/>
       <c r="G621" s="11"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:7" ht="13">
       <c r="A622" s="10"/>
       <c r="B622" s="11"/>
       <c r="C622" s="12" t="s">
@@ -9547,7 +9458,7 @@
       <c r="F622" s="11"/>
       <c r="G622" s="11"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:7" ht="13">
       <c r="A623" s="10"/>
       <c r="B623" s="11"/>
       <c r="C623" s="12" t="s">
@@ -9558,7 +9469,7 @@
       <c r="F623" s="11"/>
       <c r="G623" s="11"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:7" ht="13">
       <c r="A624" s="10"/>
       <c r="B624" s="11"/>
       <c r="C624" s="12" t="s">
@@ -9569,7 +9480,7 @@
       <c r="F624" s="11"/>
       <c r="G624" s="11"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:7" ht="13">
       <c r="A625" s="10"/>
       <c r="B625" s="11"/>
       <c r="C625" s="12" t="s">
@@ -9580,7 +9491,7 @@
       <c r="F625" s="11"/>
       <c r="G625" s="11"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:7" ht="13">
       <c r="A626" s="10"/>
       <c r="B626" s="11"/>
       <c r="C626" s="12" t="s">
@@ -9591,7 +9502,7 @@
       <c r="F626" s="11"/>
       <c r="G626" s="11"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:7" ht="13">
       <c r="A627" s="10"/>
       <c r="B627" s="11"/>
       <c r="C627" s="12" t="s">
@@ -9602,9 +9513,9 @@
       <c r="F627" s="11"/>
       <c r="G627" s="11"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:7" ht="13">
       <c r="A629" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B629" s="5"/>
       <c r="C629" s="6" t="s">
@@ -9621,7 +9532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="630">
+    <row r="630" spans="1:7" ht="13">
       <c r="A630" s="4"/>
       <c r="B630" s="5"/>
       <c r="C630" s="6" t="s">
@@ -9632,7 +9543,7 @@
       <c r="F630" s="5"/>
       <c r="G630" s="5"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:7" ht="13">
       <c r="A631" s="4"/>
       <c r="B631" s="5"/>
       <c r="C631" s="6" t="s">
@@ -9643,7 +9554,7 @@
       <c r="F631" s="5"/>
       <c r="G631" s="5"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:7" ht="13">
       <c r="A632" s="4"/>
       <c r="B632" s="5"/>
       <c r="C632" s="6" t="s">
@@ -9654,12 +9565,12 @@
       <c r="F632" s="5"/>
       <c r="G632" s="5"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:7" ht="13">
       <c r="G633" s="17"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:7" ht="13">
       <c r="A634" s="10">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B634" s="11"/>
       <c r="C634" s="12" t="s">
@@ -9678,7 +9589,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="635">
+    <row r="635" spans="1:7" ht="13">
       <c r="A635" s="10"/>
       <c r="B635" s="11"/>
       <c r="C635" s="12" t="s">
@@ -9689,7 +9600,7 @@
       <c r="F635" s="11"/>
       <c r="G635" s="11"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:7" ht="13">
       <c r="A636" s="10"/>
       <c r="B636" s="11"/>
       <c r="C636" s="12" t="s">
@@ -9700,7 +9611,7 @@
       <c r="F636" s="11"/>
       <c r="G636" s="11"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:7" ht="13">
       <c r="A637" s="10"/>
       <c r="B637" s="11"/>
       <c r="C637" s="12" t="s">
@@ -9711,7 +9622,7 @@
       <c r="F637" s="11"/>
       <c r="G637" s="11"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:7" ht="13">
       <c r="A638" s="10"/>
       <c r="B638" s="11"/>
       <c r="C638" s="12" t="s">
@@ -9722,7 +9633,7 @@
       <c r="F638" s="11"/>
       <c r="G638" s="11"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:7" ht="13">
       <c r="A639" s="10"/>
       <c r="B639" s="11"/>
       <c r="C639" s="12" t="s">
@@ -9733,7 +9644,7 @@
       <c r="F639" s="11"/>
       <c r="G639" s="11"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:7" ht="13">
       <c r="A640" s="10"/>
       <c r="B640" s="11"/>
       <c r="C640" s="12" t="s">
@@ -9744,7 +9655,7 @@
       <c r="F640" s="11"/>
       <c r="G640" s="11"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:7" ht="13">
       <c r="A641" s="10"/>
       <c r="B641" s="11"/>
       <c r="C641" s="12" t="s">
@@ -9755,7 +9666,7 @@
       <c r="F641" s="11"/>
       <c r="G641" s="11"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:7" ht="13">
       <c r="A642" s="10"/>
       <c r="B642" s="11"/>
       <c r="C642" s="12" t="s">
@@ -9766,7 +9677,7 @@
       <c r="F642" s="11"/>
       <c r="G642" s="11"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:7" ht="13">
       <c r="A643" s="10"/>
       <c r="B643" s="11"/>
       <c r="C643" s="12" t="s">
@@ -9777,7 +9688,7 @@
       <c r="F643" s="11"/>
       <c r="G643" s="11"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:7" ht="13">
       <c r="A644" s="10"/>
       <c r="B644" s="11"/>
       <c r="C644" s="12" t="s">
@@ -9788,7 +9699,7 @@
       <c r="F644" s="11"/>
       <c r="G644" s="11"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:7" ht="13">
       <c r="A645" s="10"/>
       <c r="B645" s="11"/>
       <c r="C645" s="12" t="s">
@@ -9799,12 +9710,12 @@
       <c r="F645" s="11"/>
       <c r="G645" s="11"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:7" ht="13">
       <c r="G646" s="17"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:7" ht="13">
       <c r="A647" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B647" s="5"/>
       <c r="C647" s="6" t="s">
@@ -9821,7 +9732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="648">
+    <row r="648" spans="1:7" ht="13">
       <c r="A648" s="4"/>
       <c r="B648" s="5"/>
       <c r="C648" s="6" t="s">
@@ -9832,7 +9743,7 @@
       <c r="F648" s="5"/>
       <c r="G648" s="5"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:7" ht="13">
       <c r="A649" s="4"/>
       <c r="B649" s="5"/>
       <c r="C649" s="6" t="s">
@@ -9843,7 +9754,7 @@
       <c r="F649" s="5"/>
       <c r="G649" s="5"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:7" ht="13">
       <c r="A650" s="4"/>
       <c r="B650" s="5"/>
       <c r="C650" s="6" t="s">
@@ -9854,12 +9765,12 @@
       <c r="F650" s="5"/>
       <c r="G650" s="5"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:7" ht="13">
       <c r="G651" s="17"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:7" ht="13">
       <c r="A652" s="10">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B652" s="11"/>
       <c r="C652" s="12" t="s">
@@ -9876,7 +9787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="653">
+    <row r="653" spans="1:7" ht="13">
       <c r="A653" s="10"/>
       <c r="B653" s="11"/>
       <c r="C653" s="12" t="s">
@@ -9887,7 +9798,7 @@
       <c r="F653" s="11"/>
       <c r="G653" s="11"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:7" ht="13">
       <c r="A654" s="10"/>
       <c r="B654" s="11"/>
       <c r="C654" s="12" t="s">
@@ -9898,7 +9809,7 @@
       <c r="F654" s="11"/>
       <c r="G654" s="11"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:7" ht="13">
       <c r="A655" s="10"/>
       <c r="B655" s="11"/>
       <c r="C655" s="12" t="s">
@@ -9909,7 +9820,7 @@
       <c r="F655" s="11"/>
       <c r="G655" s="11"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:7" ht="13">
       <c r="A656" s="10"/>
       <c r="B656" s="11"/>
       <c r="C656" s="12" t="s">
@@ -9920,7 +9831,7 @@
       <c r="F656" s="11"/>
       <c r="G656" s="11"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:7" ht="13">
       <c r="A657" s="10"/>
       <c r="B657" s="11"/>
       <c r="C657" s="12" t="s">
@@ -9931,9 +9842,9 @@
       <c r="F657" s="11"/>
       <c r="G657" s="11"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:7" ht="13">
       <c r="A659" s="4">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B659" s="5"/>
       <c r="C659" s="6" t="s">
@@ -9947,7 +9858,7 @@
       </c>
       <c r="G659" s="5"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:7" ht="13">
       <c r="A660" s="4"/>
       <c r="B660" s="5"/>
       <c r="C660" s="6" t="s">
@@ -9958,7 +9869,7 @@
       <c r="F660" s="5"/>
       <c r="G660" s="5"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:7" ht="13">
       <c r="A661" s="4"/>
       <c r="B661" s="5"/>
       <c r="C661" s="6" t="s">
@@ -9969,7 +9880,7 @@
       <c r="F661" s="5"/>
       <c r="G661" s="5"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:7" ht="13">
       <c r="A662" s="4"/>
       <c r="B662" s="5"/>
       <c r="C662" s="6" t="s">
@@ -9980,7 +9891,7 @@
       <c r="F662" s="5"/>
       <c r="G662" s="5"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:7" ht="13">
       <c r="A663" s="4"/>
       <c r="B663" s="5"/>
       <c r="C663" s="6" t="s">
@@ -9991,7 +9902,7 @@
       <c r="F663" s="5"/>
       <c r="G663" s="5"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:7" ht="13">
       <c r="A664" s="4"/>
       <c r="B664" s="5"/>
       <c r="C664" s="6" t="s">
@@ -10002,7 +9913,7 @@
       <c r="F664" s="5"/>
       <c r="G664" s="5"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:7" ht="13">
       <c r="A665" s="4"/>
       <c r="B665" s="5"/>
       <c r="C665" s="6" t="s">
@@ -10013,7 +9924,7 @@
       <c r="F665" s="5"/>
       <c r="G665" s="5"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:7" ht="13">
       <c r="A666" s="4"/>
       <c r="B666" s="5"/>
       <c r="C666" s="6" t="s">
@@ -10024,7 +9935,7 @@
       <c r="F666" s="5"/>
       <c r="G666" s="5"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:7" ht="13">
       <c r="A667" s="4"/>
       <c r="B667" s="5"/>
       <c r="C667" s="6" t="s">
@@ -10035,7 +9946,7 @@
       <c r="F667" s="5"/>
       <c r="G667" s="5"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:7" ht="13">
       <c r="A668" s="4"/>
       <c r="B668" s="5"/>
       <c r="C668" s="6" t="s">
@@ -10046,7 +9957,7 @@
       <c r="F668" s="5"/>
       <c r="G668" s="5"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:7" ht="13">
       <c r="A669" s="4"/>
       <c r="B669" s="5"/>
       <c r="C669" s="6" t="s">
@@ -10057,7 +9968,7 @@
       <c r="F669" s="5"/>
       <c r="G669" s="5"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:7" ht="13">
       <c r="A670" s="4"/>
       <c r="B670" s="5"/>
       <c r="C670" s="6" t="s">
@@ -10068,7 +9979,7 @@
       <c r="F670" s="5"/>
       <c r="G670" s="5"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:7" ht="13">
       <c r="A671" s="4"/>
       <c r="B671" s="5"/>
       <c r="C671" s="6" t="s">
@@ -10079,7 +9990,7 @@
       <c r="F671" s="5"/>
       <c r="G671" s="5"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:7" ht="13">
       <c r="A672" s="4"/>
       <c r="B672" s="5"/>
       <c r="C672" s="6" t="s">
@@ -10090,9 +10001,9 @@
       <c r="F672" s="5"/>
       <c r="G672" s="5"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:17" ht="13">
       <c r="A674" s="10">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B674" s="11"/>
       <c r="C674" s="12" t="s">
@@ -10106,7 +10017,7 @@
       </c>
       <c r="G674" s="11"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:17" ht="13">
       <c r="A675" s="10"/>
       <c r="B675" s="11"/>
       <c r="C675" s="12" t="s">
@@ -10117,7 +10028,7 @@
       <c r="F675" s="11"/>
       <c r="G675" s="11"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:17" ht="13">
       <c r="A676" s="10"/>
       <c r="B676" s="11"/>
       <c r="C676" s="12" t="s">
@@ -10128,1937 +10039,654 @@
       <c r="F676" s="11"/>
       <c r="G676" s="11"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:17" ht="13">
       <c r="Q688" s="13"/>
     </row>
-    <row r="902">
+    <row r="902" spans="3:3" ht="13">
       <c r="C902" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="diff-ba834480b14dcff5ca2fb081794cbf6a7a702949b4cf8ed0adaaab2a97994b32L108" ref="C2"/>
-    <hyperlink r:id="rId2" location="diff-28b93bfe6b1142a40b9d900bbc57b3c332b5b2722d4b2696e6ef6ab2086818e0L88" ref="C3"/>
-    <hyperlink r:id="rId3" location="diff-4aa9336c477916c68a0a0c1dd39a6df0343168ed578ac17b07ab57957c50d302L125" ref="C4"/>
-    <hyperlink r:id="rId4" location="diff-418b7e06c6963d234362daf596e7ecf369548db4acebef3dd2ed15c37ac1c1eeL86" ref="C5"/>
-    <hyperlink r:id="rId5" location="diff-38d76eb9c84848adf04792d2a7634fd1572eb25c74a9477ba3d302b8c13e2000L36" ref="C7"/>
-    <hyperlink r:id="rId6" location="diff-37f7617cdded5ebd5767a1b11009a070109397bc58d1efc6309a88566cc76dd7L358" ref="C8"/>
-    <hyperlink r:id="rId7" location="diff-cfc8175d813cc33431652906ee19d20b2c7cef71d51f54612774e3720e773edcL70" ref="C9"/>
-    <hyperlink r:id="rId8" location="diff-9eaaf4c57b77f9f4d6ba933587995748350c6283144ed1b6daf883a984fab700L76" ref="C11"/>
-    <hyperlink r:id="rId9" location="diff-553b197cceb8d45b54bb036f6e3966d627da00b931f05016be18a588a623250aL10" ref="C12"/>
-    <hyperlink r:id="rId10" location="diff-09c6bccd75bec4a1a72b73b7917f5998892505af80949580ce2d1e4b8750d485R98" ref="C14"/>
-    <hyperlink r:id="rId11" location="diff-5ee4c239c6f1a2d63ff9be9222f750aad3a274a2444c30c954e931cfc97d5f6aR103" ref="C15"/>
-    <hyperlink r:id="rId12" location="diff-5752a6b0656e9f103348de9fc707cc374a56821f10767d3e6c0e268a8164f304L140" ref="C17"/>
-    <hyperlink r:id="rId13" location="diff-5752a6b0656e9f103348de9fc707cc374a56821f10767d3e6c0e268a8164f304L144" ref="C18"/>
-    <hyperlink r:id="rId14" location="diff-0a97aceebead8f8424258a1927e976c58ec73761ae1daacc077a3496e19e84ffL553" ref="C19"/>
-    <hyperlink r:id="rId15" location="diff-c8388ecf8a6bb9d960acdc80f722d0404f790b8900473427708cd8d25a6dcdf5L82" ref="C20"/>
-    <hyperlink r:id="rId16" location="diff-e88a54cd68911e56898a8eb094fdd75e2338ef4b177a34991b893f02c2ba949fL202" ref="C21"/>
-    <hyperlink r:id="rId17" location="diff-461b9ca20de5ec1dbc748a2607c4cc9764d201ff58c35d42c4fdc5ee458b7aeaR272" ref="C23"/>
-    <hyperlink r:id="rId18" location="diff-461b9ca20de5ec1dbc748a2607c4cc9764d201ff58c35d42c4fdc5ee458b7aeaR274" ref="C24"/>
-    <hyperlink r:id="rId19" location="diff-01bb24570cb6d0d426376d8a39fd810c61ab6bc9c496a81c91a1a724b48def71L24" ref="C26"/>
-    <hyperlink r:id="rId20" location="diff-67ef05ac0033f6426c104f6b3ad6383943f2ad6c729ef2d1efccbc402c6a4f2fL1835" ref="C27"/>
-    <hyperlink r:id="rId21" location="diff-6e70f51942cb902a9b79191cc457dc6183122939c90bdd95ee5480152e272592L306" ref="C28"/>
-    <hyperlink r:id="rId22" location="diff-efbbaabdfab20832a344fd4b084588222e2deb03ec0e652fd19e700f0688b491R435" ref="C29"/>
-    <hyperlink r:id="rId23" location="diff-efbbaabdfab20832a344fd4b084588222e2deb03ec0e652fd19e700f0688b491L401" ref="C30"/>
-    <hyperlink r:id="rId24" location="diff-f2197a463f5e9b4b6e179f2e3c64769c6427d7fa2173b25c4516cc77978fa571L8" ref="C31"/>
-    <hyperlink r:id="rId25" location="diff-efbbaabdfab20832a344fd4b084588222e2deb03ec0e652fd19e700f0688b491L389" ref="C32"/>
-    <hyperlink r:id="rId26" location="diff-efbbaabdfab20832a344fd4b084588222e2deb03ec0e652fd19e700f0688b491L411" ref="C33"/>
-    <hyperlink r:id="rId27" location="diff-efbbaabdfab20832a344fd4b084588222e2deb03ec0e652fd19e700f0688b491L430" ref="C34"/>
-    <hyperlink r:id="rId28" location="diff-d882a94c6abef8a866b6f28ad5b507fa4df94bfe3286b00e1f0e2904050e6d50L300" ref="C36"/>
-    <hyperlink r:id="rId29" location="diff-f97746e7fd76d5abc1e1e3892cdb33e94940ed8e9844d0bc56a8149a3ae1f7eaR790" ref="C37"/>
-    <hyperlink r:id="rId30" location="diff-c8dcefff4b970d628df2e89b2e9af7fbbeffb245739616dc2e7a01e0513b6326R500" ref="C38"/>
-    <hyperlink r:id="rId31" location="diff-93083b0167fe4d5d7228a93acefc4045ce7e5320a4203d876bb8400637a88123R249" ref="C39"/>
-    <hyperlink r:id="rId32" location="diff-d882a94c6abef8a866b6f28ad5b507fa4df94bfe3286b00e1f0e2904050e6d50R299" ref="C40"/>
-    <hyperlink r:id="rId33" location="diff-f97746e7fd76d5abc1e1e3892cdb33e94940ed8e9844d0bc56a8149a3ae1f7eaR790" ref="C41"/>
-    <hyperlink r:id="rId34" location="diff-1941c4955c8075b141feae429c956f42876d305a1001e32996f739827bce0b7fR44" ref="C43"/>
-    <hyperlink r:id="rId35" location="diff-1941c4955c8075b141feae429c956f42876d305a1001e32996f739827bce0b7fR42" ref="C44"/>
-    <hyperlink r:id="rId36" location="diff-be30eec9ea2c52a95f7f6af98816c16fc0e142c31cf92402fe46b4e84f1178f0R260" ref="C45"/>
-    <hyperlink r:id="rId37" location="diff-1941c4955c8075b141feae429c956f42876d305a1001e32996f739827bce0b7fR53" ref="C46"/>
-    <hyperlink r:id="rId38" location="diff-3de29f5416f502d6faee0dcbe5a51c927276a5441eb13e20e131b1ca9382284bR120" ref="C47"/>
-    <hyperlink r:id="rId39" location="diff-1941c4955c8075b141feae429c956f42876d305a1001e32996f739827bce0b7fR51" ref="C48"/>
-    <hyperlink r:id="rId40" location="diff-ce471f33d6565e5ed5c12f9ddacd8125aabc02f47e3e1a387eb7c50978b1d209R213" ref="C49"/>
-    <hyperlink r:id="rId41" location="diff-d6a60955314d35a0bfdc2298a28cfe48893c0d21f820d8c44e8061e3af860044R90" ref="C51"/>
-    <hyperlink r:id="rId42" location="diff-d6a60955314d35a0bfdc2298a28cfe48893c0d21f820d8c44e8061e3af860044R92" ref="C52"/>
-    <hyperlink r:id="rId43" location="diff-5c678e36140d5876017497cc61fae52b48334dbd75b4d62b3aea908bd64f1402R626" ref="C53"/>
-    <hyperlink r:id="rId44" location="diff-3c569762ee34eb4c647ac22b27d0c3b90daee316186fbdd7d4186525c1bd1808R67" ref="C56"/>
-    <hyperlink r:id="rId45" location="diff-f6d0c7dd046ce2638a3e8d234eef699acb10744aefa8b59baad4c54983fba117R304" ref="C57"/>
-    <hyperlink r:id="rId46" location="diff-e8891118044785fc96c339931d244446ddaf9ce67b000f5436f70f86878edfa3R34" ref="C59"/>
-    <hyperlink r:id="rId47" location="diff-e8891118044785fc96c339931d244446ddaf9ce67b000f5436f70f86878edfa3R45" ref="C60"/>
-    <hyperlink r:id="rId48" location="diff-e8891118044785fc96c339931d244446ddaf9ce67b000f5436f70f86878edfa3R66" ref="C61"/>
-    <hyperlink r:id="rId49" location="diff-097b8b346b02c13ccb35c9ef539d733261e2d01320866465a1102f9347cb8191R416" ref="C63"/>
-    <hyperlink r:id="rId50" location="diff-18c556574b2174e67924a1d0bc66418339a96f82fddbb595bb07dc13f3ccb6caR402" ref="C64"/>
-    <hyperlink r:id="rId51" location="diff-370c272b7a0b039554953ae12ede5a9743da8be2601fc102ec85b1a2d6f8c18fR442" ref="C65"/>
-    <hyperlink r:id="rId52" location="diff-200718f05fa01b82b9b29e2f90918156c936bc08d57a2b2b4cea27aab24faa7bR233" ref="C66"/>
-    <hyperlink r:id="rId53" location="diff-4d1c1b95d2332fa257c83bfaf4a4fab004960523f0031f84df724a40e10344d0R157" ref="C67"/>
-    <hyperlink r:id="rId54" location="diff-c0eb49e8020760f76fcf53e936adeba31622ebcd564ccd64c1cb20302eb45e4cR127" ref="C68"/>
-    <hyperlink r:id="rId55" location="diff-69d39f23a3cd4f3248292f2430e17da06588814c14e866abd0de700e233dd56cR151" ref="C69"/>
-    <hyperlink r:id="rId56" location="diff-200718f05fa01b82b9b29e2f90918156c936bc08d57a2b2b4cea27aab24faa7bR233" ref="C70"/>
-    <hyperlink r:id="rId57" location="diff-370c272b7a0b039554953ae12ede5a9743da8be2601fc102ec85b1a2d6f8c18fR442" ref="C71"/>
-    <hyperlink r:id="rId58" location="diff-200718f05fa01b82b9b29e2f90918156c936bc08d57a2b2b4cea27aab24faa7bR233" ref="C72"/>
-    <hyperlink r:id="rId59" location="diff-638f8caa34207d34f70461289188586f23c6c479c084d8424913add41f8e56e4R408" ref="C73"/>
-    <hyperlink r:id="rId60" location="diff-dc001579a10b2964346426939bb2f54016b8fd949803c717f1b17179d0194813R73" ref="C74"/>
-    <hyperlink r:id="rId61" location="diff-c0eb49e8020760f76fcf53e936adeba31622ebcd564ccd64c1cb20302eb45e4cR127" ref="C75"/>
-    <hyperlink r:id="rId62" location="diff-a0de26f709ec60ab4c973e83eb5401c236a2ff216551c8e9162e3db29b8ac8b9R316" ref="C76"/>
-    <hyperlink r:id="rId63" location="diff-18c556574b2174e67924a1d0bc66418339a96f82fddbb595bb07dc13f3ccb6caR402" ref="C77"/>
-    <hyperlink r:id="rId64" location="diff-dc001579a10b2964346426939bb2f54016b8fd949803c717f1b17179d0194813R73" ref="C78"/>
-    <hyperlink r:id="rId65" location="diff-8ee4ac40c0e0b36676269c34e4f5730b7d7c86309006ce9e2454a25278c34516R401" ref="C79"/>
-    <hyperlink r:id="rId66" location="diff-638f8caa34207d34f70461289188586f23c6c479c084d8424913add41f8e56e4R408" ref="C80"/>
-    <hyperlink r:id="rId67" location="diff-14732dbb3dc27d68f23ef95dd3cac1727bcef328e48ef103a3212c9dd02114b9R312" ref="C81"/>
-    <hyperlink r:id="rId68" location="diff-421ec669ff4aa6ffd06d587aee1be6bb3407bd1b3cea34a052b3b11a05859e70R65" ref="C82"/>
-    <hyperlink r:id="rId69" location="diff-dc001579a10b2964346426939bb2f54016b8fd949803c717f1b17179d0194813R73" ref="C83"/>
-    <hyperlink r:id="rId70" location="diff-0c6383c5ae88df0efc0798d1ae6b48b989764fd718c3371d945550982928f339R239" ref="C84"/>
-    <hyperlink r:id="rId71" location="diff-421ec669ff4aa6ffd06d587aee1be6bb3407bd1b3cea34a052b3b11a05859e70R65" ref="C85"/>
-    <hyperlink r:id="rId72" location="diff-097b8b346b02c13ccb35c9ef539d733261e2d01320866465a1102f9347cb8191R416" ref="C86"/>
-    <hyperlink r:id="rId73" location="diff-421ec669ff4aa6ffd06d587aee1be6bb3407bd1b3cea34a052b3b11a05859e70R65" ref="C87"/>
-    <hyperlink r:id="rId74" location="diff-6d7f3a52e99600160dcb6e9d885b284db9fc0f30f1475037a5e14d91685d16a1R302" ref="C88"/>
-    <hyperlink r:id="rId75" location="diff-fc4b3d6bf2d8a992de65153ee1b52ea75fdb489ff94daeccf9f9af138e9e204dR49" ref="C90"/>
-    <hyperlink r:id="rId76" location="diff-fc4b3d6bf2d8a992de65153ee1b52ea75fdb489ff94daeccf9f9af138e9e204dR60" ref="C91"/>
-    <hyperlink r:id="rId77" location="diff-fc4b3d6bf2d8a992de65153ee1b52ea75fdb489ff94daeccf9f9af138e9e204dR522" ref="C92"/>
-    <hyperlink r:id="rId78" location="diff-ff086f3b743c4a77160a15f9dae14fc6d6233cb1f3ab275f0fea980ac5f6ea0bR103" ref="C93"/>
-    <hyperlink r:id="rId79" location="diff-ff086f3b743c4a77160a15f9dae14fc6d6233cb1f3ab275f0fea980ac5f6ea0bR632" ref="C94"/>
-    <hyperlink r:id="rId80" location="diff-94821e2bc0c79acb3fcad7d1e8b0d8df45ba67f9f161d2b0ef1d5282b2d6ca62R336" ref="C95"/>
-    <hyperlink r:id="rId81" location="diff-94821e2bc0c79acb3fcad7d1e8b0d8df45ba67f9f161d2b0ef1d5282b2d6ca62R341" ref="C96"/>
-    <hyperlink r:id="rId82" location="diff-94821e2bc0c79acb3fcad7d1e8b0d8df45ba67f9f161d2b0ef1d5282b2d6ca62R559" ref="C97"/>
-    <hyperlink r:id="rId83" location="diff-4334cb51a18ebeef75cbdce32d077f969809237e32b1c108a1e0a06e7bb360cdR32" ref="C100"/>
-    <hyperlink r:id="rId84" location="diff-b4f1e5c8fb6947e9bf202859752246a5c6e43860b257f5f799cf8ee3f9b63eb2R304" ref="C101"/>
-    <hyperlink r:id="rId85" location="diff-09785746efc3bb19a421d0323726c21fc12d19ba9733795be83cddd10cd3fba4R23" ref="C102"/>
-    <hyperlink r:id="rId86" location="diff-658fab2e9d05549e610df32b8e4f8132b9b43749be01b1eef4f14ebbf6a6466bR121" ref="C103"/>
-    <hyperlink r:id="rId87" location="diff-b4f1e5c8fb6947e9bf202859752246a5c6e43860b257f5f799cf8ee3f9b63eb2R294" ref="C104"/>
-    <hyperlink r:id="rId88" location="diff-c0127326ef46dd8ffa682c48ced3fb5665a53a6adcd4c6ced4b267db6fe54224R23" ref="C105"/>
-    <hyperlink r:id="rId89" location="diff-0e813752322371ca50ddeae7141cafd8f850a5465e3bcd5ab2d91688e4d671d8L56" ref="C106"/>
-    <hyperlink r:id="rId90" location="diff-4334cb51a18ebeef75cbdce32d077f969809237e32b1c108a1e0a06e7bb360cdR68" ref="C107"/>
-    <hyperlink r:id="rId91" location="diff-16672946ff155bd6d5b59ef3897f39bbe3d23267de790d450dd0b4b9027a6e7bR148" ref="C108"/>
-    <hyperlink r:id="rId92" location="diff-b4f1e5c8fb6947e9bf202859752246a5c6e43860b257f5f799cf8ee3f9b63eb2R304" ref="C109"/>
-    <hyperlink r:id="rId93" location="diff-523fbdca6c3a5dd49599005ca1a92f1b0133e422d12fdc7f3f918c88ae38e997L453" ref="C110"/>
-    <hyperlink r:id="rId94" location="diff-658fab2e9d05549e610df32b8e4f8132b9b43749be01b1eef4f14ebbf6a6466bR166" ref="C111"/>
-    <hyperlink r:id="rId95" location="diff-5c476ee9087929ff604e7a413d9c0812cd8a2bc68a2d4096dd1b52565cc12a9eR1699" ref="C112"/>
-    <hyperlink r:id="rId96" location="diff-63b096b787782dd058965e80cf4f99580a5d3de7f1ebd404ba85a9c47b04498aR423" ref="C113"/>
-    <hyperlink r:id="rId97" location="diff-0e813752322371ca50ddeae7141cafd8f850a5465e3bcd5ab2d91688e4d671d8L52" ref="C114"/>
-    <hyperlink r:id="rId98" location="diff-b4f1e5c8fb6947e9bf202859752246a5c6e43860b257f5f799cf8ee3f9b63eb2R232" ref="C115"/>
-    <hyperlink r:id="rId99" location="diff-ab4668b8a4cfd45acbb53708dc401714da8cb86370ff962f8ecc10ce0c1f9eb4R28" ref="C116"/>
-    <hyperlink r:id="rId100" location="diff-0e813752322371ca50ddeae7141cafd8f850a5465e3bcd5ab2d91688e4d671d8L74" ref="C117"/>
-    <hyperlink r:id="rId101" location="diff-658fab2e9d05549e610df32b8e4f8132b9b43749be01b1eef4f14ebbf6a6466bR139" ref="C118"/>
-    <hyperlink r:id="rId102" location="diff-c0127326ef46dd8ffa682c48ced3fb5665a53a6adcd4c6ced4b267db6fe54224L23" ref="C119"/>
-    <hyperlink r:id="rId103" location="diff-b4f1e5c8fb6947e9bf202859752246a5c6e43860b257f5f799cf8ee3f9b63eb2R304" ref="C120"/>
-    <hyperlink r:id="rId104" location="diff-862d6d13cbad9de5abb6dccce528a7b1d7df3b076b7932cabf0e122e973bb34cL29" ref="C121"/>
-    <hyperlink r:id="rId105" location="diff-b4f1e5c8fb6947e9bf202859752246a5c6e43860b257f5f799cf8ee3f9b63eb2R294" ref="C122"/>
-    <hyperlink r:id="rId106" location="diff-4334cb51a18ebeef75cbdce32d077f969809237e32b1c108a1e0a06e7bb360cdR68" ref="C123"/>
-    <hyperlink r:id="rId107" location="diff-0e813752322371ca50ddeae7141cafd8f850a5465e3bcd5ab2d91688e4d671d8L71" ref="C124"/>
-    <hyperlink r:id="rId108" location="diff-523fbdca6c3a5dd49599005ca1a92f1b0133e422d12fdc7f3f918c88ae38e997L116" ref="C125"/>
-    <hyperlink r:id="rId109" location="diff-16672946ff155bd6d5b59ef3897f39bbe3d23267de790d450dd0b4b9027a6e7bR148" ref="C126"/>
-    <hyperlink r:id="rId110" location="diff-658fab2e9d05549e610df32b8e4f8132b9b43749be01b1eef4f14ebbf6a6466bR152" ref="C127"/>
-    <hyperlink r:id="rId111" location="diff-4334cb51a18ebeef75cbdce32d077f969809237e32b1c108a1e0a06e7bb360cdR32" ref="C128"/>
-    <hyperlink r:id="rId112" location="diff-63b096b787782dd058965e80cf4f99580a5d3de7f1ebd404ba85a9c47b04498aR423" ref="C129"/>
-    <hyperlink r:id="rId113" location="diff-31260fd1b2fcd19057d210fb5c7a1cad45475850854e43a8e162d3470c390f04R179" ref="C131"/>
-    <hyperlink r:id="rId114" location="diff-31260fd1b2fcd19057d210fb5c7a1cad45475850854e43a8e162d3470c390f04R181" ref="C132"/>
-    <hyperlink r:id="rId115" location="diff-31260fd1b2fcd19057d210fb5c7a1cad45475850854e43a8e162d3470c390f04R83" ref="C133"/>
-    <hyperlink r:id="rId116" location="diff-31260fd1b2fcd19057d210fb5c7a1cad45475850854e43a8e162d3470c390f04R83" ref="C134"/>
-    <hyperlink r:id="rId117" location="diff-69fcce7b22881763d517753c3c940890653efd26c80c21812aa055479c9c0bcaR91" ref="C136"/>
-    <hyperlink r:id="rId118" location="diff-69fcce7b22881763d517753c3c940890653efd26c80c21812aa055479c9c0bcaR91" ref="C137"/>
-    <hyperlink r:id="rId119" location="diff-5ce3229b4a11d3842f0d40d672f35dd6384b3376c1cd9255ef21e6b70f86f116R330" ref="C138"/>
-    <hyperlink r:id="rId120" location="diff-69fcce7b22881763d517753c3c940890653efd26c80c21812aa055479c9c0bcaR152" ref="C139"/>
-    <hyperlink r:id="rId121" location="diff-e91a8c3c77501ae2a41fa3b2d2eaf8a4a1c951f8d2c29c48d871cdb09596681dR133" ref="C140"/>
-    <hyperlink r:id="rId122" location="diff-69fcce7b22881763d517753c3c940890653efd26c80c21812aa055479c9c0bcaR51" ref="C141"/>
-    <hyperlink r:id="rId123" location="diff-cbe6f25112c13f481e5d94c589f99ef7bb83b52313e8ec89237cf1592bd20b8fR145" ref="C142"/>
-    <hyperlink r:id="rId124" location="diff-51ff63ce202a623a15265a23d5bc4dfc64cd3a0c08de5e47c2419cf95ae98d42R104" ref="C143"/>
-    <hyperlink r:id="rId125" location="diff-e91a8c3c77501ae2a41fa3b2d2eaf8a4a1c951f8d2c29c48d871cdb09596681dR133" ref="C144"/>
-    <hyperlink r:id="rId126" location="diff-69fcce7b22881763d517753c3c940890653efd26c80c21812aa055479c9c0bcaR152" ref="C145"/>
-    <hyperlink r:id="rId127" location="diff-b313dc5b2666a20ac9264bc62d4994e5ea8f611a431daa824eaa222efe04ec19R133" ref="C146"/>
-    <hyperlink r:id="rId128" location="diff-cbe6f25112c13f481e5d94c589f99ef7bb83b52313e8ec89237cf1592bd20b8fR145" ref="C147"/>
-    <hyperlink r:id="rId129" location="diff-a9872a24692f6f1b9a60accd9397e205116061c1ba5915e150511208e380a6f1R1077" ref="C149"/>
-    <hyperlink r:id="rId130" location="diff-b1029c91884ad11273b8755da7282076d4e6f533d299cab11fef54744af7d070R538" ref="C150"/>
-    <hyperlink r:id="rId131" location="diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807R655" ref="C151"/>
-    <hyperlink r:id="rId132" location="diff-8ce9f544f23c7bad3bb2b712eecbcd141467a5e353991f2ac30d01e979b96a55R927" ref="C152"/>
-    <hyperlink r:id="rId133" location="diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807R623" ref="C153"/>
-    <hyperlink r:id="rId134" location="diff-2234ce15dc46f3d7cf770fe99c2dc75ef5594828f0f0422e1aea8a78d3e161acR2449" ref="C154"/>
-    <hyperlink r:id="rId135" location="diff-e3f294f15d21f734831609b2cc8d5f3e303cfd958e889820e990f19874661fa1R61" ref="C155"/>
-    <hyperlink r:id="rId136" location="diff-0503c102c3353b39b0ae676862843d47f8838f964490a33cd5cf9ddddc805e17R12" ref="C156"/>
-    <hyperlink r:id="rId137" location="diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807R608" ref="C157"/>
-    <hyperlink r:id="rId138" location="diff-6acce8bb6d98364aac2dbda650630b3c0e46fcd3a7230f864acdd0890571d2caR84" ref="C158"/>
-    <hyperlink r:id="rId139" location="diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807R638" ref="C159"/>
-    <hyperlink r:id="rId140" location="diff-765b4b04b98394b2798ee3c8b242c4fede80d6d956a3aa2aba0f3ad36868d050R16" ref="C161"/>
-    <hyperlink r:id="rId141" location="diff-f795d8b188327b24c1a880b9d52b31f5c9acd88cf21cc4210703515131dda7d4R27" ref="C162"/>
-    <hyperlink r:id="rId142" location="diff-68ee0a752600aa9ab4838c098536cf7318be78a586a67c32241f8eee9535924dR53" ref="C163"/>
-    <hyperlink r:id="rId143" location="diff-5dfd3cdf9cb69afa5d99ee869cd813e01fc441f9617b78ae7fe18ee64fe16cf8R18" ref="C164"/>
-    <hyperlink r:id="rId144" location="diff-03337ef0b4344258e6d058fcf2121ae26368749a3ba8a09c3351ced2587de506R18" ref="C165"/>
-    <hyperlink r:id="rId145" location="diff-b70703feb745cb21e98e6cb5957bdb018927372683911466a6e8abe845a57a31R56" ref="C166"/>
-    <hyperlink r:id="rId146" location="diff-ac2b6111e514ee24ba6b43a25620d7c52efb90644a9e28c0999189815cb14c4fR16" ref="C167"/>
-    <hyperlink r:id="rId147" location="diff-1ace13388e7743718ee3b21a4844160b3ea88d12d1d79c8b22b388d82ce85bf4R80" ref="C168"/>
-    <hyperlink r:id="rId148" location="diff-b3f136a845ae5b7383fbc2be280c64af12352a6583ace9658cc4f6e2479df4a3R234" ref="C170"/>
-    <hyperlink r:id="rId149" location="diff-36217a911c8194aeb909096e6ff4da4c38dc7d6d9b39dea52fe7150ff90193a8R80" ref="C171"/>
-    <hyperlink r:id="rId150" location="diff-2e89851babbded6f80369173bfe9eafcdce30bae84257f549c3ae968171e9841R250" ref="C172"/>
-    <hyperlink r:id="rId151" location="diff-36217a911c8194aeb909096e6ff4da4c38dc7d6d9b39dea52fe7150ff90193a8R84" ref="C173"/>
-    <hyperlink r:id="rId152" location="diff-9b4c7846941b17ffb06861d2e040f4525889c8320a4c730af077fc74ed1c624aR52" ref="C174"/>
-    <hyperlink r:id="rId153" location="diff-be677869a88f58790f2387fb2ac0ae12e2e9610d7c7096e25d3087d5ed9645c8R487" ref="C175"/>
-    <hyperlink r:id="rId154" location="diff-8bc297d3280f097ffacf974dbf47c7f549b1444fcc91f378d939deba4a800756R69" ref="C177"/>
-    <hyperlink r:id="rId155" location="diff-8bc297d3280f097ffacf974dbf47c7f549b1444fcc91f378d939deba4a800756R75" ref="C178"/>
-    <hyperlink r:id="rId156" location="diff-8bc297d3280f097ffacf974dbf47c7f549b1444fcc91f378d939deba4a800756R81" ref="C179"/>
-    <hyperlink r:id="rId157" location="diff-b9ad592568d81ca351038fab640707c2440a9fa08afc8bd17c3647a55a6697acR218" ref="C180"/>
-    <hyperlink r:id="rId158" location="diff-b9ad592568d81ca351038fab640707c2440a9fa08afc8bd17c3647a55a6697acR262" ref="C181"/>
-    <hyperlink r:id="rId159" location="diff-b9ad592568d81ca351038fab640707c2440a9fa08afc8bd17c3647a55a6697acR191" ref="C182"/>
-    <hyperlink r:id="rId160" location="diff-90e9f48b71d78e3f01c75206cf86b95a314285f63fc81477b7f8cd9c09e0c155R199" ref="C184"/>
-    <hyperlink r:id="rId161" location="diff-22a166d8fb7c904a8302d231d13bb2a6372bd048eff4633ef6b23ca935c023a0R181" ref="C185"/>
-    <hyperlink r:id="rId162" location="diff-f4b8513f2ad038786519bd890bcd7fb465b285b0f3dde842bf59b65f588cc4a0R190" ref="C186"/>
-    <hyperlink r:id="rId163" location="diff-ab194f49b3f13c89de26d37e12f009fc644275b722df650e98f4c7810256270bR77" ref="C187"/>
-    <hyperlink r:id="rId164" location="diff-dd89c4ba532f03a0e7dac962ac62e0a4e1204fb647aa09f9e1aa55321ff19341L11" ref="C189"/>
-    <hyperlink r:id="rId165" location="diff-dd89c4ba532f03a0e7dac962ac62e0a4e1204fb647aa09f9e1aa55321ff19341L39" ref="C190"/>
-    <hyperlink r:id="rId166" location="diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807L170" ref="C191"/>
-    <hyperlink r:id="rId167" location="diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807R210" ref="C192"/>
-    <hyperlink r:id="rId168" location="diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807R314" ref="C193"/>
-    <hyperlink r:id="rId169" location="diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807R821" ref="C194"/>
-    <hyperlink r:id="rId170" location="diff-645b98c4baa359c71d0ebdcd550237358d7ae1dae6a2bf03750f6f8b36c12163R17" ref="C195"/>
-    <hyperlink r:id="rId171" location="diff-645b98c4baa359c71d0ebdcd550237358d7ae1dae6a2bf03750f6f8b36c12163R263" ref="C196"/>
-    <hyperlink r:id="rId172" location="diff-c46eb915f5cb2a2de3a3254969ee3e47e8062fed5851792a777a8a60bc014c90R25" ref="C197"/>
-    <hyperlink r:id="rId173" location="diff-c46eb915f5cb2a2de3a3254969ee3e47e8062fed5851792a777a8a60bc014c90R66" ref="C198"/>
-    <hyperlink r:id="rId174" location="diff-c46eb915f5cb2a2de3a3254969ee3e47e8062fed5851792a777a8a60bc014c90R103" ref="C199"/>
-    <hyperlink r:id="rId175" location="diff-c46eb915f5cb2a2de3a3254969ee3e47e8062fed5851792a777a8a60bc014c90R116" ref="C200"/>
-    <hyperlink r:id="rId176" location="diff-c46eb915f5cb2a2de3a3254969ee3e47e8062fed5851792a777a8a60bc014c90R172" ref="C201"/>
-    <hyperlink r:id="rId177" location="diff-a9872a24692f6f1b9a60accd9397e205116061c1ba5915e150511208e380a6f1R778" ref="C202"/>
-    <hyperlink r:id="rId178" location="diff-a9872a24692f6f1b9a60accd9397e205116061c1ba5915e150511208e380a6f1R2414" ref="C203"/>
-    <hyperlink r:id="rId179" location="diff-a9872a24692f6f1b9a60accd9397e205116061c1ba5915e150511208e380a6f1R2531" ref="C204"/>
-    <hyperlink r:id="rId180" location="diff-ba810eee6975904d460ad9e406f83eded89c0c49990c16fe1bfe12c92aeaca17R521" ref="C205"/>
-    <hyperlink r:id="rId181" location="diff-ba810eee6975904d460ad9e406f83eded89c0c49990c16fe1bfe12c92aeaca17R2250" ref="C206"/>
-    <hyperlink r:id="rId182" location="diff-ba810eee6975904d460ad9e406f83eded89c0c49990c16fe1bfe12c92aeaca17R2303" ref="C207"/>
-    <hyperlink r:id="rId183" location="diff-764f0cedd33e98726d12c935495b80333a11e877a5a270d8ce53c9db152dd976R1237" ref="C208"/>
-    <hyperlink r:id="rId184" location="diff-764f0cedd33e98726d12c935495b80333a11e877a5a270d8ce53c9db152dd976R3797" ref="C209"/>
-    <hyperlink r:id="rId185" location="diff-b1029c91884ad11273b8755da7282076d4e6f533d299cab11fef54744af7d070R3343" ref="C210"/>
-    <hyperlink r:id="rId186" location="diff-b1029c91884ad11273b8755da7282076d4e6f533d299cab11fef54744af7d070R3391" ref="C211"/>
-    <hyperlink r:id="rId187" location="diff-b1029c91884ad11273b8755da7282076d4e6f533d299cab11fef54744af7d070R3540" ref="C212"/>
-    <hyperlink r:id="rId188" location="diff-8ce9f544f23c7bad3bb2b712eecbcd141467a5e353991f2ac30d01e979b96a55R205" ref="C213"/>
-    <hyperlink r:id="rId189" location="diff-de12b4c2d5ab8e6bfbca5f50bed12fa774e9e46fbc959ecb0495f37dea405318R82" ref="C214"/>
-    <hyperlink r:id="rId190" location="diff-de12b4c2d5ab8e6bfbca5f50bed12fa774e9e46fbc959ecb0495f37dea405318R89" ref="C215"/>
-    <hyperlink r:id="rId191" location="diff-18392a19b3d7ec8069a10ddde8de63c66090cdacdd9ddae59705849697385623R4082" ref="C216"/>
-    <hyperlink r:id="rId192" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R105" ref="C218"/>
-    <hyperlink r:id="rId193" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R127" ref="C219"/>
-    <hyperlink r:id="rId194" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R323" ref="C220"/>
-    <hyperlink r:id="rId195" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R327" ref="C221"/>
-    <hyperlink r:id="rId196" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R332" ref="C222"/>
-    <hyperlink r:id="rId197" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R337" ref="C223"/>
-    <hyperlink r:id="rId198" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R342" ref="C224"/>
-    <hyperlink r:id="rId199" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R388" ref="C225"/>
-    <hyperlink r:id="rId200" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R392" ref="C226"/>
-    <hyperlink r:id="rId201" location="diff-157f0c94d83b58806e298a82b763a427a61f5ebd583373109ac7a49596ec9225R23" ref="C227"/>
-    <hyperlink r:id="rId202" location="diff-157f0c94d83b58806e298a82b763a427a61f5ebd583373109ac7a49596ec9225R27" ref="C228"/>
-    <hyperlink r:id="rId203" location="diff-d68e656e17b481d3f5bf4df8f74508dab302c6afc6ab6c4d46b8239ed533b532L60" ref="C230"/>
-    <hyperlink r:id="rId204" location="diff-699e69649f69da591231ceedd4b8b37889523e7c3db4716716e3053084e05d0eL42" ref="C231"/>
-    <hyperlink r:id="rId205" location="diff-699e69649f69da591231ceedd4b8b37889523e7c3db4716716e3053084e05d0eR102" ref="C232"/>
-    <hyperlink r:id="rId206" location="diff-66bc108304bc8b841aa356538c453a6e9a7c60d7a8ee60527996914bea65794eL207" ref="C234"/>
-    <hyperlink r:id="rId207" location="diff-66bc108304bc8b841aa356538c453a6e9a7c60d7a8ee60527996914bea65794eL212" ref="C235"/>
-    <hyperlink r:id="rId208" location="diff-66bc108304bc8b841aa356538c453a6e9a7c60d7a8ee60527996914bea65794eL217" ref="C236"/>
-    <hyperlink r:id="rId209" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL90" ref="C238"/>
-    <hyperlink r:id="rId210" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL124" ref="C239"/>
-    <hyperlink r:id="rId211" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" ref="C240"/>
-    <hyperlink r:id="rId212" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L438" ref="C241"/>
-    <hyperlink r:id="rId213" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL174" ref="C242"/>
-    <hyperlink r:id="rId214" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL105" ref="C243"/>
-    <hyperlink r:id="rId215" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R467" ref="C244"/>
-    <hyperlink r:id="rId216" location="diff-7f4e5da2e7c7c83cd7143ad8206a54b4e30e8a418a0f9a2c47b74a3d35814e09L335" ref="C245"/>
-    <hyperlink r:id="rId217" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL946" ref="C246"/>
-    <hyperlink r:id="rId218" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL244" ref="C247"/>
-    <hyperlink r:id="rId219" location="diff-7f4e5da2e7c7c83cd7143ad8206a54b4e30e8a418a0f9a2c47b74a3d35814e09L81" ref="C248"/>
-    <hyperlink r:id="rId220" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L484" ref="C249"/>
-    <hyperlink r:id="rId221" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL45" ref="C250"/>
-    <hyperlink r:id="rId222" location="diff-5952816d17d53cba1cf7df481a76cef00c942409109577b9245f9fd3209f921eL205" ref="C251"/>
-    <hyperlink r:id="rId223" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L516" ref="C252"/>
-    <hyperlink r:id="rId224" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R399" ref="C253"/>
-    <hyperlink r:id="rId225" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L424" ref="C254"/>
-    <hyperlink r:id="rId226" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L484" ref="C255"/>
-    <hyperlink r:id="rId227" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL491" ref="C256"/>
-    <hyperlink r:id="rId228" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL221" ref="C257"/>
-    <hyperlink r:id="rId229" location="diff-1dbee314be7494ae08c7383f47cb376530311e98095305958d21895d9c270b89L258" ref="C258"/>
-    <hyperlink r:id="rId230" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L4411" ref="C259"/>
-    <hyperlink r:id="rId231" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L407" ref="C260"/>
-    <hyperlink r:id="rId232" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR711" ref="C261"/>
-    <hyperlink r:id="rId233" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL442" ref="C262"/>
-    <hyperlink r:id="rId234" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL249" ref="C263"/>
-    <hyperlink r:id="rId235" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL50" ref="C264"/>
-    <hyperlink r:id="rId236" location="diff-8c59bf6bedcf57b19c4b881473f2f4bb8e5700d562e5bb0250698460edad28c7R116" ref="C265"/>
-    <hyperlink r:id="rId237" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L440" ref="C266"/>
-    <hyperlink r:id="rId238" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL150" ref="C267"/>
-    <hyperlink r:id="rId239" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R96" ref="C268"/>
-    <hyperlink r:id="rId240" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L481" ref="C269"/>
-    <hyperlink r:id="rId241" location="diff-8c59bf6bedcf57b19c4b881473f2f4bb8e5700d562e5bb0250698460edad28c7R219" ref="C270"/>
-    <hyperlink r:id="rId242" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R47" ref="C271"/>
-    <hyperlink r:id="rId243" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL165" ref="C272"/>
-    <hyperlink r:id="rId244" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R101" ref="C273"/>
-    <hyperlink r:id="rId245" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL65" ref="C274"/>
-    <hyperlink r:id="rId246" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL478" ref="C275"/>
-    <hyperlink r:id="rId247" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caL53" ref="C276"/>
-    <hyperlink r:id="rId248" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL35" ref="C277"/>
-    <hyperlink r:id="rId249" location="diff-1dbee314be7494ae08c7383f47cb376530311e98095305958d21895d9c270b89L231" ref="C278"/>
-    <hyperlink r:id="rId250" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L384" ref="C279"/>
-    <hyperlink r:id="rId251" location="diff-7f4e5da2e7c7c83cd7143ad8206a54b4e30e8a418a0f9a2c47b74a3d35814e09L66" ref="C280"/>
-    <hyperlink r:id="rId252" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R55" ref="C281"/>
-    <hyperlink r:id="rId253" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L521" ref="C282"/>
-    <hyperlink r:id="rId254" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L40" ref="C283"/>
-    <hyperlink r:id="rId255" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L416" ref="C284"/>
-    <hyperlink r:id="rId256" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL236" ref="C285"/>
-    <hyperlink r:id="rId257" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L383" ref="C286"/>
-    <hyperlink r:id="rId258" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caL65" ref="C287"/>
-    <hyperlink r:id="rId259" location="diff-412189bd4a33471e5038008d1f1e61af6f659d8ec49f6c9602bc9aea4225f9edL132" ref="C288"/>
-    <hyperlink r:id="rId260" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" ref="C289"/>
-    <hyperlink r:id="rId261" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L41" ref="C290"/>
-    <hyperlink r:id="rId262" location="diff-8445836e9fd13f721ce97382546e600551ecdafbd18532f58afa67cfafcef290R474" ref="C291"/>
-    <hyperlink r:id="rId263" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL232" ref="C292"/>
-    <hyperlink r:id="rId264" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL179" ref="C293"/>
-    <hyperlink r:id="rId265" location="diff-8445836e9fd13f721ce97382546e600551ecdafbd18532f58afa67cfafcef290R232" ref="C294"/>
-    <hyperlink r:id="rId266" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L440" ref="C295"/>
-    <hyperlink r:id="rId267" location="diff-66160b6ca724fcb80482d8bb78db0c022fb1354cdfc3b5f5c6748480588b4b8dR298" ref="C296"/>
-    <hyperlink r:id="rId268" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR132" ref="C297"/>
-    <hyperlink r:id="rId269" location="diff-8445836e9fd13f721ce97382546e600551ecdafbd18532f58afa67cfafcef290R328" ref="C298"/>
-    <hyperlink r:id="rId270" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR700" ref="C299"/>
-    <hyperlink r:id="rId271" location="diff-764002e679104e9ca7f9d338a599e7ada5bae3bfb2154474b172ee4c7233cedfL871" ref="C300"/>
-    <hyperlink r:id="rId272" location="diff-1dbee314be7494ae08c7383f47cb376530311e98095305958d21895d9c270b89L248" ref="C301"/>
-    <hyperlink r:id="rId273" location="diff-8445836e9fd13f721ce97382546e600551ecdafbd18532f58afa67cfafcef290R250" ref="C302"/>
-    <hyperlink r:id="rId274" location="diff-5952816d17d53cba1cf7df481a76cef00c942409109577b9245f9fd3209f921eL202" ref="C303"/>
-    <hyperlink r:id="rId275" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL939" ref="C304"/>
-    <hyperlink r:id="rId276" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL441" ref="C305"/>
-    <hyperlink r:id="rId277" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" ref="C306"/>
-    <hyperlink r:id="rId278" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L499" ref="C307"/>
-    <hyperlink r:id="rId279" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" ref="C308"/>
-    <hyperlink r:id="rId280" location="diff-1e5d9a5d0b36f8418e06089d0689e427cf452134f9dbc87f448a2196c7b494c6R867" ref="C309"/>
-    <hyperlink r:id="rId281" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" ref="C310"/>
-    <hyperlink r:id="rId282" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L383" ref="C311"/>
-    <hyperlink r:id="rId283" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR225" ref="C312"/>
-    <hyperlink r:id="rId284" location="diff-f1ae13366ff380723fa98cba9570729d9ae341115b6e3dc74ae1b76050e636bfR145" ref="C313"/>
-    <hyperlink r:id="rId285" location="diff-1e5d9a5d0b36f8418e06089d0689e427cf452134f9dbc87f448a2196c7b494c6R865" ref="C314"/>
-    <hyperlink r:id="rId286" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL169" ref="C315"/>
-    <hyperlink r:id="rId287" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L514" ref="C316"/>
-    <hyperlink r:id="rId288" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L382" ref="C317"/>
-    <hyperlink r:id="rId289" location="diff-412189bd4a33471e5038008d1f1e61af6f659d8ec49f6c9602bc9aea4225f9edL132" ref="C318"/>
-    <hyperlink r:id="rId290" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL70" ref="C319"/>
-    <hyperlink r:id="rId291" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL498" ref="C320"/>
-    <hyperlink r:id="rId292" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L478" ref="C321"/>
-    <hyperlink r:id="rId293" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R524" ref="C322"/>
-    <hyperlink r:id="rId294" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL139" ref="C323"/>
-    <hyperlink r:id="rId295" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL489" ref="C324"/>
-    <hyperlink r:id="rId296" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL189" ref="C325"/>
-    <hyperlink r:id="rId297" location="diff-5952816d17d53cba1cf7df481a76cef00c942409109577b9245f9fd3209f921eL161" ref="C326"/>
-    <hyperlink r:id="rId298" location="diff-7f4e5da2e7c7c83cd7143ad8206a54b4e30e8a418a0f9a2c47b74a3d35814e09L90" ref="C327"/>
-    <hyperlink r:id="rId299" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L487" ref="C328"/>
-    <hyperlink r:id="rId300" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L218" ref="C329"/>
-    <hyperlink r:id="rId301" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L487" ref="C330"/>
-    <hyperlink r:id="rId302" location="diff-7f4e5da2e7c7c83cd7143ad8206a54b4e30e8a418a0f9a2c47b74a3d35814e09L334" ref="C331"/>
-    <hyperlink r:id="rId303" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL837" ref="C332"/>
-    <hyperlink r:id="rId304" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL119" ref="C333"/>
-    <hyperlink r:id="rId305" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR756" ref="C334"/>
-    <hyperlink r:id="rId306" location="diff-412189bd4a33471e5038008d1f1e61af6f659d8ec49f6c9602bc9aea4225f9edL132" ref="C335"/>
-    <hyperlink r:id="rId307" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL221" ref="C336"/>
-    <hyperlink r:id="rId308" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL279" ref="C337"/>
-    <hyperlink r:id="rId309" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R249" ref="C338"/>
-    <hyperlink r:id="rId310" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R64" ref="C339"/>
-    <hyperlink r:id="rId311" location="diff-5952816d17d53cba1cf7df481a76cef00c942409109577b9245f9fd3209f921eL268" ref="C340"/>
-    <hyperlink r:id="rId312" location="diff-8445836e9fd13f721ce97382546e600551ecdafbd18532f58afa67cfafcef290R476" ref="C341"/>
-    <hyperlink r:id="rId313" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" ref="C342"/>
-    <hyperlink r:id="rId314" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993L197" ref="C343"/>
-    <hyperlink r:id="rId315" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL169" ref="C344"/>
-    <hyperlink r:id="rId316" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL75" ref="C345"/>
-    <hyperlink r:id="rId317" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R295" ref="C346"/>
-    <hyperlink r:id="rId318" location="diff-1e5d9a5d0b36f8418e06089d0689e427cf452134f9dbc87f448a2196c7b494c6R876" ref="C347"/>
-    <hyperlink r:id="rId319" location="diff-5952816d17d53cba1cf7df481a76cef00c942409109577b9245f9fd3209f921eL133" ref="C348"/>
-    <hyperlink r:id="rId320" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL229" ref="C349"/>
-    <hyperlink r:id="rId321" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL568" ref="C350"/>
-    <hyperlink r:id="rId322" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL139" ref="C351"/>
-    <hyperlink r:id="rId323" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL80" ref="C352"/>
-    <hyperlink r:id="rId324" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL163" ref="C353"/>
-    <hyperlink r:id="rId325" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL85" ref="C354"/>
-    <hyperlink r:id="rId326" location="diff-8445836e9fd13f721ce97382546e600551ecdafbd18532f58afa67cfafcef290R472" ref="C355"/>
-    <hyperlink r:id="rId327" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL453" ref="C356"/>
-    <hyperlink r:id="rId328" location="diff-412189bd4a33471e5038008d1f1e61af6f659d8ec49f6c9602bc9aea4225f9edL95" ref="C357"/>
-    <hyperlink r:id="rId329" location="diff-8c59bf6bedcf57b19c4b881473f2f4bb8e5700d562e5bb0250698460edad28c7R119" ref="C358"/>
-    <hyperlink r:id="rId330" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R258" ref="C359"/>
-    <hyperlink r:id="rId331" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L490" ref="C360"/>
-    <hyperlink r:id="rId332" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL228" ref="C361"/>
-    <hyperlink r:id="rId333" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L441" ref="C362"/>
-    <hyperlink r:id="rId334" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR488" ref="C363"/>
-    <hyperlink r:id="rId335" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL447" ref="C364"/>
-    <hyperlink r:id="rId336" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L475" ref="C365"/>
-    <hyperlink r:id="rId337" location="diff-7f4e5da2e7c7c83cd7143ad8206a54b4e30e8a418a0f9a2c47b74a3d35814e09L448" ref="C366"/>
-    <hyperlink r:id="rId338" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL136" ref="C367"/>
-    <hyperlink r:id="rId339" location="diff-16b202110408213a921ff7524ef314d16c600523bb549078090266d8dffda3d1L470" ref="C368"/>
-    <hyperlink r:id="rId340" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" ref="C369"/>
-    <hyperlink r:id="rId341" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L53" ref="C370"/>
-    <hyperlink r:id="rId342" location="diff-8445836e9fd13f721ce97382546e600551ecdafbd18532f58afa67cfafcef290R508" ref="C371"/>
-    <hyperlink r:id="rId343" location="diff-d60257629c673ada23dd8a72372fdf0c9698b17c5821b2044cb36e0c89405f14R305" ref="C372"/>
-    <hyperlink r:id="rId344" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL168" ref="C373"/>
-    <hyperlink r:id="rId345" location="diff-5952816d17d53cba1cf7df481a76cef00c942409109577b9245f9fd3209f921eL192" ref="C374"/>
-    <hyperlink r:id="rId346" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL176" ref="C375"/>
-    <hyperlink r:id="rId347" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L478" ref="C376"/>
-    <hyperlink r:id="rId348" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL276" ref="C377"/>
-    <hyperlink r:id="rId349" location="diff-1dbee314be7494ae08c7383f47cb376530311e98095305958d21895d9c270b89L244" ref="C378"/>
-    <hyperlink r:id="rId350" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R465" ref="C379"/>
-    <hyperlink r:id="rId351" location="diff-16b202110408213a921ff7524ef314d16c600523bb549078090266d8dffda3d1L197" ref="C380"/>
-    <hyperlink r:id="rId352" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL464" ref="C381"/>
-    <hyperlink r:id="rId353" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL160" ref="C382"/>
-    <hyperlink r:id="rId354" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL142" ref="C383"/>
-    <hyperlink r:id="rId355" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R501" ref="C384"/>
-    <hyperlink r:id="rId356" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL178" ref="C385"/>
-    <hyperlink r:id="rId357" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL653" ref="C386"/>
-    <hyperlink r:id="rId358" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L499" ref="C387"/>
-    <hyperlink r:id="rId359" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL233" ref="C388"/>
-    <hyperlink r:id="rId360" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L4399" ref="C389"/>
-    <hyperlink r:id="rId361" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L481" ref="C390"/>
-    <hyperlink r:id="rId362" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L482" ref="C391"/>
-    <hyperlink r:id="rId363" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993L198" ref="C392"/>
-    <hyperlink r:id="rId364" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL149" ref="C393"/>
-    <hyperlink r:id="rId365" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL138" ref="C394"/>
-    <hyperlink r:id="rId366" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL143" ref="C395"/>
-    <hyperlink r:id="rId367" location="diff-8c59bf6bedcf57b19c4b881473f2f4bb8e5700d562e5bb0250698460edad28c7R52" ref="C396"/>
-    <hyperlink r:id="rId368" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L439" ref="C397"/>
-    <hyperlink r:id="rId369" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R440" ref="C398"/>
-    <hyperlink r:id="rId370" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL100" ref="C399"/>
-    <hyperlink r:id="rId371" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L382" ref="C400"/>
-    <hyperlink r:id="rId372" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL844" ref="C401"/>
-    <hyperlink r:id="rId373" location="diff-1e5d9a5d0b36f8418e06089d0689e427cf452134f9dbc87f448a2196c7b494c6R874" ref="C402"/>
-    <hyperlink r:id="rId374" location="diff-f1ae13366ff380723fa98cba9570729d9ae341115b6e3dc74ae1b76050e636bfR155" ref="C403"/>
-    <hyperlink r:id="rId375" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R442" ref="C404"/>
-    <hyperlink r:id="rId376" location="diff-f1ae13366ff380723fa98cba9570729d9ae341115b6e3dc74ae1b76050e636bfR160" ref="C405"/>
-    <hyperlink r:id="rId377" location="diff-412189bd4a33471e5038008d1f1e61af6f659d8ec49f6c9602bc9aea4225f9edL132" ref="C406"/>
-    <hyperlink r:id="rId378" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL466" ref="C407"/>
-    <hyperlink r:id="rId379" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL573" ref="C408"/>
-    <hyperlink r:id="rId380" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R323" ref="C409"/>
-    <hyperlink r:id="rId381" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL191" ref="C410"/>
-    <hyperlink r:id="rId382" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L495" ref="C411"/>
-    <hyperlink r:id="rId383" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL167" ref="C412"/>
-    <hyperlink r:id="rId384" location="diff-1dbee314be7494ae08c7383f47cb376530311e98095305958d21895d9c270b89L240" ref="C413"/>
-    <hyperlink r:id="rId385" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL457" ref="C414"/>
-    <hyperlink r:id="rId386" location="diff-8c59bf6bedcf57b19c4b881473f2f4bb8e5700d562e5bb0250698460edad28c7R114" ref="C415"/>
-    <hyperlink r:id="rId387" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L495" ref="C416"/>
-    <hyperlink r:id="rId388" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL555" ref="C417"/>
-    <hyperlink r:id="rId389" location="diff-412189bd4a33471e5038008d1f1e61af6f659d8ec49f6c9602bc9aea4225f9edL132" ref="C418"/>
-    <hyperlink r:id="rId390" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL180" ref="C419"/>
-    <hyperlink r:id="rId391" location="diff-16b202110408213a921ff7524ef314d16c600523bb549078090266d8dffda3d1L466" ref="C420"/>
-    <hyperlink r:id="rId392" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL225" ref="C421"/>
-    <hyperlink r:id="rId393" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL472" ref="C422"/>
-    <hyperlink r:id="rId394" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL40" ref="C423"/>
-    <hyperlink r:id="rId395" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R281" ref="C424"/>
-    <hyperlink r:id="rId396" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R263" ref="C425"/>
-    <hyperlink r:id="rId397" location="diff-412189bd4a33471e5038008d1f1e61af6f659d8ec49f6c9602bc9aea4225f9edL132" ref="C426"/>
-    <hyperlink r:id="rId398" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL114" ref="C427"/>
-    <hyperlink r:id="rId399" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L179" ref="C428"/>
-    <hyperlink r:id="rId400" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR717" ref="C429"/>
-    <hyperlink r:id="rId401" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL55" ref="C430"/>
-    <hyperlink r:id="rId402" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL60" ref="C431"/>
-    <hyperlink r:id="rId403" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R347" ref="C432"/>
-    <hyperlink r:id="rId404" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL291" ref="C433"/>
-    <hyperlink r:id="rId405" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL460" ref="C434"/>
-    <hyperlink r:id="rId406" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR481" ref="C435"/>
-    <hyperlink r:id="rId407" location="diff-1e5d9a5d0b36f8418e06089d0689e427cf452134f9dbc87f448a2196c7b494c6R869" ref="C436"/>
-    <hyperlink r:id="rId408" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L275" ref="C437"/>
-    <hyperlink r:id="rId409" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" ref="C438"/>
-    <hyperlink r:id="rId410" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL142" ref="C439"/>
-    <hyperlink r:id="rId411" location="diff-1e5d9a5d0b36f8418e06089d0689e427cf452134f9dbc87f448a2196c7b494c6L293" ref="C440"/>
-    <hyperlink r:id="rId412" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L499" ref="C441"/>
-    <hyperlink r:id="rId413" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R503" ref="C442"/>
-    <hyperlink r:id="rId414" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL337" ref="C443"/>
-    <hyperlink r:id="rId415" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L413" ref="C444"/>
-    <hyperlink r:id="rId416" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL379" ref="C445"/>
-    <hyperlink r:id="rId417" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL484" ref="C446"/>
-    <hyperlink r:id="rId418" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL506" ref="C447"/>
-    <hyperlink r:id="rId419" location="diff-16b202110408213a921ff7524ef314d16c600523bb549078090266d8dffda3d1L474" ref="C448"/>
-    <hyperlink r:id="rId420" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L419" ref="C449"/>
-    <hyperlink r:id="rId421" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caL56" ref="C450"/>
-    <hyperlink r:id="rId422" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" ref="C451"/>
-    <hyperlink r:id="rId423" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993L199" ref="C452"/>
-    <hyperlink r:id="rId424" location="diff-f1ae13366ff380723fa98cba9570729d9ae341115b6e3dc74ae1b76050e636bfR178" ref="C453"/>
-    <hyperlink r:id="rId425" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L384" ref="C454"/>
-    <hyperlink r:id="rId426" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L410" ref="C455"/>
-    <hyperlink r:id="rId427" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR510" ref="C456"/>
-    <hyperlink r:id="rId428" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L54" ref="C457"/>
-    <hyperlink r:id="rId429" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL207" ref="C458"/>
-    <hyperlink r:id="rId430" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R375" ref="C459"/>
-    <hyperlink r:id="rId431" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL187" ref="C460"/>
-    <hyperlink r:id="rId432" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L438" ref="C461"/>
-    <hyperlink r:id="rId433" location="diff-7f4e5da2e7c7c83cd7143ad8206a54b4e30e8a418a0f9a2c47b74a3d35814e09L497" ref="C462"/>
-    <hyperlink r:id="rId434" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R438" ref="C463"/>
-    <hyperlink r:id="rId435" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL660" ref="C464"/>
-    <hyperlink r:id="rId436" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL26" ref="C465"/>
-    <hyperlink r:id="rId437" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL465" ref="C466"/>
-    <hyperlink r:id="rId438" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L407" ref="C467"/>
-    <hyperlink r:id="rId439" location="diff-b78217b46a018fe90e2895d188c30bf209d61a0239804e47b57af798e8831b6bL70" ref="C468"/>
-    <hyperlink r:id="rId440" location="diff-1dbee314be7494ae08c7383f47cb376530311e98095305958d21895d9c270b89L235" ref="C469"/>
-    <hyperlink r:id="rId441" location="diff-49912f6893223d5ccf8e703078078dfc2c5af980cefd79afefa3faba83061a9fL152" ref="C470"/>
-    <hyperlink r:id="rId442" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL155" ref="C471"/>
-    <hyperlink r:id="rId443" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL578" ref="C472"/>
-    <hyperlink r:id="rId444" location="diff-16b202110408213a921ff7524ef314d16c600523bb549078090266d8dffda3d1L180" ref="C473"/>
-    <hyperlink r:id="rId445" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL220" ref="C474"/>
-    <hyperlink r:id="rId446" location="diff-16b202110408213a921ff7524ef314d16c600523bb549078090266d8dffda3d1L188" ref="C475"/>
-    <hyperlink r:id="rId447" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR580" ref="C476"/>
-    <hyperlink r:id="rId448" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL105" ref="C477"/>
-    <hyperlink r:id="rId449" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL253" ref="C478"/>
-    <hyperlink r:id="rId450" location="diff-412189bd4a33471e5038008d1f1e61af6f659d8ec49f6c9602bc9aea4225f9edL143" ref="C479"/>
-    <hyperlink r:id="rId451" location="diff-1e5d9a5d0b36f8418e06089d0689e427cf452134f9dbc87f448a2196c7b494c6L60" ref="C480"/>
-    <hyperlink r:id="rId452" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L550" ref="C481"/>
-    <hyperlink r:id="rId453" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL148" ref="C482"/>
-    <hyperlink r:id="rId454" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R92" ref="C483"/>
-    <hyperlink r:id="rId455" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL234" ref="C484"/>
-    <hyperlink r:id="rId456" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL513" ref="C485"/>
-    <hyperlink r:id="rId457" location="diff-66160b6ca724fcb80482d8bb78db0c022fb1354cdfc3b5f5c6748480588b4b8dR364" ref="C486"/>
-    <hyperlink r:id="rId458" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" ref="C487"/>
-    <hyperlink r:id="rId459" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R246" ref="C489"/>
-    <hyperlink r:id="rId460" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L474" ref="C490"/>
-    <hyperlink r:id="rId461" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R442" ref="C491"/>
-    <hyperlink r:id="rId462" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R349" ref="C492"/>
-    <hyperlink r:id="rId463" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R442" ref="C493"/>
-    <hyperlink r:id="rId464" location="diff-92dc3d1d1bb576fcd0df2aced27579b8ce8cfa02f5863d8120972053671e54f8L116" ref="C494"/>
-    <hyperlink r:id="rId465" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L1044" ref="C495"/>
-    <hyperlink r:id="rId466" location="diff-fb83a8c54b1b67e406df95bb5ab5dc32cbe28d067d1126b994978522617b678fL327" ref="C496"/>
-    <hyperlink r:id="rId467" location="diff-02acb520abe2bd363f5781f14730e944055287f772d4b493648936b5ae0b3736L135" ref="C497"/>
-    <hyperlink r:id="rId468" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L131" ref="C498"/>
-    <hyperlink r:id="rId469" location="diff-e91fc9a820946de25ef4bf6809f01bfc30f3b912d1b3c5686be003a35ec1af10L34" ref="C499"/>
-    <hyperlink r:id="rId470" location="diff-a9cca8a8329c863397fe34e6116ce5b6557d9724acea3a8e1523555bae9f2fd3L93" ref="C500"/>
-    <hyperlink r:id="rId471" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L131" ref="C501"/>
-    <hyperlink r:id="rId472" location="diff-06c9a9e336686828e4a64c4a8ddcfa4e4d8ab1e13f0675b022e6c930d1252a0dL40" ref="C502"/>
-    <hyperlink r:id="rId473" location="diff-5347875f6e419db4741c58f2e31eb8eeee635223c00bee895f5e903aef247bf8L180" ref="C503"/>
-    <hyperlink r:id="rId474" location="diff-764002e679104e9ca7f9d338a599e7ada5bae3bfb2154474b172ee4c7233cedfL1154" ref="C504"/>
-    <hyperlink r:id="rId475" location="diff-764002e679104e9ca7f9d338a599e7ada5bae3bfb2154474b172ee4c7233cedfL1264" ref="C505"/>
-    <hyperlink r:id="rId476" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R451" ref="C506"/>
-    <hyperlink r:id="rId477" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R436" ref="C507"/>
-    <hyperlink r:id="rId478" location="diff-8fff798a490d9b802336e8cca7230d2d31b95ff283c597cdc174c17d840364d2L144" ref="C508"/>
-    <hyperlink r:id="rId479" location="diff-08da55b6f2d5b6dc735a78fe2c00050461dfc7511279cd8a33bfa3bf1882388cR33" ref="C509"/>
-    <hyperlink r:id="rId480" location="diff-a9cca8a8329c863397fe34e6116ce5b6557d9724acea3a8e1523555bae9f2fd3L89" ref="C510"/>
-    <hyperlink r:id="rId481" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R300" ref="C511"/>
-    <hyperlink r:id="rId482" location="diff-764002e679104e9ca7f9d338a599e7ada5bae3bfb2154474b172ee4c7233cedfL1128" ref="C512"/>
-    <hyperlink r:id="rId483" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R321" ref="C513"/>
-    <hyperlink r:id="rId484" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L174" ref="C514"/>
-    <hyperlink r:id="rId485" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L106" ref="C515"/>
-    <hyperlink r:id="rId486" location="diff-66d7de2095fc6d477ccab06baf860de0652f272320a1c552c66ff36966ab3676L212" ref="C516"/>
-    <hyperlink r:id="rId487" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R3255" ref="C517"/>
-    <hyperlink r:id="rId488" location="diff-66d7de2095fc6d477ccab06baf860de0652f272320a1c552c66ff36966ab3676L34" ref="C518"/>
-    <hyperlink r:id="rId489" location="diff-66d7de2095fc6d477ccab06baf860de0652f272320a1c552c66ff36966ab3676L253" ref="C519"/>
-    <hyperlink r:id="rId490" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R246" ref="C520"/>
-    <hyperlink r:id="rId491" location="diff-a7d6eaf778b7e190e9cff608355003cf17b1d1290d62d37ac8d08d8aa52c5921L174" ref="C521"/>
-    <hyperlink r:id="rId492" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R436" ref="C522"/>
-    <hyperlink r:id="rId493" location="diff-06c9a9e336686828e4a64c4a8ddcfa4e4d8ab1e13f0675b022e6c930d1252a0dL41" ref="C523"/>
-    <hyperlink r:id="rId494" location="diff-66d7de2095fc6d477ccab06baf860de0652f272320a1c552c66ff36966ab3676L217" ref="C524"/>
-    <hyperlink r:id="rId495" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R249" ref="C525"/>
-    <hyperlink r:id="rId496" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R207" ref="C526"/>
-    <hyperlink r:id="rId497" location="diff-fb83a8c54b1b67e406df95bb5ab5dc32cbe28d067d1126b994978522617b678fL335" ref="C527"/>
-    <hyperlink r:id="rId498" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R300" ref="C528"/>
-    <hyperlink r:id="rId499" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R353" ref="C529"/>
-    <hyperlink r:id="rId500" location="diff-a9cca8a8329c863397fe34e6116ce5b6557d9724acea3a8e1523555bae9f2fd3L87" ref="C530"/>
-    <hyperlink r:id="rId501" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L207" ref="C531"/>
-    <hyperlink r:id="rId502" location="diff-e91fc9a820946de25ef4bf6809f01bfc30f3b912d1b3c5686be003a35ec1af10L27" ref="C532"/>
-    <hyperlink r:id="rId503" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L616" ref="C533"/>
-    <hyperlink r:id="rId504" location="diff-02acb520abe2bd363f5781f14730e944055287f772d4b493648936b5ae0b3736L135" ref="C534"/>
-    <hyperlink r:id="rId505" location="diff-7fce854efc965a1319e519da0c95d60dd789dcc5005146e6355c9571425cc761R39" ref="C535"/>
-    <hyperlink r:id="rId506" location="diff-cd3ca2a66b888e02f56149632b5ba9cd5d036a084b63a90cece11dbd086ea557L14" ref="C536"/>
-    <hyperlink r:id="rId507" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R321" ref="C537"/>
-    <hyperlink r:id="rId508" location="diff-7fce854efc965a1319e519da0c95d60dd789dcc5005146e6355c9571425cc761R39" ref="C538"/>
-    <hyperlink r:id="rId509" location="diff-7f65dc825a7b926c0c783c0f62879d06318563830f8be0e63821b1fde9f5796bL159" ref="C539"/>
-    <hyperlink r:id="rId510" location="diff-fb83a8c54b1b67e406df95bb5ab5dc32cbe28d067d1126b994978522617b678fL333" ref="C540"/>
-    <hyperlink r:id="rId511" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L187" ref="C541"/>
-    <hyperlink r:id="rId512" location="diff-e91fc9a820946de25ef4bf6809f01bfc30f3b912d1b3c5686be003a35ec1af10L30" ref="C542"/>
-    <hyperlink r:id="rId513" location="diff-e9fbba57002acf1400bee7d9a5f8b6981d4c348411c2a253cdc4ffdb3858b059L523" ref="C543"/>
-    <hyperlink r:id="rId514" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R207" ref="C544"/>
-    <hyperlink r:id="rId515" location="diff-fb83a8c54b1b67e406df95bb5ab5dc32cbe28d067d1126b994978522617b678fL331" ref="C545"/>
-    <hyperlink r:id="rId516" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R349" ref="C546"/>
-    <hyperlink r:id="rId517" location="diff-7fce854efc965a1319e519da0c95d60dd789dcc5005146e6355c9571425cc761R32" ref="C547"/>
-    <hyperlink r:id="rId518" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R214" ref="C548"/>
-    <hyperlink r:id="rId519" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R214" ref="C549"/>
-    <hyperlink r:id="rId520" location="diff-7fce854efc965a1319e519da0c95d60dd789dcc5005146e6355c9571425cc761R50" ref="C550"/>
-    <hyperlink r:id="rId521" location="diff-08da55b6f2d5b6dc735a78fe2c00050461dfc7511279cd8a33bfa3bf1882388cR33" ref="C551"/>
-    <hyperlink r:id="rId522" location="diff-66d7de2095fc6d477ccab06baf860de0652f272320a1c552c66ff36966ab3676L206" ref="C552"/>
-    <hyperlink r:id="rId523" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L475" ref="C553"/>
-    <hyperlink r:id="rId524" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L134" ref="C554"/>
-    <hyperlink r:id="rId525" location="diff-e9fbba57002acf1400bee7d9a5f8b6981d4c348411c2a253cdc4ffdb3858b059L264" ref="C555"/>
-    <hyperlink r:id="rId526" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R473" ref="C556"/>
-    <hyperlink r:id="rId527" location="diff-764002e679104e9ca7f9d338a599e7ada5bae3bfb2154474b172ee4c7233cedfL1134" ref="C557"/>
-    <hyperlink r:id="rId528" location="diff-06c9a9e336686828e4a64c4a8ddcfa4e4d8ab1e13f0675b022e6c930d1252a0dL38" ref="C558"/>
-    <hyperlink r:id="rId529" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R451" ref="C559"/>
-    <hyperlink r:id="rId530" location="diff-7fce854efc965a1319e519da0c95d60dd789dcc5005146e6355c9571425cc761R32" ref="C560"/>
-    <hyperlink r:id="rId531" location="diff-7fce854efc965a1319e519da0c95d60dd789dcc5005146e6355c9571425cc761R50" ref="C561"/>
-    <hyperlink r:id="rId532" location="diff-5347875f6e419db4741c58f2e31eb8eeee635223c00bee895f5e903aef247bf8L56" ref="C562"/>
-    <hyperlink r:id="rId533" location="diff-fb83a8c54b1b67e406df95bb5ab5dc32cbe28d067d1126b994978522617b678fL329" ref="C563"/>
-    <hyperlink r:id="rId534" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L192" ref="C564"/>
-    <hyperlink r:id="rId535" location="diff-fb83a8c54b1b67e406df95bb5ab5dc32cbe28d067d1126b994978522617b678fL337" ref="C565"/>
-    <hyperlink r:id="rId536" location="diff-a9cca8a8329c863397fe34e6116ce5b6557d9724acea3a8e1523555bae9f2fd3L91" ref="C566"/>
-    <hyperlink r:id="rId537" location="diff-08da55b6f2d5b6dc735a78fe2c00050461dfc7511279cd8a33bfa3bf1882388cR25" ref="C567"/>
-    <hyperlink r:id="rId538" location="diff-08da55b6f2d5b6dc735a78fe2c00050461dfc7511279cd8a33bfa3bf1882388cR25" ref="C568"/>
-    <hyperlink r:id="rId539" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R325" ref="C569"/>
-    <hyperlink r:id="rId540" location="diff-f29f0409a59927b6271c4aa112182510b6cd879a8dceb15193cb10b13aa58276L34" ref="C570"/>
-    <hyperlink r:id="rId541" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L1021" ref="C571"/>
-    <hyperlink r:id="rId542" location="diff-e91fc9a820946de25ef4bf6809f01bfc30f3b912d1b3c5686be003a35ec1af10L37" ref="C572"/>
-    <hyperlink r:id="rId543" location="diff-fb83a8c54b1b67e406df95bb5ab5dc32cbe28d067d1126b994978522617b678fL334" ref="C573"/>
-    <hyperlink r:id="rId544" location="diff-92dc3d1d1bb576fcd0df2aced27579b8ce8cfa02f5863d8120972053671e54f8L119" ref="C574"/>
-    <hyperlink r:id="rId545" location="diff-06c9a9e336686828e4a64c4a8ddcfa4e4d8ab1e13f0675b022e6c930d1252a0dL39" ref="C575"/>
-    <hyperlink r:id="rId546" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L729" ref="C577"/>
-    <hyperlink r:id="rId547" location="diff-34b71544819c5073bfc9083343bf0fa1072ae6f874d13dacaef835db8de1f0a5L173" ref="C578"/>
-    <hyperlink r:id="rId548" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L376" ref="C579"/>
-    <hyperlink r:id="rId549" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L336" ref="C580"/>
-    <hyperlink r:id="rId550" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L312" ref="C581"/>
-    <hyperlink r:id="rId551" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L668" ref="C582"/>
-    <hyperlink r:id="rId552" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L762" ref="C583"/>
-    <hyperlink r:id="rId553" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L519" ref="C584"/>
-    <hyperlink r:id="rId554" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L698" ref="C585"/>
-    <hyperlink r:id="rId555" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL144" ref="C586"/>
-    <hyperlink r:id="rId556" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L400" ref="C587"/>
-    <hyperlink r:id="rId557" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L588" ref="C588"/>
-    <hyperlink r:id="rId558" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L824" ref="C589"/>
-    <hyperlink r:id="rId559" location="diff-34b71544819c5073bfc9083343bf0fa1072ae6f874d13dacaef835db8de1f0a5L184" ref="C590"/>
-    <hyperlink r:id="rId560" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL61" ref="C591"/>
-    <hyperlink r:id="rId561" location="diff-e52d403f114ff9552652d14aaca544e36c2708995ec768aebee734b8e50af954L107" ref="C592"/>
-    <hyperlink r:id="rId562" location="diff-e52d403f114ff9552652d14aaca544e36c2708995ec768aebee734b8e50af954L128" ref="C593"/>
-    <hyperlink r:id="rId563" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L543" ref="C594"/>
-    <hyperlink r:id="rId564" location="diff-958cd63bcbf554b42a9dc760865c6fdf6bc972d612dedd689860d0fb233770f4L24" ref="C595"/>
-    <hyperlink r:id="rId565" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L266" ref="C596"/>
-    <hyperlink r:id="rId566" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L850" ref="C597"/>
-    <hyperlink r:id="rId567" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L650" ref="C598"/>
-    <hyperlink r:id="rId568" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL104" ref="C599"/>
-    <hyperlink r:id="rId569" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L409" ref="C600"/>
-    <hyperlink r:id="rId570" location="diff-f29f0409a59927b6271c4aa112182510b6cd879a8dceb15193cb10b13aa58276L275" ref="C601"/>
-    <hyperlink r:id="rId571" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L440" ref="C602"/>
-    <hyperlink r:id="rId572" location="diff-debd30dee80a99f59dd108dda17a9920eb595b899c1d1d62796d527d08bbffa2L63" ref="C603"/>
-    <hyperlink r:id="rId573" location="diff-58758a0d1f52cd6fc699572144ec07ef2eae4cb1af180a121b7ad015a30e0350L105" ref="C604"/>
-    <hyperlink r:id="rId574" location="diff-e52d403f114ff9552652d14aaca544e36c2708995ec768aebee734b8e50af954L121" ref="C605"/>
-    <hyperlink r:id="rId575" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL40" ref="C606"/>
-    <hyperlink r:id="rId576" location="diff-0da3e1bd3b6ff0eb0e65d7c27d70c1c2e0d8d623dbb9240a6786a01eb9799cf1L29" ref="C607"/>
-    <hyperlink r:id="rId577" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL107" ref="C608"/>
-    <hyperlink r:id="rId578" location="diff-5e53cf452b44e9059cdbdda37fb57dac4d9190d7c141c70d7427322baa9a4d27L92" ref="C609"/>
-    <hyperlink r:id="rId579" location="diff-debd30dee80a99f59dd108dda17a9920eb595b899c1d1d62796d527d08bbffa2L56" ref="C610"/>
-    <hyperlink r:id="rId580" location="diff-0da3e1bd3b6ff0eb0e65d7c27d70c1c2e0d8d623dbb9240a6786a01eb9799cf1L34" ref="C611"/>
-    <hyperlink r:id="rId581" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL37" ref="C612"/>
-    <hyperlink r:id="rId582" location="diff-debd30dee80a99f59dd108dda17a9920eb595b899c1d1d62796d527d08bbffa2L45" ref="C613"/>
-    <hyperlink r:id="rId583" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL43" ref="C614"/>
-    <hyperlink r:id="rId584" location="diff-e52d403f114ff9552652d14aaca544e36c2708995ec768aebee734b8e50af954L101" ref="C615"/>
-    <hyperlink r:id="rId585" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L607" ref="C616"/>
-    <hyperlink r:id="rId586" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL93" ref="C617"/>
-    <hyperlink r:id="rId587" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L793" ref="C618"/>
-    <hyperlink r:id="rId588" location="diff-0da3e1bd3b6ff0eb0e65d7c27d70c1c2e0d8d623dbb9240a6786a01eb9799cf1L127" ref="C619"/>
-    <hyperlink r:id="rId589" location="diff-cf851a34e3a12c15532e3921d7e74f95f769356d737ef1a437ed8b94f820856cL82" ref="C620"/>
-    <hyperlink r:id="rId590" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L475" ref="C621"/>
-    <hyperlink r:id="rId591" location="diff-ae2d36931fe713c0e0f3939ea12be757601ff2402aeb6f6d1f635477b878466fL90" ref="C622"/>
-    <hyperlink r:id="rId592" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL112" ref="C623"/>
-    <hyperlink r:id="rId593" location="diff-e52d403f114ff9552652d14aaca544e36c2708995ec768aebee734b8e50af954L115" ref="C624"/>
-    <hyperlink r:id="rId594" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L286" ref="C625"/>
-    <hyperlink r:id="rId595" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL101" ref="C626"/>
-    <hyperlink r:id="rId596" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL32" ref="C627"/>
-    <hyperlink r:id="rId597" location="diff-fb83a8c54b1b67e406df95bb5ab5dc32cbe28d067d1126b994978522617b678fL337" ref="C629"/>
-    <hyperlink r:id="rId598" location="diff-c96d31f562b6e386c7f6db07090804216dc33aaa064f5a2bb0c89cfa8496e27fL97" ref="C630"/>
-    <hyperlink r:id="rId599" location="diff-488832bb624a31170fd7a42c54b1399357aad7d305f8ee0841ec1fd572c8ac37L39" ref="C631"/>
-    <hyperlink r:id="rId600" location="diff-488832bb624a31170fd7a42c54b1399357aad7d305f8ee0841ec1fd572c8ac37L46" ref="C632"/>
-    <hyperlink r:id="rId601" location="diff-56298727b96c2c05776fa59f72ae5f189bb16d046d5452cf8379a1fe55906bdcL64" ref="C634"/>
-    <hyperlink r:id="rId602" location="diff-56298727b96c2c05776fa59f72ae5f189bb16d046d5452cf8379a1fe55906bdcL141" ref="C635"/>
-    <hyperlink r:id="rId603" location="diff-182536c81191c059f2752f04556c0506c9e44a90679f2e5d1dd1ecd00cc00047L299" ref="C636"/>
-    <hyperlink r:id="rId604" location="diff-56298727b96c2c05776fa59f72ae5f189bb16d046d5452cf8379a1fe55906bdcL80" ref="C637"/>
-    <hyperlink r:id="rId605" location="diff-182536c81191c059f2752f04556c0506c9e44a90679f2e5d1dd1ecd00cc00047L336" ref="C638"/>
-    <hyperlink r:id="rId606" location="diff-56298727b96c2c05776fa59f72ae5f189bb16d046d5452cf8379a1fe55906bdcL126" ref="C639"/>
-    <hyperlink r:id="rId607" location="diff-56298727b96c2c05776fa59f72ae5f189bb16d046d5452cf8379a1fe55906bdcL108" ref="C640"/>
-    <hyperlink r:id="rId608" location="diff-182536c81191c059f2752f04556c0506c9e44a90679f2e5d1dd1ecd00cc00047L307" ref="C641"/>
-    <hyperlink r:id="rId609" location="diff-56298727b96c2c05776fa59f72ae5f189bb16d046d5452cf8379a1fe55906bdcL85" ref="C642"/>
-    <hyperlink r:id="rId610" location="diff-56298727b96c2c05776fa59f72ae5f189bb16d046d5452cf8379a1fe55906bdcL141" ref="C643"/>
-    <hyperlink r:id="rId611" location="diff-182536c81191c059f2752f04556c0506c9e44a90679f2e5d1dd1ecd00cc00047L329" ref="C644"/>
-    <hyperlink r:id="rId612" location="diff-56298727b96c2c05776fa59f72ae5f189bb16d046d5452cf8379a1fe55906bdcL100" ref="C645"/>
-    <hyperlink r:id="rId613" location="diff-02acb520abe2bd363f5781f14730e944055287f772d4b493648936b5ae0b3736L56" ref="C647"/>
-    <hyperlink r:id="rId614" location="diff-02acb520abe2bd363f5781f14730e944055287f772d4b493648936b5ae0b3736L63" ref="C648"/>
-    <hyperlink r:id="rId615" location="diff-02acb520abe2bd363f5781f14730e944055287f772d4b493648936b5ae0b3736L70" ref="C649"/>
-    <hyperlink r:id="rId616" location="diff-02acb520abe2bd363f5781f14730e944055287f772d4b493648936b5ae0b3736L42" ref="C650"/>
-    <hyperlink r:id="rId617" location="diff-234f84a9592c7ea2ce65dcdb80f019c3b804c4d6ad16053c9ddfc6e0a64d5013L403" ref="C652"/>
-    <hyperlink r:id="rId618" location="diff-234f84a9592c7ea2ce65dcdb80f019c3b804c4d6ad16053c9ddfc6e0a64d5013L292" ref="C653"/>
-    <hyperlink r:id="rId619" location="diff-234f84a9592c7ea2ce65dcdb80f019c3b804c4d6ad16053c9ddfc6e0a64d5013L189" ref="C654"/>
-    <hyperlink r:id="rId620" location="diff-234f84a9592c7ea2ce65dcdb80f019c3b804c4d6ad16053c9ddfc6e0a64d5013L292" ref="C655"/>
-    <hyperlink r:id="rId621" location="diff-234f84a9592c7ea2ce65dcdb80f019c3b804c4d6ad16053c9ddfc6e0a64d5013L292" ref="C656"/>
-    <hyperlink r:id="rId622" location="diff-234f84a9592c7ea2ce65dcdb80f019c3b804c4d6ad16053c9ddfc6e0a64d5013L189" ref="C657"/>
-    <hyperlink r:id="rId623" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL63" ref="C659"/>
-    <hyperlink r:id="rId624" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL68" ref="C660"/>
-    <hyperlink r:id="rId625" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL73" ref="C661"/>
-    <hyperlink r:id="rId626" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL80" ref="C662"/>
-    <hyperlink r:id="rId627" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL85" ref="C663"/>
-    <hyperlink r:id="rId628" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL90" ref="C664"/>
-    <hyperlink r:id="rId629" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL95" ref="C665"/>
-    <hyperlink r:id="rId630" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL100" ref="C666"/>
-    <hyperlink r:id="rId631" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL112" ref="C667"/>
-    <hyperlink r:id="rId632" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL117" ref="C668"/>
-    <hyperlink r:id="rId633" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL128" ref="C669"/>
-    <hyperlink r:id="rId634" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL137" ref="C670"/>
-    <hyperlink r:id="rId635" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL140" ref="C671"/>
-    <hyperlink r:id="rId636" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL144" ref="C672"/>
-    <hyperlink r:id="rId637" location="diff-d5ab323609cf726d69185107809d3284f909f17e69de35faaf99d26d761cf0beL155" ref="C674"/>
-    <hyperlink r:id="rId638" location="diff-d5ab323609cf726d69185107809d3284f909f17e69de35faaf99d26d761cf0beL120" ref="C675"/>
-    <hyperlink r:id="rId639" location="diff-d5ab323609cf726d69185107809d3284f909f17e69de35faaf99d26d761cf0beL85" ref="C676"/>
+    <hyperlink ref="C2" r:id="rId1" location="diff-ba834480b14dcff5ca2fb081794cbf6a7a702949b4cf8ed0adaaab2a97994b32L108" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" location="diff-28b93bfe6b1142a40b9d900bbc57b3c332b5b2722d4b2696e6ef6ab2086818e0L88" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" location="diff-4aa9336c477916c68a0a0c1dd39a6df0343168ed578ac17b07ab57957c50d302L125" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" location="diff-418b7e06c6963d234362daf596e7ecf369548db4acebef3dd2ed15c37ac1c1eeL86" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C7" r:id="rId5" location="diff-38d76eb9c84848adf04792d2a7634fd1572eb25c74a9477ba3d302b8c13e2000L36" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C8" r:id="rId6" location="diff-37f7617cdded5ebd5767a1b11009a070109397bc58d1efc6309a88566cc76dd7L358" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C9" r:id="rId7" location="diff-cfc8175d813cc33431652906ee19d20b2c7cef71d51f54612774e3720e773edcL70" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId8" location="diff-9eaaf4c57b77f9f4d6ba933587995748350c6283144ed1b6daf883a984fab700L76" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C12" r:id="rId9" location="diff-553b197cceb8d45b54bb036f6e3966d627da00b931f05016be18a588a623250aL10" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C14" r:id="rId10" location="diff-09c6bccd75bec4a1a72b73b7917f5998892505af80949580ce2d1e4b8750d485R98" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C15" r:id="rId11" location="diff-5ee4c239c6f1a2d63ff9be9222f750aad3a274a2444c30c954e931cfc97d5f6aR103" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C17" r:id="rId12" location="diff-5752a6b0656e9f103348de9fc707cc374a56821f10767d3e6c0e268a8164f304L140" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C18" r:id="rId13" location="diff-5752a6b0656e9f103348de9fc707cc374a56821f10767d3e6c0e268a8164f304L144" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C19" r:id="rId14" location="diff-0a97aceebead8f8424258a1927e976c58ec73761ae1daacc077a3496e19e84ffL553" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C20" r:id="rId15" location="diff-c8388ecf8a6bb9d960acdc80f722d0404f790b8900473427708cd8d25a6dcdf5L82" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C21" r:id="rId16" location="diff-e88a54cd68911e56898a8eb094fdd75e2338ef4b177a34991b893f02c2ba949fL202" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C23" r:id="rId17" location="diff-461b9ca20de5ec1dbc748a2607c4cc9764d201ff58c35d42c4fdc5ee458b7aeaR272" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C24" r:id="rId18" location="diff-461b9ca20de5ec1dbc748a2607c4cc9764d201ff58c35d42c4fdc5ee458b7aeaR274" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C26" r:id="rId19" location="diff-01bb24570cb6d0d426376d8a39fd810c61ab6bc9c496a81c91a1a724b48def71L24" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C27" r:id="rId20" location="diff-67ef05ac0033f6426c104f6b3ad6383943f2ad6c729ef2d1efccbc402c6a4f2fL1835" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C28" r:id="rId21" location="diff-6e70f51942cb902a9b79191cc457dc6183122939c90bdd95ee5480152e272592L306" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C29" r:id="rId22" location="diff-efbbaabdfab20832a344fd4b084588222e2deb03ec0e652fd19e700f0688b491R435" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C30" r:id="rId23" location="diff-efbbaabdfab20832a344fd4b084588222e2deb03ec0e652fd19e700f0688b491L401" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C31" r:id="rId24" location="diff-f2197a463f5e9b4b6e179f2e3c64769c6427d7fa2173b25c4516cc77978fa571L8" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C32" r:id="rId25" location="diff-efbbaabdfab20832a344fd4b084588222e2deb03ec0e652fd19e700f0688b491L389" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C33" r:id="rId26" location="diff-efbbaabdfab20832a344fd4b084588222e2deb03ec0e652fd19e700f0688b491L411" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C34" r:id="rId27" location="diff-efbbaabdfab20832a344fd4b084588222e2deb03ec0e652fd19e700f0688b491L430" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C36" r:id="rId28" location="diff-d882a94c6abef8a866b6f28ad5b507fa4df94bfe3286b00e1f0e2904050e6d50L300" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C37" r:id="rId29" location="diff-f97746e7fd76d5abc1e1e3892cdb33e94940ed8e9844d0bc56a8149a3ae1f7eaR790" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C38" r:id="rId30" location="diff-c8dcefff4b970d628df2e89b2e9af7fbbeffb245739616dc2e7a01e0513b6326R500" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C39" r:id="rId31" location="diff-93083b0167fe4d5d7228a93acefc4045ce7e5320a4203d876bb8400637a88123R249" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C40" r:id="rId32" location="diff-d882a94c6abef8a866b6f28ad5b507fa4df94bfe3286b00e1f0e2904050e6d50R299" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C41" r:id="rId33" location="diff-f97746e7fd76d5abc1e1e3892cdb33e94940ed8e9844d0bc56a8149a3ae1f7eaR790" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C43" r:id="rId34" location="diff-1941c4955c8075b141feae429c956f42876d305a1001e32996f739827bce0b7fR44" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C44" r:id="rId35" location="diff-1941c4955c8075b141feae429c956f42876d305a1001e32996f739827bce0b7fR42" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C45" r:id="rId36" location="diff-be30eec9ea2c52a95f7f6af98816c16fc0e142c31cf92402fe46b4e84f1178f0R260" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C46" r:id="rId37" location="diff-1941c4955c8075b141feae429c956f42876d305a1001e32996f739827bce0b7fR53" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C47" r:id="rId38" location="diff-3de29f5416f502d6faee0dcbe5a51c927276a5441eb13e20e131b1ca9382284bR120" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C48" r:id="rId39" location="diff-1941c4955c8075b141feae429c956f42876d305a1001e32996f739827bce0b7fR51" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C49" r:id="rId40" location="diff-ce471f33d6565e5ed5c12f9ddacd8125aabc02f47e3e1a387eb7c50978b1d209R213" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C51" r:id="rId41" location="diff-d6a60955314d35a0bfdc2298a28cfe48893c0d21f820d8c44e8061e3af860044R90" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C52" r:id="rId42" location="diff-d6a60955314d35a0bfdc2298a28cfe48893c0d21f820d8c44e8061e3af860044R92" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C53" r:id="rId43" location="diff-5c678e36140d5876017497cc61fae52b48334dbd75b4d62b3aea908bd64f1402R626" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C56" r:id="rId44" location="diff-3c569762ee34eb4c647ac22b27d0c3b90daee316186fbdd7d4186525c1bd1808R67" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C57" r:id="rId45" location="diff-f6d0c7dd046ce2638a3e8d234eef699acb10744aefa8b59baad4c54983fba117R304" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C59" r:id="rId46" location="diff-e8891118044785fc96c339931d244446ddaf9ce67b000f5436f70f86878edfa3R34" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C60" r:id="rId47" location="diff-e8891118044785fc96c339931d244446ddaf9ce67b000f5436f70f86878edfa3R45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C61" r:id="rId48" location="diff-e8891118044785fc96c339931d244446ddaf9ce67b000f5436f70f86878edfa3R66" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C63" r:id="rId49" location="diff-097b8b346b02c13ccb35c9ef539d733261e2d01320866465a1102f9347cb8191R416" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C64" r:id="rId50" location="diff-18c556574b2174e67924a1d0bc66418339a96f82fddbb595bb07dc13f3ccb6caR402" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C65" r:id="rId51" location="diff-370c272b7a0b039554953ae12ede5a9743da8be2601fc102ec85b1a2d6f8c18fR442" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C66" r:id="rId52" location="diff-200718f05fa01b82b9b29e2f90918156c936bc08d57a2b2b4cea27aab24faa7bR233" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C67" r:id="rId53" location="diff-4d1c1b95d2332fa257c83bfaf4a4fab004960523f0031f84df724a40e10344d0R157" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C68" r:id="rId54" location="diff-c0eb49e8020760f76fcf53e936adeba31622ebcd564ccd64c1cb20302eb45e4cR127" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C69" r:id="rId55" location="diff-69d39f23a3cd4f3248292f2430e17da06588814c14e866abd0de700e233dd56cR151" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C70" r:id="rId56" location="diff-200718f05fa01b82b9b29e2f90918156c936bc08d57a2b2b4cea27aab24faa7bR233" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C71" r:id="rId57" location="diff-370c272b7a0b039554953ae12ede5a9743da8be2601fc102ec85b1a2d6f8c18fR442" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C72" r:id="rId58" location="diff-200718f05fa01b82b9b29e2f90918156c936bc08d57a2b2b4cea27aab24faa7bR233" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C73" r:id="rId59" location="diff-638f8caa34207d34f70461289188586f23c6c479c084d8424913add41f8e56e4R408" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C74" r:id="rId60" location="diff-dc001579a10b2964346426939bb2f54016b8fd949803c717f1b17179d0194813R73" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C75" r:id="rId61" location="diff-c0eb49e8020760f76fcf53e936adeba31622ebcd564ccd64c1cb20302eb45e4cR127" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C76" r:id="rId62" location="diff-a0de26f709ec60ab4c973e83eb5401c236a2ff216551c8e9162e3db29b8ac8b9R316" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C77" r:id="rId63" location="diff-18c556574b2174e67924a1d0bc66418339a96f82fddbb595bb07dc13f3ccb6caR402" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C78" r:id="rId64" location="diff-dc001579a10b2964346426939bb2f54016b8fd949803c717f1b17179d0194813R73" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C79" r:id="rId65" location="diff-8ee4ac40c0e0b36676269c34e4f5730b7d7c86309006ce9e2454a25278c34516R401" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C80" r:id="rId66" location="diff-638f8caa34207d34f70461289188586f23c6c479c084d8424913add41f8e56e4R408" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C81" r:id="rId67" location="diff-14732dbb3dc27d68f23ef95dd3cac1727bcef328e48ef103a3212c9dd02114b9R312" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C82" r:id="rId68" location="diff-421ec669ff4aa6ffd06d587aee1be6bb3407bd1b3cea34a052b3b11a05859e70R65" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C83" r:id="rId69" location="diff-dc001579a10b2964346426939bb2f54016b8fd949803c717f1b17179d0194813R73" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C84" r:id="rId70" location="diff-0c6383c5ae88df0efc0798d1ae6b48b989764fd718c3371d945550982928f339R239" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C85" r:id="rId71" location="diff-421ec669ff4aa6ffd06d587aee1be6bb3407bd1b3cea34a052b3b11a05859e70R65" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C86" r:id="rId72" location="diff-097b8b346b02c13ccb35c9ef539d733261e2d01320866465a1102f9347cb8191R416" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C87" r:id="rId73" location="diff-421ec669ff4aa6ffd06d587aee1be6bb3407bd1b3cea34a052b3b11a05859e70R65" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C88" r:id="rId74" location="diff-6d7f3a52e99600160dcb6e9d885b284db9fc0f30f1475037a5e14d91685d16a1R302" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C90" r:id="rId75" location="diff-fc4b3d6bf2d8a992de65153ee1b52ea75fdb489ff94daeccf9f9af138e9e204dR49" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C91" r:id="rId76" location="diff-fc4b3d6bf2d8a992de65153ee1b52ea75fdb489ff94daeccf9f9af138e9e204dR60" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C92" r:id="rId77" location="diff-fc4b3d6bf2d8a992de65153ee1b52ea75fdb489ff94daeccf9f9af138e9e204dR522" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C93" r:id="rId78" location="diff-ff086f3b743c4a77160a15f9dae14fc6d6233cb1f3ab275f0fea980ac5f6ea0bR103" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C94" r:id="rId79" location="diff-ff086f3b743c4a77160a15f9dae14fc6d6233cb1f3ab275f0fea980ac5f6ea0bR632" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C95" r:id="rId80" location="diff-94821e2bc0c79acb3fcad7d1e8b0d8df45ba67f9f161d2b0ef1d5282b2d6ca62R336" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C96" r:id="rId81" location="diff-94821e2bc0c79acb3fcad7d1e8b0d8df45ba67f9f161d2b0ef1d5282b2d6ca62R341" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C97" r:id="rId82" location="diff-94821e2bc0c79acb3fcad7d1e8b0d8df45ba67f9f161d2b0ef1d5282b2d6ca62R559" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C100" r:id="rId83" location="diff-4334cb51a18ebeef75cbdce32d077f969809237e32b1c108a1e0a06e7bb360cdR32" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C101" r:id="rId84" location="diff-b4f1e5c8fb6947e9bf202859752246a5c6e43860b257f5f799cf8ee3f9b63eb2R304" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C102" r:id="rId85" location="diff-09785746efc3bb19a421d0323726c21fc12d19ba9733795be83cddd10cd3fba4R23" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C103" r:id="rId86" location="diff-658fab2e9d05549e610df32b8e4f8132b9b43749be01b1eef4f14ebbf6a6466bR121" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C104" r:id="rId87" location="diff-b4f1e5c8fb6947e9bf202859752246a5c6e43860b257f5f799cf8ee3f9b63eb2R294" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C105" r:id="rId88" location="diff-c0127326ef46dd8ffa682c48ced3fb5665a53a6adcd4c6ced4b267db6fe54224R23" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C106" r:id="rId89" location="diff-0e813752322371ca50ddeae7141cafd8f850a5465e3bcd5ab2d91688e4d671d8L56" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C107" r:id="rId90" location="diff-4334cb51a18ebeef75cbdce32d077f969809237e32b1c108a1e0a06e7bb360cdR68" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C108" r:id="rId91" location="diff-16672946ff155bd6d5b59ef3897f39bbe3d23267de790d450dd0b4b9027a6e7bR148" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C109" r:id="rId92" location="diff-b4f1e5c8fb6947e9bf202859752246a5c6e43860b257f5f799cf8ee3f9b63eb2R304" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C110" r:id="rId93" location="diff-523fbdca6c3a5dd49599005ca1a92f1b0133e422d12fdc7f3f918c88ae38e997L453" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C111" r:id="rId94" location="diff-658fab2e9d05549e610df32b8e4f8132b9b43749be01b1eef4f14ebbf6a6466bR166" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C112" r:id="rId95" location="diff-5c476ee9087929ff604e7a413d9c0812cd8a2bc68a2d4096dd1b52565cc12a9eR1699" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C113" r:id="rId96" location="diff-63b096b787782dd058965e80cf4f99580a5d3de7f1ebd404ba85a9c47b04498aR423" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C114" r:id="rId97" location="diff-0e813752322371ca50ddeae7141cafd8f850a5465e3bcd5ab2d91688e4d671d8L52" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C115" r:id="rId98" location="diff-b4f1e5c8fb6947e9bf202859752246a5c6e43860b257f5f799cf8ee3f9b63eb2R232" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C116" r:id="rId99" location="diff-ab4668b8a4cfd45acbb53708dc401714da8cb86370ff962f8ecc10ce0c1f9eb4R28" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C117" r:id="rId100" location="diff-0e813752322371ca50ddeae7141cafd8f850a5465e3bcd5ab2d91688e4d671d8L74" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C118" r:id="rId101" location="diff-658fab2e9d05549e610df32b8e4f8132b9b43749be01b1eef4f14ebbf6a6466bR139" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C119" r:id="rId102" location="diff-c0127326ef46dd8ffa682c48ced3fb5665a53a6adcd4c6ced4b267db6fe54224L23" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C120" r:id="rId103" location="diff-b4f1e5c8fb6947e9bf202859752246a5c6e43860b257f5f799cf8ee3f9b63eb2R304" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C121" r:id="rId104" location="diff-862d6d13cbad9de5abb6dccce528a7b1d7df3b076b7932cabf0e122e973bb34cL29" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C122" r:id="rId105" location="diff-b4f1e5c8fb6947e9bf202859752246a5c6e43860b257f5f799cf8ee3f9b63eb2R294" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C123" r:id="rId106" location="diff-4334cb51a18ebeef75cbdce32d077f969809237e32b1c108a1e0a06e7bb360cdR68" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C124" r:id="rId107" location="diff-0e813752322371ca50ddeae7141cafd8f850a5465e3bcd5ab2d91688e4d671d8L71" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C125" r:id="rId108" location="diff-523fbdca6c3a5dd49599005ca1a92f1b0133e422d12fdc7f3f918c88ae38e997L116" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C126" r:id="rId109" location="diff-16672946ff155bd6d5b59ef3897f39bbe3d23267de790d450dd0b4b9027a6e7bR148" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C127" r:id="rId110" location="diff-658fab2e9d05549e610df32b8e4f8132b9b43749be01b1eef4f14ebbf6a6466bR152" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C128" r:id="rId111" location="diff-4334cb51a18ebeef75cbdce32d077f969809237e32b1c108a1e0a06e7bb360cdR32" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C129" r:id="rId112" location="diff-63b096b787782dd058965e80cf4f99580a5d3de7f1ebd404ba85a9c47b04498aR423" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C131" r:id="rId113" location="diff-31260fd1b2fcd19057d210fb5c7a1cad45475850854e43a8e162d3470c390f04R179" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C132" r:id="rId114" location="diff-31260fd1b2fcd19057d210fb5c7a1cad45475850854e43a8e162d3470c390f04R181" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C133" r:id="rId115" location="diff-31260fd1b2fcd19057d210fb5c7a1cad45475850854e43a8e162d3470c390f04R83" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C134" r:id="rId116" location="diff-31260fd1b2fcd19057d210fb5c7a1cad45475850854e43a8e162d3470c390f04R83" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C136" r:id="rId117" location="diff-69fcce7b22881763d517753c3c940890653efd26c80c21812aa055479c9c0bcaR91" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C137" r:id="rId118" location="diff-69fcce7b22881763d517753c3c940890653efd26c80c21812aa055479c9c0bcaR91" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C138" r:id="rId119" location="diff-5ce3229b4a11d3842f0d40d672f35dd6384b3376c1cd9255ef21e6b70f86f116R330" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C139" r:id="rId120" location="diff-69fcce7b22881763d517753c3c940890653efd26c80c21812aa055479c9c0bcaR152" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C140" r:id="rId121" location="diff-e91a8c3c77501ae2a41fa3b2d2eaf8a4a1c951f8d2c29c48d871cdb09596681dR133" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C141" r:id="rId122" location="diff-69fcce7b22881763d517753c3c940890653efd26c80c21812aa055479c9c0bcaR51" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C142" r:id="rId123" location="diff-cbe6f25112c13f481e5d94c589f99ef7bb83b52313e8ec89237cf1592bd20b8fR145" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C143" r:id="rId124" location="diff-51ff63ce202a623a15265a23d5bc4dfc64cd3a0c08de5e47c2419cf95ae98d42R104" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C144" r:id="rId125" location="diff-e91a8c3c77501ae2a41fa3b2d2eaf8a4a1c951f8d2c29c48d871cdb09596681dR133" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C145" r:id="rId126" location="diff-69fcce7b22881763d517753c3c940890653efd26c80c21812aa055479c9c0bcaR152" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="C146" r:id="rId127" location="diff-b313dc5b2666a20ac9264bc62d4994e5ea8f611a431daa824eaa222efe04ec19R133" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C147" r:id="rId128" location="diff-cbe6f25112c13f481e5d94c589f99ef7bb83b52313e8ec89237cf1592bd20b8fR145" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C149" r:id="rId129" location="diff-a9872a24692f6f1b9a60accd9397e205116061c1ba5915e150511208e380a6f1R1077" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C150" r:id="rId130" location="diff-b1029c91884ad11273b8755da7282076d4e6f533d299cab11fef54744af7d070R538" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C151" r:id="rId131" location="diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807R655" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C152" r:id="rId132" location="diff-8ce9f544f23c7bad3bb2b712eecbcd141467a5e353991f2ac30d01e979b96a55R927" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C153" r:id="rId133" location="diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807R623" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C154" r:id="rId134" location="diff-2234ce15dc46f3d7cf770fe99c2dc75ef5594828f0f0422e1aea8a78d3e161acR2449" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C155" r:id="rId135" location="diff-e3f294f15d21f734831609b2cc8d5f3e303cfd958e889820e990f19874661fa1R61" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C156" r:id="rId136" location="diff-0503c102c3353b39b0ae676862843d47f8838f964490a33cd5cf9ddddc805e17R12" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C157" r:id="rId137" location="diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807R608" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C158" r:id="rId138" location="diff-6acce8bb6d98364aac2dbda650630b3c0e46fcd3a7230f864acdd0890571d2caR84" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C159" r:id="rId139" location="diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807R638" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C161" r:id="rId140" location="diff-765b4b04b98394b2798ee3c8b242c4fede80d6d956a3aa2aba0f3ad36868d050R16" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C162" r:id="rId141" location="diff-f795d8b188327b24c1a880b9d52b31f5c9acd88cf21cc4210703515131dda7d4R27" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C163" r:id="rId142" location="diff-68ee0a752600aa9ab4838c098536cf7318be78a586a67c32241f8eee9535924dR53" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C164" r:id="rId143" location="diff-5dfd3cdf9cb69afa5d99ee869cd813e01fc441f9617b78ae7fe18ee64fe16cf8R18" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C165" r:id="rId144" location="diff-03337ef0b4344258e6d058fcf2121ae26368749a3ba8a09c3351ced2587de506R18" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C166" r:id="rId145" location="diff-b70703feb745cb21e98e6cb5957bdb018927372683911466a6e8abe845a57a31R56" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C167" r:id="rId146" location="diff-ac2b6111e514ee24ba6b43a25620d7c52efb90644a9e28c0999189815cb14c4fR16" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C168" r:id="rId147" location="diff-1ace13388e7743718ee3b21a4844160b3ea88d12d1d79c8b22b388d82ce85bf4R80" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C170" r:id="rId148" location="diff-b3f136a845ae5b7383fbc2be280c64af12352a6583ace9658cc4f6e2479df4a3R234" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C171" r:id="rId149" location="diff-36217a911c8194aeb909096e6ff4da4c38dc7d6d9b39dea52fe7150ff90193a8R80" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C172" r:id="rId150" location="diff-2e89851babbded6f80369173bfe9eafcdce30bae84257f549c3ae968171e9841R250" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C173" r:id="rId151" location="diff-36217a911c8194aeb909096e6ff4da4c38dc7d6d9b39dea52fe7150ff90193a8R84" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C174" r:id="rId152" location="diff-9b4c7846941b17ffb06861d2e040f4525889c8320a4c730af077fc74ed1c624aR52" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="C175" r:id="rId153" location="diff-be677869a88f58790f2387fb2ac0ae12e2e9610d7c7096e25d3087d5ed9645c8R487" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C177" r:id="rId154" location="diff-8bc297d3280f097ffacf974dbf47c7f549b1444fcc91f378d939deba4a800756R69" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C178" r:id="rId155" location="diff-8bc297d3280f097ffacf974dbf47c7f549b1444fcc91f378d939deba4a800756R75" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C179" r:id="rId156" location="diff-8bc297d3280f097ffacf974dbf47c7f549b1444fcc91f378d939deba4a800756R81" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C180" r:id="rId157" location="diff-b9ad592568d81ca351038fab640707c2440a9fa08afc8bd17c3647a55a6697acR218" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C181" r:id="rId158" location="diff-b9ad592568d81ca351038fab640707c2440a9fa08afc8bd17c3647a55a6697acR262" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C182" r:id="rId159" location="diff-b9ad592568d81ca351038fab640707c2440a9fa08afc8bd17c3647a55a6697acR191" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C184" r:id="rId160" location="diff-90e9f48b71d78e3f01c75206cf86b95a314285f63fc81477b7f8cd9c09e0c155R199" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C185" r:id="rId161" location="diff-22a166d8fb7c904a8302d231d13bb2a6372bd048eff4633ef6b23ca935c023a0R181" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C186" r:id="rId162" location="diff-f4b8513f2ad038786519bd890bcd7fb465b285b0f3dde842bf59b65f588cc4a0R190" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C187" r:id="rId163" location="diff-ab194f49b3f13c89de26d37e12f009fc644275b722df650e98f4c7810256270bR77" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C189" r:id="rId164" location="diff-dd89c4ba532f03a0e7dac962ac62e0a4e1204fb647aa09f9e1aa55321ff19341L11" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C190" r:id="rId165" location="diff-dd89c4ba532f03a0e7dac962ac62e0a4e1204fb647aa09f9e1aa55321ff19341L39" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C191" r:id="rId166" location="diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807L170" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C192" r:id="rId167" location="diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807R210" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C193" r:id="rId168" location="diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807R314" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="C194" r:id="rId169" location="diff-f7333b1b8aad2b78cdac70fbd9ba7d65e18d31a00df192b03ce4a598318bf807R821" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C195" r:id="rId170" location="diff-645b98c4baa359c71d0ebdcd550237358d7ae1dae6a2bf03750f6f8b36c12163R17" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C196" r:id="rId171" location="diff-645b98c4baa359c71d0ebdcd550237358d7ae1dae6a2bf03750f6f8b36c12163R263" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C197" r:id="rId172" location="diff-c46eb915f5cb2a2de3a3254969ee3e47e8062fed5851792a777a8a60bc014c90R25" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C198" r:id="rId173" location="diff-c46eb915f5cb2a2de3a3254969ee3e47e8062fed5851792a777a8a60bc014c90R66" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C199" r:id="rId174" location="diff-c46eb915f5cb2a2de3a3254969ee3e47e8062fed5851792a777a8a60bc014c90R103" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C200" r:id="rId175" location="diff-c46eb915f5cb2a2de3a3254969ee3e47e8062fed5851792a777a8a60bc014c90R116" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C201" r:id="rId176" location="diff-c46eb915f5cb2a2de3a3254969ee3e47e8062fed5851792a777a8a60bc014c90R172" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C202" r:id="rId177" location="diff-a9872a24692f6f1b9a60accd9397e205116061c1ba5915e150511208e380a6f1R778" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C203" r:id="rId178" location="diff-a9872a24692f6f1b9a60accd9397e205116061c1ba5915e150511208e380a6f1R2414" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C204" r:id="rId179" location="diff-a9872a24692f6f1b9a60accd9397e205116061c1ba5915e150511208e380a6f1R2531" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C205" r:id="rId180" location="diff-ba810eee6975904d460ad9e406f83eded89c0c49990c16fe1bfe12c92aeaca17R521" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C206" r:id="rId181" location="diff-ba810eee6975904d460ad9e406f83eded89c0c49990c16fe1bfe12c92aeaca17R2250" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C207" r:id="rId182" location="diff-ba810eee6975904d460ad9e406f83eded89c0c49990c16fe1bfe12c92aeaca17R2303" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C208" r:id="rId183" location="diff-764f0cedd33e98726d12c935495b80333a11e877a5a270d8ce53c9db152dd976R1237" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C209" r:id="rId184" location="diff-764f0cedd33e98726d12c935495b80333a11e877a5a270d8ce53c9db152dd976R3797" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C210" r:id="rId185" location="diff-b1029c91884ad11273b8755da7282076d4e6f533d299cab11fef54744af7d070R3343" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C211" r:id="rId186" location="diff-b1029c91884ad11273b8755da7282076d4e6f533d299cab11fef54744af7d070R3391" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C212" r:id="rId187" location="diff-b1029c91884ad11273b8755da7282076d4e6f533d299cab11fef54744af7d070R3540" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C213" r:id="rId188" location="diff-8ce9f544f23c7bad3bb2b712eecbcd141467a5e353991f2ac30d01e979b96a55R205" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C214" r:id="rId189" location="diff-de12b4c2d5ab8e6bfbca5f50bed12fa774e9e46fbc959ecb0495f37dea405318R82" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C215" r:id="rId190" location="diff-de12b4c2d5ab8e6bfbca5f50bed12fa774e9e46fbc959ecb0495f37dea405318R89" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C216" r:id="rId191" location="diff-18392a19b3d7ec8069a10ddde8de63c66090cdacdd9ddae59705849697385623R4082" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C218" r:id="rId192" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R105" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C219" r:id="rId193" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R127" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C220" r:id="rId194" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R323" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C221" r:id="rId195" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R327" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C222" r:id="rId196" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R332" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C223" r:id="rId197" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R337" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C224" r:id="rId198" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R342" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C225" r:id="rId199" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R388" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C226" r:id="rId200" location="diff-d25adeae4ab872feb61ef0965aba5e82b13097752f67f25517370554e41b21f1R392" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C227" r:id="rId201" location="diff-157f0c94d83b58806e298a82b763a427a61f5ebd583373109ac7a49596ec9225R23" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C228" r:id="rId202" location="diff-157f0c94d83b58806e298a82b763a427a61f5ebd583373109ac7a49596ec9225R27" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C230" r:id="rId203" location="diff-d68e656e17b481d3f5bf4df8f74508dab302c6afc6ab6c4d46b8239ed533b532L60" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C231" r:id="rId204" location="diff-699e69649f69da591231ceedd4b8b37889523e7c3db4716716e3053084e05d0eL42" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C232" r:id="rId205" location="diff-699e69649f69da591231ceedd4b8b37889523e7c3db4716716e3053084e05d0eR102" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="C234" r:id="rId206" location="diff-66bc108304bc8b841aa356538c453a6e9a7c60d7a8ee60527996914bea65794eL207" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C235" r:id="rId207" location="diff-66bc108304bc8b841aa356538c453a6e9a7c60d7a8ee60527996914bea65794eL212" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C236" r:id="rId208" location="diff-66bc108304bc8b841aa356538c453a6e9a7c60d7a8ee60527996914bea65794eL217" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C238" r:id="rId209" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL90" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C239" r:id="rId210" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL124" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C240" r:id="rId211" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C241" r:id="rId212" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L438" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C242" r:id="rId213" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL174" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C243" r:id="rId214" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL105" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C244" r:id="rId215" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R467" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C245" r:id="rId216" location="diff-7f4e5da2e7c7c83cd7143ad8206a54b4e30e8a418a0f9a2c47b74a3d35814e09L335" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C246" r:id="rId217" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL946" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C247" r:id="rId218" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL244" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C248" r:id="rId219" location="diff-7f4e5da2e7c7c83cd7143ad8206a54b4e30e8a418a0f9a2c47b74a3d35814e09L81" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C249" r:id="rId220" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L484" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C250" r:id="rId221" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL45" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C251" r:id="rId222" location="diff-5952816d17d53cba1cf7df481a76cef00c942409109577b9245f9fd3209f921eL205" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C252" r:id="rId223" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L516" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C253" r:id="rId224" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R399" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C254" r:id="rId225" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L424" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C255" r:id="rId226" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L484" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C256" r:id="rId227" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL491" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C257" r:id="rId228" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL221" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C258" r:id="rId229" location="diff-1dbee314be7494ae08c7383f47cb376530311e98095305958d21895d9c270b89L258" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C259" r:id="rId230" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L4411" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C260" r:id="rId231" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L407" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C261" r:id="rId232" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR711" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C262" r:id="rId233" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL442" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C263" r:id="rId234" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL249" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C264" r:id="rId235" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL50" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C265" r:id="rId236" location="diff-8c59bf6bedcf57b19c4b881473f2f4bb8e5700d562e5bb0250698460edad28c7R116" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="C266" r:id="rId237" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L440" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C267" r:id="rId238" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL150" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="C268" r:id="rId239" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R96" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C269" r:id="rId240" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L481" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C270" r:id="rId241" location="diff-8c59bf6bedcf57b19c4b881473f2f4bb8e5700d562e5bb0250698460edad28c7R219" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C271" r:id="rId242" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R47" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="C272" r:id="rId243" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL165" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C273" r:id="rId244" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R101" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="C274" r:id="rId245" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL65" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C275" r:id="rId246" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL478" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="C276" r:id="rId247" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caL53" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C277" r:id="rId248" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL35" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="C278" r:id="rId249" location="diff-1dbee314be7494ae08c7383f47cb376530311e98095305958d21895d9c270b89L231" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="C279" r:id="rId250" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L384" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="C280" r:id="rId251" location="diff-7f4e5da2e7c7c83cd7143ad8206a54b4e30e8a418a0f9a2c47b74a3d35814e09L66" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C281" r:id="rId252" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R55" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="C282" r:id="rId253" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L521" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C283" r:id="rId254" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L40" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="C284" r:id="rId255" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L416" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C285" r:id="rId256" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL236" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C286" r:id="rId257" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L383" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="C287" r:id="rId258" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caL65" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="C288" r:id="rId259" location="diff-412189bd4a33471e5038008d1f1e61af6f659d8ec49f6c9602bc9aea4225f9edL132" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="C289" r:id="rId260" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="C290" r:id="rId261" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L41" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C291" r:id="rId262" location="diff-8445836e9fd13f721ce97382546e600551ecdafbd18532f58afa67cfafcef290R474" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="C292" r:id="rId263" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL232" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C293" r:id="rId264" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL179" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="C294" r:id="rId265" location="diff-8445836e9fd13f721ce97382546e600551ecdafbd18532f58afa67cfafcef290R232" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="C295" r:id="rId266" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L440" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="C296" r:id="rId267" location="diff-66160b6ca724fcb80482d8bb78db0c022fb1354cdfc3b5f5c6748480588b4b8dR298" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="C297" r:id="rId268" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR132" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="C298" r:id="rId269" location="diff-8445836e9fd13f721ce97382546e600551ecdafbd18532f58afa67cfafcef290R328" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="C299" r:id="rId270" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR700" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="C300" r:id="rId271" location="diff-764002e679104e9ca7f9d338a599e7ada5bae3bfb2154474b172ee4c7233cedfL871" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="C301" r:id="rId272" location="diff-1dbee314be7494ae08c7383f47cb376530311e98095305958d21895d9c270b89L248" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="C302" r:id="rId273" location="diff-8445836e9fd13f721ce97382546e600551ecdafbd18532f58afa67cfafcef290R250" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C303" r:id="rId274" location="diff-5952816d17d53cba1cf7df481a76cef00c942409109577b9245f9fd3209f921eL202" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="C304" r:id="rId275" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL939" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="C305" r:id="rId276" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL441" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="C306" r:id="rId277" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="C307" r:id="rId278" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L499" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="C308" r:id="rId279" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="C309" r:id="rId280" location="diff-1e5d9a5d0b36f8418e06089d0689e427cf452134f9dbc87f448a2196c7b494c6R867" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="C310" r:id="rId281" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="C311" r:id="rId282" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L383" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="C312" r:id="rId283" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR225" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="C313" r:id="rId284" location="diff-f1ae13366ff380723fa98cba9570729d9ae341115b6e3dc74ae1b76050e636bfR145" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="C314" r:id="rId285" location="diff-1e5d9a5d0b36f8418e06089d0689e427cf452134f9dbc87f448a2196c7b494c6R865" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="C315" r:id="rId286" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL169" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="C316" r:id="rId287" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L514" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="C317" r:id="rId288" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L382" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="C318" r:id="rId289" location="diff-412189bd4a33471e5038008d1f1e61af6f659d8ec49f6c9602bc9aea4225f9edL132" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="C319" r:id="rId290" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL70" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="C320" r:id="rId291" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL498" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="C321" r:id="rId292" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L478" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="C322" r:id="rId293" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R524" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="C323" r:id="rId294" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL139" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="C324" r:id="rId295" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL489" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="C325" r:id="rId296" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL189" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="C326" r:id="rId297" location="diff-5952816d17d53cba1cf7df481a76cef00c942409109577b9245f9fd3209f921eL161" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="C327" r:id="rId298" location="diff-7f4e5da2e7c7c83cd7143ad8206a54b4e30e8a418a0f9a2c47b74a3d35814e09L90" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="C328" r:id="rId299" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L487" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="C329" r:id="rId300" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L218" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="C330" r:id="rId301" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L487" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="C331" r:id="rId302" location="diff-7f4e5da2e7c7c83cd7143ad8206a54b4e30e8a418a0f9a2c47b74a3d35814e09L334" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="C332" r:id="rId303" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL837" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="C333" r:id="rId304" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL119" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="C334" r:id="rId305" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR756" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="C335" r:id="rId306" location="diff-412189bd4a33471e5038008d1f1e61af6f659d8ec49f6c9602bc9aea4225f9edL132" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="C336" r:id="rId307" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL221" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="C337" r:id="rId308" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL279" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="C338" r:id="rId309" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R249" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="C339" r:id="rId310" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R64" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="C340" r:id="rId311" location="diff-5952816d17d53cba1cf7df481a76cef00c942409109577b9245f9fd3209f921eL268" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="C341" r:id="rId312" location="diff-8445836e9fd13f721ce97382546e600551ecdafbd18532f58afa67cfafcef290R476" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="C342" r:id="rId313" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="C343" r:id="rId314" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993L197" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="C344" r:id="rId315" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL169" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="C345" r:id="rId316" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL75" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="C346" r:id="rId317" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R295" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="C347" r:id="rId318" location="diff-1e5d9a5d0b36f8418e06089d0689e427cf452134f9dbc87f448a2196c7b494c6R876" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="C348" r:id="rId319" location="diff-5952816d17d53cba1cf7df481a76cef00c942409109577b9245f9fd3209f921eL133" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="C349" r:id="rId320" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL229" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="C350" r:id="rId321" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL568" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="C351" r:id="rId322" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL139" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="C352" r:id="rId323" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL80" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="C353" r:id="rId324" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL163" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="C354" r:id="rId325" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL85" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="C355" r:id="rId326" location="diff-8445836e9fd13f721ce97382546e600551ecdafbd18532f58afa67cfafcef290R472" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="C356" r:id="rId327" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL453" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="C357" r:id="rId328" location="diff-412189bd4a33471e5038008d1f1e61af6f659d8ec49f6c9602bc9aea4225f9edL95" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="C358" r:id="rId329" location="diff-8c59bf6bedcf57b19c4b881473f2f4bb8e5700d562e5bb0250698460edad28c7R119" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="C359" r:id="rId330" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R258" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="C360" r:id="rId331" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L490" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="C361" r:id="rId332" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL228" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="C362" r:id="rId333" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L441" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="C363" r:id="rId334" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR488" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="C364" r:id="rId335" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL447" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="C365" r:id="rId336" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L475" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="C366" r:id="rId337" location="diff-7f4e5da2e7c7c83cd7143ad8206a54b4e30e8a418a0f9a2c47b74a3d35814e09L448" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="C367" r:id="rId338" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL136" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="C368" r:id="rId339" location="diff-16b202110408213a921ff7524ef314d16c600523bb549078090266d8dffda3d1L470" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="C369" r:id="rId340" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="C370" r:id="rId341" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L53" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="C371" r:id="rId342" location="diff-8445836e9fd13f721ce97382546e600551ecdafbd18532f58afa67cfafcef290R508" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="C372" r:id="rId343" location="diff-d60257629c673ada23dd8a72372fdf0c9698b17c5821b2044cb36e0c89405f14R305" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="C373" r:id="rId344" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL168" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="C374" r:id="rId345" location="diff-5952816d17d53cba1cf7df481a76cef00c942409109577b9245f9fd3209f921eL192" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="C375" r:id="rId346" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL176" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="C376" r:id="rId347" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L478" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="C377" r:id="rId348" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL276" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="C378" r:id="rId349" location="diff-1dbee314be7494ae08c7383f47cb376530311e98095305958d21895d9c270b89L244" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="C379" r:id="rId350" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R465" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="C380" r:id="rId351" location="diff-16b202110408213a921ff7524ef314d16c600523bb549078090266d8dffda3d1L197" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="C381" r:id="rId352" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL464" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="C382" r:id="rId353" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL160" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="C383" r:id="rId354" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL142" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="C384" r:id="rId355" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R501" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="C385" r:id="rId356" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL178" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="C386" r:id="rId357" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL653" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="C387" r:id="rId358" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L499" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="C388" r:id="rId359" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL233" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="C389" r:id="rId360" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L4399" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="C390" r:id="rId361" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L481" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="C391" r:id="rId362" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L482" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="C392" r:id="rId363" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993L198" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="C393" r:id="rId364" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL149" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="C394" r:id="rId365" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL138" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="C395" r:id="rId366" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL143" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="C396" r:id="rId367" location="diff-8c59bf6bedcf57b19c4b881473f2f4bb8e5700d562e5bb0250698460edad28c7R52" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="C397" r:id="rId368" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L439" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="C398" r:id="rId369" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R440" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="C399" r:id="rId370" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL100" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="C400" r:id="rId371" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L382" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="C401" r:id="rId372" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL844" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="C402" r:id="rId373" location="diff-1e5d9a5d0b36f8418e06089d0689e427cf452134f9dbc87f448a2196c7b494c6R874" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="C403" r:id="rId374" location="diff-f1ae13366ff380723fa98cba9570729d9ae341115b6e3dc74ae1b76050e636bfR155" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="C404" r:id="rId375" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R442" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="C405" r:id="rId376" location="diff-f1ae13366ff380723fa98cba9570729d9ae341115b6e3dc74ae1b76050e636bfR160" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="C406" r:id="rId377" location="diff-412189bd4a33471e5038008d1f1e61af6f659d8ec49f6c9602bc9aea4225f9edL132" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="C407" r:id="rId378" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL466" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="C408" r:id="rId379" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL573" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="C409" r:id="rId380" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R323" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="C410" r:id="rId381" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL191" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="C411" r:id="rId382" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L495" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="C412" r:id="rId383" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL167" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="C413" r:id="rId384" location="diff-1dbee314be7494ae08c7383f47cb376530311e98095305958d21895d9c270b89L240" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="C414" r:id="rId385" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL457" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="C415" r:id="rId386" location="diff-8c59bf6bedcf57b19c4b881473f2f4bb8e5700d562e5bb0250698460edad28c7R114" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="C416" r:id="rId387" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L495" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="C417" r:id="rId388" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL555" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="C418" r:id="rId389" location="diff-412189bd4a33471e5038008d1f1e61af6f659d8ec49f6c9602bc9aea4225f9edL132" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="C419" r:id="rId390" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL180" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="C420" r:id="rId391" location="diff-16b202110408213a921ff7524ef314d16c600523bb549078090266d8dffda3d1L466" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="C421" r:id="rId392" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL225" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="C422" r:id="rId393" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL472" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="C423" r:id="rId394" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL40" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="C424" r:id="rId395" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R281" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="C425" r:id="rId396" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R263" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="C426" r:id="rId397" location="diff-412189bd4a33471e5038008d1f1e61af6f659d8ec49f6c9602bc9aea4225f9edL132" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="C427" r:id="rId398" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL114" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="C428" r:id="rId399" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L179" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="C429" r:id="rId400" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR717" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="C430" r:id="rId401" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL55" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="C431" r:id="rId402" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL60" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="C432" r:id="rId403" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R347" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="C433" r:id="rId404" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL291" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="C434" r:id="rId405" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL460" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="C435" r:id="rId406" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR481" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="C436" r:id="rId407" location="diff-1e5d9a5d0b36f8418e06089d0689e427cf452134f9dbc87f448a2196c7b494c6R869" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="C437" r:id="rId408" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L275" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="C438" r:id="rId409" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="C439" r:id="rId410" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL142" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="C440" r:id="rId411" location="diff-1e5d9a5d0b36f8418e06089d0689e427cf452134f9dbc87f448a2196c7b494c6L293" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="C441" r:id="rId412" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L499" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="C442" r:id="rId413" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R503" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="C443" r:id="rId414" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL337" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="C444" r:id="rId415" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L413" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="C445" r:id="rId416" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL379" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="C446" r:id="rId417" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL484" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="C447" r:id="rId418" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL506" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="C448" r:id="rId419" location="diff-16b202110408213a921ff7524ef314d16c600523bb549078090266d8dffda3d1L474" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="C449" r:id="rId420" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L419" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="C450" r:id="rId421" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caL56" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="C451" r:id="rId422" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="C452" r:id="rId423" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993L199" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="C453" r:id="rId424" location="diff-f1ae13366ff380723fa98cba9570729d9ae341115b6e3dc74ae1b76050e636bfR178" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="C454" r:id="rId425" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L384" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="C455" r:id="rId426" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L410" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="C456" r:id="rId427" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR510" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="C457" r:id="rId428" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L54" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="C458" r:id="rId429" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL207" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="C459" r:id="rId430" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R375" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="C460" r:id="rId431" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL187" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="C461" r:id="rId432" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L438" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="C462" r:id="rId433" location="diff-7f4e5da2e7c7c83cd7143ad8206a54b4e30e8a418a0f9a2c47b74a3d35814e09L497" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="C463" r:id="rId434" location="diff-33f77c2ec3ce2ab81194b08a3a23861b13d8c9593f49c650c5733d026ce8d993R438" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="C464" r:id="rId435" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL660" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="C465" r:id="rId436" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL26" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="C466" r:id="rId437" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL465" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="C467" r:id="rId438" location="diff-5a0a75405db466de362cc8bebbfe71dbae0fe3def894d00e094ba416745b22e3L407" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="C468" r:id="rId439" location="diff-b78217b46a018fe90e2895d188c30bf209d61a0239804e47b57af798e8831b6bL70" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="C469" r:id="rId440" location="diff-1dbee314be7494ae08c7383f47cb376530311e98095305958d21895d9c270b89L235" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="C470" r:id="rId441" location="diff-49912f6893223d5ccf8e703078078dfc2c5af980cefd79afefa3faba83061a9fL152" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="C471" r:id="rId442" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL155" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="C472" r:id="rId443" location="diff-0235f532879e573ad3b61b0e2f4506bf3478ab44ae4198d4d499a1c0f80eddcaL578" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="C473" r:id="rId444" location="diff-16b202110408213a921ff7524ef314d16c600523bb549078090266d8dffda3d1L180" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="C474" r:id="rId445" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL220" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="C475" r:id="rId446" location="diff-16b202110408213a921ff7524ef314d16c600523bb549078090266d8dffda3d1L188" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="C476" r:id="rId447" location="diff-d743a4f5aea970336d161b84d3b6f7d9bcda275326cd610c543598ba44bad8caR580" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="C477" r:id="rId448" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL105" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="C478" r:id="rId449" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL253" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="C479" r:id="rId450" location="diff-412189bd4a33471e5038008d1f1e61af6f659d8ec49f6c9602bc9aea4225f9edL143" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="C480" r:id="rId451" location="diff-1e5d9a5d0b36f8418e06089d0689e427cf452134f9dbc87f448a2196c7b494c6L60" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="C481" r:id="rId452" location="diff-ea2dab07c78f58e4c483f092fcc7965b62fc17a5f0253d6ea046fe5816d46878L550" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="C482" r:id="rId453" location="diff-aaf5373e28920a4085f24ea49f8163d0a24fcf9b544f7fdb502f16fd9e6cc02fL148" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="C483" r:id="rId454" location="diff-d0e2d4922d71a9fa1c80e86d94361c1abebba3f271fadf6e15b14fbc88cfb6b1R92" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="C484" r:id="rId455" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL234" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="C485" r:id="rId456" location="diff-4ef49fcca03c22303a18b4e7e89a83555965457c97a5be89507d0d768e676f5cL513" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="C486" r:id="rId457" location="diff-66160b6ca724fcb80482d8bb78db0c022fb1354cdfc3b5f5c6748480588b4b8dR364" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="C487" r:id="rId458" location="diff-e0c534f299457278700ee68add18acf0d4b2a1dd9391e1bcc49f3fe1b472fe67L502" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="C489" r:id="rId459" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R246" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="C490" r:id="rId460" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L474" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="C491" r:id="rId461" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R442" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="C492" r:id="rId462" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R349" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="C493" r:id="rId463" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R442" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="C494" r:id="rId464" location="diff-92dc3d1d1bb576fcd0df2aced27579b8ce8cfa02f5863d8120972053671e54f8L116" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="C495" r:id="rId465" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L1044" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="C496" r:id="rId466" location="diff-fb83a8c54b1b67e406df95bb5ab5dc32cbe28d067d1126b994978522617b678fL327" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="C497" r:id="rId467" location="diff-02acb520abe2bd363f5781f14730e944055287f772d4b493648936b5ae0b3736L135" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="C498" r:id="rId468" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L131" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="C499" r:id="rId469" location="diff-e91fc9a820946de25ef4bf6809f01bfc30f3b912d1b3c5686be003a35ec1af10L34" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="C500" r:id="rId470" location="diff-a9cca8a8329c863397fe34e6116ce5b6557d9724acea3a8e1523555bae9f2fd3L93" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="C501" r:id="rId471" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L131" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="C502" r:id="rId472" location="diff-06c9a9e336686828e4a64c4a8ddcfa4e4d8ab1e13f0675b022e6c930d1252a0dL40" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="C503" r:id="rId473" location="diff-5347875f6e419db4741c58f2e31eb8eeee635223c00bee895f5e903aef247bf8L180" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="C504" r:id="rId474" location="diff-764002e679104e9ca7f9d338a599e7ada5bae3bfb2154474b172ee4c7233cedfL1154" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="C505" r:id="rId475" location="diff-764002e679104e9ca7f9d338a599e7ada5bae3bfb2154474b172ee4c7233cedfL1264" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="C506" r:id="rId476" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R451" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="C507" r:id="rId477" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R436" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="C508" r:id="rId478" location="diff-8fff798a490d9b802336e8cca7230d2d31b95ff283c597cdc174c17d840364d2L144" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="C509" r:id="rId479" location="diff-08da55b6f2d5b6dc735a78fe2c00050461dfc7511279cd8a33bfa3bf1882388cR33" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="C510" r:id="rId480" location="diff-a9cca8a8329c863397fe34e6116ce5b6557d9724acea3a8e1523555bae9f2fd3L89" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="C511" r:id="rId481" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R300" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="C512" r:id="rId482" location="diff-764002e679104e9ca7f9d338a599e7ada5bae3bfb2154474b172ee4c7233cedfL1128" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="C513" r:id="rId483" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R321" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="C514" r:id="rId484" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L174" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="C515" r:id="rId485" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L106" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="C516" r:id="rId486" location="diff-66d7de2095fc6d477ccab06baf860de0652f272320a1c552c66ff36966ab3676L212" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="C517" r:id="rId487" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R3255" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="C518" r:id="rId488" location="diff-66d7de2095fc6d477ccab06baf860de0652f272320a1c552c66ff36966ab3676L34" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="C519" r:id="rId489" location="diff-66d7de2095fc6d477ccab06baf860de0652f272320a1c552c66ff36966ab3676L253" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="C520" r:id="rId490" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R246" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="C521" r:id="rId491" location="diff-a7d6eaf778b7e190e9cff608355003cf17b1d1290d62d37ac8d08d8aa52c5921L174" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="C522" r:id="rId492" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R436" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="C523" r:id="rId493" location="diff-06c9a9e336686828e4a64c4a8ddcfa4e4d8ab1e13f0675b022e6c930d1252a0dL41" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="C524" r:id="rId494" location="diff-66d7de2095fc6d477ccab06baf860de0652f272320a1c552c66ff36966ab3676L217" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="C525" r:id="rId495" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R249" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="C526" r:id="rId496" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R207" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="C527" r:id="rId497" location="diff-fb83a8c54b1b67e406df95bb5ab5dc32cbe28d067d1126b994978522617b678fL335" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="C528" r:id="rId498" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R300" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="C529" r:id="rId499" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R353" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="C530" r:id="rId500" location="diff-a9cca8a8329c863397fe34e6116ce5b6557d9724acea3a8e1523555bae9f2fd3L87" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="C531" r:id="rId501" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L207" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="C532" r:id="rId502" location="diff-e91fc9a820946de25ef4bf6809f01bfc30f3b912d1b3c5686be003a35ec1af10L27" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="C533" r:id="rId503" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L616" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="C534" r:id="rId504" location="diff-02acb520abe2bd363f5781f14730e944055287f772d4b493648936b5ae0b3736L135" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="C535" r:id="rId505" location="diff-7fce854efc965a1319e519da0c95d60dd789dcc5005146e6355c9571425cc761R39" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="C536" r:id="rId506" location="diff-cd3ca2a66b888e02f56149632b5ba9cd5d036a084b63a90cece11dbd086ea557L14" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="C537" r:id="rId507" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R321" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="C538" r:id="rId508" location="diff-7fce854efc965a1319e519da0c95d60dd789dcc5005146e6355c9571425cc761R39" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="C539" r:id="rId509" location="diff-7f65dc825a7b926c0c783c0f62879d06318563830f8be0e63821b1fde9f5796bL159" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="C540" r:id="rId510" location="diff-fb83a8c54b1b67e406df95bb5ab5dc32cbe28d067d1126b994978522617b678fL333" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="C541" r:id="rId511" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L187" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="C542" r:id="rId512" location="diff-e91fc9a820946de25ef4bf6809f01bfc30f3b912d1b3c5686be003a35ec1af10L30" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="C543" r:id="rId513" location="diff-e9fbba57002acf1400bee7d9a5f8b6981d4c348411c2a253cdc4ffdb3858b059L523" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="C544" r:id="rId514" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R207" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="C545" r:id="rId515" location="diff-fb83a8c54b1b67e406df95bb5ab5dc32cbe28d067d1126b994978522617b678fL331" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="C546" r:id="rId516" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R349" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="C547" r:id="rId517" location="diff-7fce854efc965a1319e519da0c95d60dd789dcc5005146e6355c9571425cc761R32" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="C548" r:id="rId518" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R214" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="C549" r:id="rId519" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R214" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="C550" r:id="rId520" location="diff-7fce854efc965a1319e519da0c95d60dd789dcc5005146e6355c9571425cc761R50" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="C551" r:id="rId521" location="diff-08da55b6f2d5b6dc735a78fe2c00050461dfc7511279cd8a33bfa3bf1882388cR33" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="C552" r:id="rId522" location="diff-66d7de2095fc6d477ccab06baf860de0652f272320a1c552c66ff36966ab3676L206" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="C553" r:id="rId523" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L475" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="C554" r:id="rId524" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L134" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="C555" r:id="rId525" location="diff-e9fbba57002acf1400bee7d9a5f8b6981d4c348411c2a253cdc4ffdb3858b059L264" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="C556" r:id="rId526" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R473" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="C557" r:id="rId527" location="diff-764002e679104e9ca7f9d338a599e7ada5bae3bfb2154474b172ee4c7233cedfL1134" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="C558" r:id="rId528" location="diff-06c9a9e336686828e4a64c4a8ddcfa4e4d8ab1e13f0675b022e6c930d1252a0dL38" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="C559" r:id="rId529" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R451" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="C560" r:id="rId530" location="diff-7fce854efc965a1319e519da0c95d60dd789dcc5005146e6355c9571425cc761R32" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="C561" r:id="rId531" location="diff-7fce854efc965a1319e519da0c95d60dd789dcc5005146e6355c9571425cc761R50" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="C562" r:id="rId532" location="diff-5347875f6e419db4741c58f2e31eb8eeee635223c00bee895f5e903aef247bf8L56" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="C563" r:id="rId533" location="diff-fb83a8c54b1b67e406df95bb5ab5dc32cbe28d067d1126b994978522617b678fL329" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="C564" r:id="rId534" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539L192" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="C565" r:id="rId535" location="diff-fb83a8c54b1b67e406df95bb5ab5dc32cbe28d067d1126b994978522617b678fL337" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="C566" r:id="rId536" location="diff-a9cca8a8329c863397fe34e6116ce5b6557d9724acea3a8e1523555bae9f2fd3L91" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="C567" r:id="rId537" location="diff-08da55b6f2d5b6dc735a78fe2c00050461dfc7511279cd8a33bfa3bf1882388cR25" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="C568" r:id="rId538" location="diff-08da55b6f2d5b6dc735a78fe2c00050461dfc7511279cd8a33bfa3bf1882388cR25" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="C569" r:id="rId539" location="diff-5703b573897e15db9bd95970e3cc090cd266fb8a019eb1fdfae81d2329787539R325" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="C570" r:id="rId540" location="diff-f29f0409a59927b6271c4aa112182510b6cd879a8dceb15193cb10b13aa58276L34" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="C571" r:id="rId541" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L1021" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="C572" r:id="rId542" location="diff-e91fc9a820946de25ef4bf6809f01bfc30f3b912d1b3c5686be003a35ec1af10L37" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="C573" r:id="rId543" location="diff-fb83a8c54b1b67e406df95bb5ab5dc32cbe28d067d1126b994978522617b678fL334" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="C574" r:id="rId544" location="diff-92dc3d1d1bb576fcd0df2aced27579b8ce8cfa02f5863d8120972053671e54f8L119" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="C575" r:id="rId545" location="diff-06c9a9e336686828e4a64c4a8ddcfa4e4d8ab1e13f0675b022e6c930d1252a0dL39" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="C577" r:id="rId546" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L729" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="C578" r:id="rId547" location="diff-34b71544819c5073bfc9083343bf0fa1072ae6f874d13dacaef835db8de1f0a5L173" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="C579" r:id="rId548" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L376" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="C580" r:id="rId549" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L336" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="C581" r:id="rId550" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L312" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="C582" r:id="rId551" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L668" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="C583" r:id="rId552" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L762" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="C584" r:id="rId553" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L519" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="C585" r:id="rId554" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L698" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="C586" r:id="rId555" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL144" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="C587" r:id="rId556" location="diff-82b96c4de3880642afa90f01a32ca3b1dbac2918d037990a7826ba4dc206a939L400" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="C588" r:id="rId557" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L588" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="C589" r:id="rId558" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L824" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="C590" r:id="rId559" location="diff-34b71544819c5073bfc9083343bf0fa1072ae6f874d13dacaef835db8de1f0a5L184" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
+    <hyperlink ref="C591" r:id="rId560" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL61" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
+    <hyperlink ref="C592" r:id="rId561" location="diff-e52d403f114ff9552652d14aaca544e36c2708995ec768aebee734b8e50af954L107" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="C593" r:id="rId562" location="diff-e52d403f114ff9552652d14aaca544e36c2708995ec768aebee734b8e50af954L128" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="C594" r:id="rId563" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L543" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="C595" r:id="rId564" location="diff-958cd63bcbf554b42a9dc760865c6fdf6bc972d612dedd689860d0fb233770f4L24" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="C596" r:id="rId565" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L266" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="C597" r:id="rId566" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L850" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="C598" r:id="rId567" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L650" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="C599" r:id="rId568" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL104" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="C600" r:id="rId569" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L409" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="C601" r:id="rId570" location="diff-f29f0409a59927b6271c4aa112182510b6cd879a8dceb15193cb10b13aa58276L275" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="C602" r:id="rId571" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L440" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="C603" r:id="rId572" location="diff-debd30dee80a99f59dd108dda17a9920eb595b899c1d1d62796d527d08bbffa2L63" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="C604" r:id="rId573" location="diff-58758a0d1f52cd6fc699572144ec07ef2eae4cb1af180a121b7ad015a30e0350L105" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="C605" r:id="rId574" location="diff-e52d403f114ff9552652d14aaca544e36c2708995ec768aebee734b8e50af954L121" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="C606" r:id="rId575" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL40" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="C607" r:id="rId576" location="diff-0da3e1bd3b6ff0eb0e65d7c27d70c1c2e0d8d623dbb9240a6786a01eb9799cf1L29" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="C608" r:id="rId577" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL107" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="C609" r:id="rId578" location="diff-5e53cf452b44e9059cdbdda37fb57dac4d9190d7c141c70d7427322baa9a4d27L92" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="C610" r:id="rId579" location="diff-debd30dee80a99f59dd108dda17a9920eb595b899c1d1d62796d527d08bbffa2L56" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="C611" r:id="rId580" location="diff-0da3e1bd3b6ff0eb0e65d7c27d70c1c2e0d8d623dbb9240a6786a01eb9799cf1L34" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="C612" r:id="rId581" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL37" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="C613" r:id="rId582" location="diff-debd30dee80a99f59dd108dda17a9920eb595b899c1d1d62796d527d08bbffa2L45" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="C614" r:id="rId583" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL43" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="C615" r:id="rId584" location="diff-e52d403f114ff9552652d14aaca544e36c2708995ec768aebee734b8e50af954L101" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="C616" r:id="rId585" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L607" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="C617" r:id="rId586" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL93" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="C618" r:id="rId587" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L793" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="C619" r:id="rId588" location="diff-0da3e1bd3b6ff0eb0e65d7c27d70c1c2e0d8d623dbb9240a6786a01eb9799cf1L127" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="C620" r:id="rId589" location="diff-cf851a34e3a12c15532e3921d7e74f95f769356d737ef1a437ed8b94f820856cL82" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="C621" r:id="rId590" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L475" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="C622" r:id="rId591" location="diff-ae2d36931fe713c0e0f3939ea12be757601ff2402aeb6f6d1f635477b878466fL90" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="C623" r:id="rId592" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL112" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="C624" r:id="rId593" location="diff-e52d403f114ff9552652d14aaca544e36c2708995ec768aebee734b8e50af954L115" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="C625" r:id="rId594" location="diff-b84b196318521af857bf26d608e22cef7ed8c2ac1b7d39cd8e9f54004151aa03L286" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="C626" r:id="rId595" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL101" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="C627" r:id="rId596" location="diff-36509597027476dce075b464accc40fc1eb03f9c91552c968a281e8d6093be7bL32" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="C629" r:id="rId597" location="diff-fb83a8c54b1b67e406df95bb5ab5dc32cbe28d067d1126b994978522617b678fL337" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="C630" r:id="rId598" location="diff-c96d31f562b6e386c7f6db07090804216dc33aaa064f5a2bb0c89cfa8496e27fL97" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="C631" r:id="rId599" location="diff-488832bb624a31170fd7a42c54b1399357aad7d305f8ee0841ec1fd572c8ac37L39" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="C632" r:id="rId600" location="diff-488832bb624a31170fd7a42c54b1399357aad7d305f8ee0841ec1fd572c8ac37L46" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
+    <hyperlink ref="C634" r:id="rId601" location="diff-56298727b96c2c05776fa59f72ae5f189bb16d046d5452cf8379a1fe55906bdcL64" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="C635" r:id="rId602" location="diff-56298727b96c2c05776fa59f72ae5f189bb16d046d5452cf8379a1fe55906bdcL141" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
+    <hyperlink ref="C636" r:id="rId603" location="diff-182536c81191c059f2752f04556c0506c9e44a90679f2e5d1dd1ecd00cc00047L299" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="C637" r:id="rId604" location="diff-56298727b96c2c05776fa59f72ae5f189bb16d046d5452cf8379a1fe55906bdcL80" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
+    <hyperlink ref="C638" r:id="rId605" location="diff-182536c81191c059f2752f04556c0506c9e44a90679f2e5d1dd1ecd00cc00047L336" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="C639" r:id="rId606" location="diff-56298727b96c2c05776fa59f72ae5f189bb16d046d5452cf8379a1fe55906bdcL126" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
+    <hyperlink ref="C640" r:id="rId607" location="diff-56298727b96c2c05776fa59f72ae5f189bb16d046d5452cf8379a1fe55906bdcL108" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
+    <hyperlink ref="C641" r:id="rId608" location="diff-182536c81191c059f2752f04556c0506c9e44a90679f2e5d1dd1ecd00cc00047L307" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
+    <hyperlink ref="C642" r:id="rId609" location="diff-56298727b96c2c05776fa59f72ae5f189bb16d046d5452cf8379a1fe55906bdcL85" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
+    <hyperlink ref="C643" r:id="rId610" location="diff-56298727b96c2c05776fa59f72ae5f189bb16d046d5452cf8379a1fe55906bdcL141" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
+    <hyperlink ref="C644" r:id="rId611" location="diff-182536c81191c059f2752f04556c0506c9e44a90679f2e5d1dd1ecd00cc00047L329" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
+    <hyperlink ref="C645" r:id="rId612" location="diff-56298727b96c2c05776fa59f72ae5f189bb16d046d5452cf8379a1fe55906bdcL100" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
+    <hyperlink ref="C647" r:id="rId613" location="diff-02acb520abe2bd363f5781f14730e944055287f772d4b493648936b5ae0b3736L56" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
+    <hyperlink ref="C648" r:id="rId614" location="diff-02acb520abe2bd363f5781f14730e944055287f772d4b493648936b5ae0b3736L63" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
+    <hyperlink ref="C649" r:id="rId615" location="diff-02acb520abe2bd363f5781f14730e944055287f772d4b493648936b5ae0b3736L70" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
+    <hyperlink ref="C650" r:id="rId616" location="diff-02acb520abe2bd363f5781f14730e944055287f772d4b493648936b5ae0b3736L42" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
+    <hyperlink ref="C652" r:id="rId617" location="diff-234f84a9592c7ea2ce65dcdb80f019c3b804c4d6ad16053c9ddfc6e0a64d5013L403" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
+    <hyperlink ref="C653" r:id="rId618" location="diff-234f84a9592c7ea2ce65dcdb80f019c3b804c4d6ad16053c9ddfc6e0a64d5013L292" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
+    <hyperlink ref="C654" r:id="rId619" location="diff-234f84a9592c7ea2ce65dcdb80f019c3b804c4d6ad16053c9ddfc6e0a64d5013L189" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
+    <hyperlink ref="C655" r:id="rId620" location="diff-234f84a9592c7ea2ce65dcdb80f019c3b804c4d6ad16053c9ddfc6e0a64d5013L292" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
+    <hyperlink ref="C656" r:id="rId621" location="diff-234f84a9592c7ea2ce65dcdb80f019c3b804c4d6ad16053c9ddfc6e0a64d5013L292" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
+    <hyperlink ref="C657" r:id="rId622" location="diff-234f84a9592c7ea2ce65dcdb80f019c3b804c4d6ad16053c9ddfc6e0a64d5013L189" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
+    <hyperlink ref="C659" r:id="rId623" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL63" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
+    <hyperlink ref="C660" r:id="rId624" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL68" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
+    <hyperlink ref="C661" r:id="rId625" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL73" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
+    <hyperlink ref="C662" r:id="rId626" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL80" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
+    <hyperlink ref="C663" r:id="rId627" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL85" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
+    <hyperlink ref="C664" r:id="rId628" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL90" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
+    <hyperlink ref="C665" r:id="rId629" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL95" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
+    <hyperlink ref="C666" r:id="rId630" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL100" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
+    <hyperlink ref="C667" r:id="rId631" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL112" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
+    <hyperlink ref="C668" r:id="rId632" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL117" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
+    <hyperlink ref="C669" r:id="rId633" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL128" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
+    <hyperlink ref="C670" r:id="rId634" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL137" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
+    <hyperlink ref="C671" r:id="rId635" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL140" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
+    <hyperlink ref="C672" r:id="rId636" location="diff-9d862772e7231e751d364b6313a0fd0677387d824ae9c3610916cccb5fc0428cL144" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
+    <hyperlink ref="C674" r:id="rId637" location="diff-d5ab323609cf726d69185107809d3284f909f17e69de35faaf99d26d761cf0beL155" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
+    <hyperlink ref="C675" r:id="rId638" location="diff-d5ab323609cf726d69185107809d3284f909f17e69de35faaf99d26d761cf0beL120" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
+    <hyperlink ref="C676" r:id="rId639" location="diff-d5ab323609cf726d69185107809d3284f909f17e69de35faaf99d26d761cf0beL85" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
   </hyperlinks>
-  <drawing r:id="rId640"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="19" t="s">
-        <v>608</v>
-      </c>
-      <c r="D1" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F1" s="17"/>
-      <c r="O1" s="9" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="19" t="s">
-        <v>610</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4">
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5">
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="19" t="s">
-        <v>612</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="19" t="s">
-        <v>613</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11">
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12">
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="19" t="s">
-        <v>615</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14">
-      <c r="F14" s="17"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9"/>
-      <c r="B16" s="19" t="s">
-        <v>617</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>618</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="P16" s="15"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="19" t="s">
-        <v>619</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="13"/>
-      <c r="B21" s="20" t="s">
-        <v>621</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="19" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="19" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="19" t="s">
-        <v>625</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="9"/>
-      <c r="C37" s="19" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11"/>
-      <c r="B41" s="19" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="11"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="11"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="11"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="11"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="11"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="11"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="11"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="11"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="11"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="11"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="11"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="11"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="11"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="11"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="11"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="11"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="11"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="11"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="11"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="11"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="11"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="11"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="11"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="11"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="11"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="11"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="11"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="11"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="11"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="11"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="11"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="11"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="11"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="11"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="11"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="11"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="11"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="11"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="11"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="11"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="11"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="11"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="11"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="11"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="11"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="11"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="11"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="11"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="11"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="11"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="11"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="11"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="11"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="11"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="11"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="11"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="11"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="11"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="11"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="11"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="11"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="11"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="11"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="11"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="11"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="11"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="11"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="11"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="11"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="11"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="11"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="11"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="11"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="11"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="11"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="11"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="11"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="11"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="11"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="11"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="11"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="11"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="11"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="11"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="11"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="11"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="11"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="11"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="11"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="11"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="11"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="11"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="11"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="11"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="11"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="11"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="11"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="11"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="11"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="11"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="11"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="11"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="11"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="11"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="11"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="11"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="11"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="11"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="11"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="11"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="11"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="11"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="11"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="11"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="11"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="11"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="11"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="11"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="11"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="11"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="11"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="11"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="11"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="11"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="11"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="11"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="11"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="11"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="11"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="11"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="11"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="11"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="11"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="11"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="11"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="11"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="11"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="11"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="11"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="11"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="11"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="11"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="11"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="11"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="11"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="11"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="11"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="11"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="11"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="11"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="11"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="11"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="11"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="11"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="11"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="11"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="11"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="11"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="11"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="11"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="11"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="11"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="11"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="11"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="11"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="11"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="11"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="11"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="11"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="11"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="11"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="11"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="11"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="11"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="11"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="11"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="11"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="11"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="11"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="11"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="11"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="11"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="11"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="11"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="11"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="11"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="11"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="11"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="11"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="11"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="11"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="11"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="11"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="11"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="11"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="11"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="11"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="11"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="11"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="11"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="11"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="11"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="11"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="11"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="11"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="11"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="11"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="11"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" location="diff-5ca2bc1ef15e8167538eb3cc3d7be16b9bd21cecabb97494b4c1f227921fab03R71" ref="B1"/>
-    <hyperlink r:id="rId2" location="diff-6e1be7c918d629a19e7f99c2ee61aa5c8a0270a502bc4cd4c9860286f396d490L56" ref="B3"/>
-    <hyperlink r:id="rId3" location="diff-b65070fe5615e6c711e5732e8d41ee0fe95d456876c19f58e739b7f357fa7d93L48" ref="B6"/>
-    <hyperlink r:id="rId4" location="diff-61b3aa6ccc7999af210e37ddb4a3fc43641ff718a2699532723c317e55c35888R341" ref="B9"/>
-    <hyperlink r:id="rId5" location="diff-61b3aa6ccc7999af210e37ddb4a3fc43641ff718a2699532723c317e55c35888R73" ref="B13"/>
-    <hyperlink r:id="rId6" location="diff-e2e65bf1f13a8ba1a6656d20334159456b7c07830527c336cf2d7733ba282e05L253" ref="B16"/>
-    <hyperlink r:id="rId7" location="diff-5d85baa3228ecc0711f04f433662de3e40a7e810d3a953930ec890e9eaeae26cL46" ref="B18"/>
-    <hyperlink r:id="rId8" location="diff-5282d3d7040e8e04f12d163a71382631a33fb9b4260d82c31030f52185b38d5cR168" ref="B21"/>
-    <hyperlink r:id="rId9" location="diff-e8891118044785fc96c339931d244446ddaf9ce67b000f5436f70f86878edfa3R34" ref="B25"/>
-    <hyperlink r:id="rId10" location="diff-fa3c76576694291de650c11f3e3a4d00a68e887bfedddaf1079b5a7ac6903d6cR69" ref="B29"/>
-    <hyperlink r:id="rId11" location="diff-dfd5f3f8ad667b12c5ac5b8a60e9a8bd76aebf187591c8f83b79656f2905b76bR45" ref="B32"/>
-    <hyperlink r:id="rId12" location="diff-8b503b12be61cff27acb20969788ce097f27e90ebab53ec2ebbda3f5b484ceeeL149" ref="B35"/>
-    <hyperlink r:id="rId13" location="diff-e418f92de2a3362604bbb2e9bd2334b663f4cd538943864be1681b5112de7b6fR170" ref="C37"/>
-    <hyperlink r:id="rId14" location="diff-a5fa297e66b71ac1a8685caa5c37577774be2c36024ecda7abeb70bb50214d0fR56" ref="B41"/>
-  </hyperlinks>
-  <drawing r:id="rId15"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="19" t="s">
-        <v>629</v>
-      </c>
-      <c r="M1" s="21">
-        <f t="shared" ref="M1:M46" si="1">RAND()</f>
-        <v>0.9513852355</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="19" t="s">
-        <v>630</v>
-      </c>
-      <c r="M2" s="21">
-        <f t="shared" si="1"/>
-        <v>0.5469996106</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="M3" s="21">
-        <f t="shared" si="1"/>
-        <v>0.2016329745</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="M4" s="21">
-        <f t="shared" si="1"/>
-        <v>0.4398531728</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>633</v>
-      </c>
-      <c r="M5" s="21">
-        <f t="shared" si="1"/>
-        <v>0.2889866342</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="19" t="s">
-        <v>634</v>
-      </c>
-      <c r="M6" s="21">
-        <f t="shared" si="1"/>
-        <v>0.4327718618</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="M7" s="21">
-        <f t="shared" si="1"/>
-        <v>0.01585843379</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="19" t="s">
-        <v>636</v>
-      </c>
-      <c r="M8" s="21">
-        <f t="shared" si="1"/>
-        <v>0.9462276694</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="19" t="s">
-        <v>637</v>
-      </c>
-      <c r="M9" s="21">
-        <f t="shared" si="1"/>
-        <v>0.4487070366</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="M10" s="21">
-        <f t="shared" si="1"/>
-        <v>0.8324052157</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="19" t="s">
-        <v>639</v>
-      </c>
-      <c r="M11" s="21">
-        <f t="shared" si="1"/>
-        <v>0.3880375647</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="19" t="s">
-        <v>640</v>
-      </c>
-      <c r="M12" s="21">
-        <f t="shared" si="1"/>
-        <v>0.4232977727</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="M13" s="21">
-        <f t="shared" si="1"/>
-        <v>0.8386825918</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="22" t="s">
-        <v>642</v>
-      </c>
-      <c r="M14" s="21">
-        <f t="shared" si="1"/>
-        <v>0.7962356308</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="22" t="s">
-        <v>643</v>
-      </c>
-      <c r="M15" s="21">
-        <f t="shared" si="1"/>
-        <v>0.156958879</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="19" t="s">
-        <v>644</v>
-      </c>
-      <c r="M16" s="21">
-        <f t="shared" si="1"/>
-        <v>0.8824493896</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="M17" s="21">
-        <f t="shared" si="1"/>
-        <v>0.6040487368</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="19" t="s">
-        <v>646</v>
-      </c>
-      <c r="M18" s="21">
-        <f t="shared" si="1"/>
-        <v>0.6322100464</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="19" t="s">
-        <v>647</v>
-      </c>
-      <c r="M19" s="21">
-        <f t="shared" si="1"/>
-        <v>0.8956296097</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="M20" s="21">
-        <f t="shared" si="1"/>
-        <v>0.151126678</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="M21" s="21">
-        <f t="shared" si="1"/>
-        <v>0.6050076438</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="M22" s="21">
-        <f t="shared" si="1"/>
-        <v>0.892763901</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="19" t="s">
-        <v>651</v>
-      </c>
-      <c r="M23" s="21">
-        <f t="shared" si="1"/>
-        <v>0.8775542154</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="M24" s="21">
-        <f t="shared" si="1"/>
-        <v>0.4424374367</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="19" t="s">
-        <v>652</v>
-      </c>
-      <c r="M25" s="21">
-        <f t="shared" si="1"/>
-        <v>0.3529843116</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="19" t="s">
-        <v>653</v>
-      </c>
-      <c r="M26" s="21">
-        <f t="shared" si="1"/>
-        <v>0.6685500189</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="19" t="s">
-        <v>654</v>
-      </c>
-      <c r="M27" s="21">
-        <f t="shared" si="1"/>
-        <v>0.8019593235</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="19" t="s">
-        <v>655</v>
-      </c>
-      <c r="M28" s="21">
-        <f t="shared" si="1"/>
-        <v>0.5169647256</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="19" t="s">
-        <v>613</v>
-      </c>
-      <c r="M29" s="21">
-        <f t="shared" si="1"/>
-        <v>0.175776233</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="19" t="s">
-        <v>656</v>
-      </c>
-      <c r="M30" s="21">
-        <f t="shared" si="1"/>
-        <v>0.1496209648</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="19" t="s">
-        <v>657</v>
-      </c>
-      <c r="M31" s="21">
-        <f t="shared" si="1"/>
-        <v>0.2817796132</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="19" t="s">
-        <v>658</v>
-      </c>
-      <c r="M32" s="21">
-        <f t="shared" si="1"/>
-        <v>0.6029525438</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="M33" s="21">
-        <f t="shared" si="1"/>
-        <v>0.4499836632</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="19" t="s">
-        <v>660</v>
-      </c>
-      <c r="M34" s="21">
-        <f t="shared" si="1"/>
-        <v>0.4898613131</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="19" t="s">
-        <v>661</v>
-      </c>
-      <c r="M35" s="21">
-        <f t="shared" si="1"/>
-        <v>0.4937275328</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="M36" s="21">
-        <f t="shared" si="1"/>
-        <v>0.2693542493</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="M37" s="21">
-        <f t="shared" si="1"/>
-        <v>0.2126410516</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="19" t="s">
-        <v>664</v>
-      </c>
-      <c r="M38" s="21">
-        <f t="shared" si="1"/>
-        <v>0.2419131162</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="19" t="s">
-        <v>665</v>
-      </c>
-      <c r="M39" s="21">
-        <f t="shared" si="1"/>
-        <v>0.191526806</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="19" t="s">
-        <v>666</v>
-      </c>
-      <c r="M40" s="21">
-        <f t="shared" si="1"/>
-        <v>0.1308026312</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="19" t="s">
-        <v>667</v>
-      </c>
-      <c r="M41" s="21">
-        <f t="shared" si="1"/>
-        <v>0.8438521685</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="M42" s="21">
-        <f t="shared" si="1"/>
-        <v>0.01753139474</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="M43" s="21">
-        <f t="shared" si="1"/>
-        <v>0.4913981584</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="19" t="s">
-        <v>670</v>
-      </c>
-      <c r="M44" s="21">
-        <f t="shared" si="1"/>
-        <v>0.6043806402</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="19" t="s">
-        <v>671</v>
-      </c>
-      <c r="M45" s="21">
-        <f t="shared" si="1"/>
-        <v>0.7983650646</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="M46" s="21">
-        <f t="shared" si="1"/>
-        <v>0.572253524</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" location="diff-81bfb58376b7a3f48aef45f4cc4384fa6faea1ad661ce226b904bf0b345c5714L77" ref="A1"/>
-    <hyperlink r:id="rId2" location="diff-dc739dbc0f24c474ce1fec737e43e83ebc0ed9f8768518a7ee7edb3da9f1dc94L186" ref="A2"/>
-    <hyperlink r:id="rId3" location="diff-b36b9e0ef3d3d534810dc5cc50ad9f7ed1c5f17b9b3419157cd5ad8a14be9f2eL101" ref="A3"/>
-    <hyperlink r:id="rId4" location="diff-c969059369ef193e5a3d63477b420d77e3e76fccf4976aa6f56ae6ebf02bc17eL42" ref="A4"/>
-    <hyperlink r:id="rId5" location="diff-43c08b9b4fabc7bdc51eb7959300798edd3e53b79efb12ba0b8f740c189ccacfL23" ref="A5"/>
-    <hyperlink r:id="rId6" location="diff-f33e52acaa412c90c3780898bb0ec52d96e9c37a4896ee788c2234c5f5a3a0beL123" ref="A6"/>
-    <hyperlink r:id="rId7" location="diff-9342bc960e754c82530ad115d9f6ab81e054b735ea399bb777ea74be0c184515L169" ref="A7"/>
-    <hyperlink r:id="rId8" location="diff-630874e817e558b5870661301c7f5bd3ae00eff13389522e254c7cd2255fc395L580" ref="A8"/>
-    <hyperlink r:id="rId9" location="diff-1d651c0f7062f063843b3ca8e460e35f7a1fbdb3a3b6acca0c6453846646556cL83" ref="A9"/>
-    <hyperlink r:id="rId10" location="diff-d005bf329c0b484ccf5acccb7ae4179e935ccfc465688d9a89e350d6cc5cbf1eL23" ref="A10"/>
-    <hyperlink r:id="rId11" location="diff-5ca2bc1ef15e8167538eb3cc3d7be16b9bd21cecabb97494b4c1f227921fab03L142" ref="A11"/>
-    <hyperlink r:id="rId12" location="diff-b0872a331b6099a327165e2a174047f2d9d42f9fb6f97cf6b5fd62325bf3c84dL117" ref="A12"/>
-    <hyperlink r:id="rId13" location="diff-563c9f24ef2eb518bdbc6f3aca0af0f0bc5ef1872e3dbd4f5efc16a39f0e201bL8" ref="A13"/>
-    <hyperlink r:id="rId14" location="diff-9f489daba0bb4d1112107276320e56a59120d40ba67c23b2ecd5994ab1995c43L57" ref="A14"/>
-    <hyperlink r:id="rId15" location="diff-1d29b29ad3019cd8bccc127c384493dea24738b613b279a09eff266fca875412L116" ref="A15"/>
-    <hyperlink r:id="rId16" location="diff-9f489daba0bb4d1112107276320e56a59120d40ba67c23b2ecd5994ab1995c43L45" ref="A16"/>
-    <hyperlink r:id="rId17" location="diff-90bad197b802d088992f4ff6e0cee1889c2b32e15fb55e5c93bab66f12da970dL28" ref="A17"/>
-    <hyperlink r:id="rId18" location="diff-c7b96e0e6485d10adc1a6b29b739377dc78072fff8eb02724385b7d6809fa4d2L26" ref="A18"/>
-    <hyperlink r:id="rId19" location="diff-7759957a3a243b5714613f45bd9d002cd4f78e0804d97bd12ff426e418cf4329L11" ref="A19"/>
-    <hyperlink r:id="rId20" location="diff-f053408d09422e4bb8087a60571462616a2d60bdf4354f35f0a50b577646d083L215" ref="A20"/>
-    <hyperlink r:id="rId21" location="diff-54d2674e7b1d1fe436f74ced335a1d4e241b958a9e1eb49685209ad4bed1b5e1L274" ref="A21"/>
-    <hyperlink r:id="rId22" location="diff-f4c7ccd4c776ce6db4bca7c4c59a7f45f733278c29ef22ddf69a56c67b2bc1faR41" ref="A22"/>
-    <hyperlink r:id="rId23" location="diff-c9ef9dd5e0320d16d66f9c7eed5737375b633615b63740bf65d233e2b104fa06L23" ref="A23"/>
-    <hyperlink r:id="rId24" location="diff-563c9f24ef2eb518bdbc6f3aca0af0f0bc5ef1872e3dbd4f5efc16a39f0e201bL8" ref="A24"/>
-    <hyperlink r:id="rId25" location="diff-9253386dccb0c1f9219c858826229bac6572a8bbbab1d0b8f00de83a9098fdcbL200" ref="A25"/>
-    <hyperlink r:id="rId26" location="diff-b08f8eb68f1020decc0addd2758a1b71e202215b4d9756bda4e422e8a35e243cL2606" ref="A26"/>
-    <hyperlink r:id="rId27" location="diff-ffffd9f6c1a5a6b69ddecc6f7471e3740181fb3e2ca8b20c548c854ea19460c1L43" ref="A27"/>
-    <hyperlink r:id="rId28" location="diff-2ba9472389d12aaf1b685f68b027b46be8d26094c36f681c92bf4b534ec3b7b1L18" ref="A28"/>
-    <hyperlink r:id="rId29" location="diff-61b3aa6ccc7999af210e37ddb4a3fc43641ff718a2699532723c317e55c35888R341" ref="A29"/>
-    <hyperlink r:id="rId30" location="diff-9f489daba0bb4d1112107276320e56a59120d40ba67c23b2ecd5994ab1995c43L51" ref="A30"/>
-    <hyperlink r:id="rId31" location="diff-60f61ab7a8d1910d86d9fda2261620314edcae5894d5aaa236b821c7256badd7L7" ref="A31"/>
-    <hyperlink r:id="rId32" location="diff-e4aadb728d9b76cccd5ae2a38b57ff17aa78d192aaac19dd990d47a6c27d4368L34" ref="A32"/>
-    <hyperlink r:id="rId33" location="diff-9342bc960e754c82530ad115d9f6ab81e054b735ea399bb777ea74be0c184515R145" ref="A33"/>
-    <hyperlink r:id="rId34" location="diff-153e25b84be59af6181c019d94c955908c35b4436f51fe9be39adc74a0411f82L34" ref="A34"/>
-    <hyperlink r:id="rId35" location="diff-72679ce8c5571d1aa23ab9e1d69ec76dae8ee6af94744aa721bc9a17412c0df0L15" ref="A35"/>
-    <hyperlink r:id="rId36" location="diff-cbc783e04fab01575685fc805e7da07243849dfe7aee261c710dcf3692d03bbdL276" ref="A36"/>
-    <hyperlink r:id="rId37" location="diff-c969059369ef193e5a3d63477b420d77e3e76fccf4976aa6f56ae6ebf02bc17eR42" ref="A37"/>
-    <hyperlink r:id="rId38" location="diff-7db682582b2ebd3272256f3c35a0c91253f72290c94cff05d3a9a578fbcd0164R104" ref="A38"/>
-    <hyperlink r:id="rId39" location="diff-9f489daba0bb4d1112107276320e56a59120d40ba67c23b2ecd5994ab1995c43L39" ref="A39"/>
-    <hyperlink r:id="rId40" location="diff-830dfecb0f096e4c94cb42aade24632c53155a692b3af342d60a71cb8c2b9ac7L1369" ref="A40"/>
-    <hyperlink r:id="rId41" location="diff-eab5316441440d2b3d5ef2142c1f79f63035c96660db08ef9e4c7b895ddcfd4aR100" ref="A41"/>
-    <hyperlink r:id="rId42" location="diff-60f61ab7a8d1910d86d9fda2261620314edcae5894d5aaa236b821c7256badd7L9" ref="A42"/>
-    <hyperlink r:id="rId43" location="diff-e696bad8c806ca776215699a28deab32cdb2b7189d3b9641e565784c37a991c3L136" ref="A43"/>
-    <hyperlink r:id="rId44" location="diff-608c75b25e53d0560334d6aaaff5eaeec750c9e77aa01486edb103e2cd0976cdL487" ref="A44"/>
-    <hyperlink r:id="rId45" location="diff-b36b9e0ef3d3d534810dc5cc50ad9f7ed1c5f17b9b3419157cd5ad8a14be9f2eR754" ref="A45"/>
-    <hyperlink r:id="rId46" location="diff-9342bc960e754c82530ad115d9f6ab81e054b735ea399bb777ea74be0c184515L198" ref="A46"/>
-  </hyperlinks>
-  <drawing r:id="rId47"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>